--- a/Data_file/import_invoice_CN.xlsx
+++ b/Data_file/import_invoice_CN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="683">
   <si>
     <t>invoice_date</t>
   </si>
@@ -2067,13 +2067,19 @@
   </si>
   <si>
     <t>CNX-SETUP</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>OB-AR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2081,6 +2087,12 @@
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2103,9 +2115,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -2386,10 +2399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H346"/>
+  <dimension ref="A1:I346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E323" sqref="E323"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2397,9 +2410,12 @@
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" customWidth="1"/>
     <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2424,8 +2440,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>43747</v>
       </c>
@@ -2444,8 +2463,11 @@
       <c r="F2">
         <v>-214</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>43593</v>
       </c>
@@ -2464,8 +2486,11 @@
       <c r="F3">
         <v>-2058.41</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>43593</v>
       </c>
@@ -2484,8 +2509,11 @@
       <c r="F4">
         <v>-25615.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>43593</v>
       </c>
@@ -2504,8 +2532,11 @@
       <c r="F5">
         <v>-11313.65</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>39820</v>
       </c>
@@ -2524,8 +2555,11 @@
       <c r="F6">
         <v>-26394.4604</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>42072</v>
       </c>
@@ -2544,8 +2578,11 @@
       <c r="F7">
         <v>-12856.691999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>43194</v>
       </c>
@@ -2564,8 +2601,11 @@
       <c r="F8">
         <v>-6099</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>42719</v>
       </c>
@@ -2584,8 +2624,11 @@
       <c r="F9">
         <v>-128617.81</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>42719</v>
       </c>
@@ -2604,8 +2647,11 @@
       <c r="F10">
         <v>-78619.83</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>42277</v>
       </c>
@@ -2624,8 +2670,11 @@
       <c r="F11">
         <v>-7164.0352000000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>40295</v>
       </c>
@@ -2644,8 +2693,11 @@
       <c r="F12">
         <v>-3148.4749999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>40190</v>
       </c>
@@ -2664,8 +2716,11 @@
       <c r="F13">
         <v>-3503.8220000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>40658</v>
       </c>
@@ -2684,8 +2739,11 @@
       <c r="F14">
         <v>-203.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>41122</v>
       </c>
@@ -2704,8 +2762,11 @@
       <c r="F15">
         <v>-5377.29</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>40953</v>
       </c>
@@ -2724,8 +2785,11 @@
       <c r="F16">
         <v>-2989.9992999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="I16" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>41912</v>
       </c>
@@ -2744,8 +2808,11 @@
       <c r="F17">
         <v>-122.41</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="I17" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>39248</v>
       </c>
@@ -2764,8 +2831,11 @@
       <c r="F18">
         <v>-10362.950000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="I18" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>40745</v>
       </c>
@@ -2784,8 +2854,11 @@
       <c r="F19">
         <v>-13226</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="I19" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>40745</v>
       </c>
@@ -2804,8 +2877,11 @@
       <c r="F20">
         <v>-7996.69</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="I20" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>40745</v>
       </c>
@@ -2824,8 +2900,11 @@
       <c r="F21">
         <v>-139.21</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="I21" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>40745</v>
       </c>
@@ -2844,8 +2923,11 @@
       <c r="F22">
         <v>-1520.71</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="I22" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>40745</v>
       </c>
@@ -2864,8 +2946,11 @@
       <c r="F23">
         <v>-1709.37</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="I23" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>40752</v>
       </c>
@@ -2884,8 +2969,11 @@
       <c r="F24">
         <v>-2665.56</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="I24" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>41879</v>
       </c>
@@ -2904,8 +2992,11 @@
       <c r="F25">
         <v>-6224.39</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="I25" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>41879</v>
       </c>
@@ -2924,8 +3015,11 @@
       <c r="F26">
         <v>-3034.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="I26" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>41850</v>
       </c>
@@ -2944,8 +3038,11 @@
       <c r="F27">
         <v>-9804.59</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="I27" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>41851</v>
       </c>
@@ -2964,8 +3061,11 @@
       <c r="F28">
         <v>-66994.16</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="I28" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>41851</v>
       </c>
@@ -2984,8 +3084,11 @@
       <c r="F29">
         <v>-25677.58</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="I29" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>41856</v>
       </c>
@@ -3004,8 +3107,11 @@
       <c r="F30">
         <v>-26145.58</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="I30" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>41879</v>
       </c>
@@ -3024,8 +3130,11 @@
       <c r="F31">
         <v>-15638.99</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="I31" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>41879</v>
       </c>
@@ -3044,8 +3153,11 @@
       <c r="F32">
         <v>-13072.79</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="I32" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>41848</v>
       </c>
@@ -3064,8 +3176,11 @@
       <c r="F33">
         <v>-24585.57</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="I33" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>41879</v>
       </c>
@@ -3084,8 +3199,11 @@
       <c r="F34">
         <v>-40926.559999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="I34" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>41879</v>
       </c>
@@ -3104,8 +3222,11 @@
       <c r="F35">
         <v>-9804.59</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="I35" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>41879</v>
       </c>
@@ -3124,8 +3245,11 @@
       <c r="F36">
         <v>-9102.6</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="I36" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>41879</v>
       </c>
@@ -3144,8 +3268,11 @@
       <c r="F37">
         <v>-19609.18</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="I37" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>41879</v>
       </c>
@@ -3164,8 +3291,11 @@
       <c r="F38">
         <v>-14780.98</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="I38" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>41879</v>
       </c>
@@ -3184,8 +3314,11 @@
       <c r="F39">
         <v>-2956.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="I39" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>41851</v>
       </c>
@@ -3204,8 +3337,11 @@
       <c r="F40">
         <v>-18049.18</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="I40" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>41851</v>
       </c>
@@ -3224,8 +3360,11 @@
       <c r="F41">
         <v>-8868.59</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="I41" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>41856</v>
       </c>
@@ -3244,8 +3383,11 @@
       <c r="F42">
         <v>-3268.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="I42" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>41824</v>
       </c>
@@ -3264,8 +3406,11 @@
       <c r="F43">
         <v>-577.20079999999996</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="I43" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>41879</v>
       </c>
@@ -3284,8 +3429,11 @@
       <c r="F44">
         <v>-55559.35</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="I44" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>41879</v>
       </c>
@@ -3304,8 +3452,11 @@
       <c r="F45">
         <v>-14780.98</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="I45" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
         <v>41850</v>
       </c>
@@ -3324,8 +3475,11 @@
       <c r="F46">
         <v>-11824.78</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="I46" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1">
         <v>41856</v>
       </c>
@@ -3344,8 +3498,11 @@
       <c r="F47">
         <v>-16340.99</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="I47" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>41879</v>
       </c>
@@ -3364,8 +3521,11 @@
       <c r="F48">
         <v>-9804.59</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="I48" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>41850</v>
       </c>
@@ -3384,8 +3544,11 @@
       <c r="F49">
         <v>-6536.39</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="I49" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>41879</v>
       </c>
@@ -3404,8 +3567,11 @@
       <c r="F50">
         <v>-2956.2</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="I50" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>41879</v>
       </c>
@@ -3424,8 +3590,11 @@
       <c r="F51">
         <v>-3783</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="I51" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1">
         <v>41879</v>
       </c>
@@ -3444,8 +3613,11 @@
       <c r="F52">
         <v>-3817.76</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="I52" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1">
         <v>41880</v>
       </c>
@@ -3464,8 +3636,11 @@
       <c r="F53">
         <v>-538.20000000000005</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="I53" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1">
         <v>41880</v>
       </c>
@@ -3484,8 +3659,11 @@
       <c r="F54">
         <v>-9711</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="I54" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1">
         <v>41880</v>
       </c>
@@ -3504,8 +3682,11 @@
       <c r="F55">
         <v>-32705.38</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="I55" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1">
         <v>41880</v>
       </c>
@@ -3524,8 +3705,11 @@
       <c r="F56">
         <v>-62244.04</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="I56" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1">
         <v>41880</v>
       </c>
@@ -3544,8 +3728,11 @@
       <c r="F57">
         <v>-8580</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="I57" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1">
         <v>41851</v>
       </c>
@@ -3564,8 +3751,11 @@
       <c r="F58">
         <v>-3034.2</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="I58" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1">
         <v>41851</v>
       </c>
@@ -3584,8 +3774,11 @@
       <c r="F59">
         <v>-11824.78</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="I59" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1">
         <v>41851</v>
       </c>
@@ -3604,8 +3797,11 @@
       <c r="F60">
         <v>-39218.370000000003</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="I60" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1">
         <v>41879</v>
       </c>
@@ -3624,8 +3820,11 @@
       <c r="F61">
         <v>-3268.2</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="I61" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1">
         <v>41879</v>
       </c>
@@ -3644,8 +3843,11 @@
       <c r="F62">
         <v>-2956.2</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="I62" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1">
         <v>41879</v>
       </c>
@@ -3664,8 +3866,11 @@
       <c r="F63">
         <v>-2956.2</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="I63" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1">
         <v>41879</v>
       </c>
@@ -3684,8 +3889,11 @@
       <c r="F64">
         <v>-2956.2</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="I64" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1">
         <v>41848</v>
       </c>
@@ -3704,8 +3912,11 @@
       <c r="F65">
         <v>-18205.189999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="I65" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1">
         <v>41856</v>
       </c>
@@ -3724,8 +3935,11 @@
       <c r="F66">
         <v>-14780.98</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="I66" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1">
         <v>41856</v>
       </c>
@@ -3744,8 +3958,11 @@
       <c r="F67">
         <v>-6536.39</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="I67" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1">
         <v>41856</v>
       </c>
@@ -3764,8 +3981,11 @@
       <c r="F68">
         <v>-11824.78</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="I68" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1">
         <v>41879</v>
       </c>
@@ -3784,8 +4004,11 @@
       <c r="F69">
         <v>-5912.39</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="I69" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1">
         <v>41850</v>
       </c>
@@ -3804,8 +4027,11 @@
       <c r="F70">
         <v>-16340.99</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="I70" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1">
         <v>41850</v>
       </c>
@@ -3824,8 +4050,11 @@
       <c r="F71">
         <v>-41238.559999999998</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="I71" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1">
         <v>41848</v>
       </c>
@@ -3844,8 +4073,11 @@
       <c r="F72">
         <v>-12448.786599999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="I72" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1">
         <v>41851</v>
       </c>
@@ -3864,8 +4096,11 @@
       <c r="F73">
         <v>-11824.78</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="I73" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1">
         <v>41851</v>
       </c>
@@ -3884,8 +4119,11 @@
       <c r="F74">
         <v>-29413.78</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="I74" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1">
         <v>41851</v>
       </c>
@@ -3904,8 +4142,11 @@
       <c r="F75">
         <v>-34390.160000000003</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="I75" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1">
         <v>41851</v>
       </c>
@@ -3924,8 +4165,11 @@
       <c r="F76">
         <v>-14780.98</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="I76" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1">
         <v>41848</v>
       </c>
@@ -3944,8 +4188,11 @@
       <c r="F77">
         <v>-19609.18</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="I77" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1">
         <v>41848</v>
       </c>
@@ -3964,8 +4211,11 @@
       <c r="F78">
         <v>-59287.74</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="I78" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1">
         <v>41848</v>
       </c>
@@ -3984,8 +4234,11 @@
       <c r="F79">
         <v>-17737.18</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="I79" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1">
         <v>41850</v>
       </c>
@@ -4004,8 +4257,11 @@
       <c r="F80">
         <v>-2956.2</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="I80" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1">
         <v>41851</v>
       </c>
@@ -4024,8 +4280,11 @@
       <c r="F81">
         <v>-13072.79</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="I81" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1">
         <v>41851</v>
       </c>
@@ -4044,8 +4303,11 @@
       <c r="F82">
         <v>-16340.99</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="I82" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1">
         <v>41850</v>
       </c>
@@ -4064,8 +4326,11 @@
       <c r="F83">
         <v>-14780.98</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="I83" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1">
         <v>41848</v>
       </c>
@@ -4084,8 +4349,11 @@
       <c r="F84">
         <v>-18985.181199999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="I84" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1">
         <v>41850</v>
       </c>
@@ -4104,8 +4372,11 @@
       <c r="F85">
         <v>-2956.2</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="I85" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1">
         <v>41848</v>
       </c>
@@ -4124,8 +4395,11 @@
       <c r="F86">
         <v>-13072.79</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="I86" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1">
         <v>41851</v>
       </c>
@@ -4144,8 +4418,11 @@
       <c r="F87">
         <v>-9804.59</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="I87" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1">
         <v>41851</v>
       </c>
@@ -4164,8 +4441,11 @@
       <c r="F88">
         <v>-11824.78</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="I88" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1">
         <v>41851</v>
       </c>
@@ -4184,8 +4464,11 @@
       <c r="F89">
         <v>-16340.99</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="I89" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1">
         <v>41851</v>
       </c>
@@ -4204,8 +4487,11 @@
       <c r="F90">
         <v>-8868.59</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="I90" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1">
         <v>41851</v>
       </c>
@@ -4224,8 +4510,11 @@
       <c r="F91">
         <v>-4056</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="I91" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1">
         <v>41851</v>
       </c>
@@ -4244,8 +4533,11 @@
       <c r="F92">
         <v>-3608</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="I92" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1">
         <v>41851</v>
       </c>
@@ -4264,8 +4556,11 @@
       <c r="F93">
         <v>-4056</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="I93" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1">
         <v>41851</v>
       </c>
@@ -4284,8 +4579,11 @@
       <c r="F94">
         <v>-3783</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="I94" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1">
         <v>39566</v>
       </c>
@@ -4304,8 +4602,11 @@
       <c r="F95">
         <v>-1257.92</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="I95" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1">
         <v>41851</v>
       </c>
@@ -4324,8 +4625,11 @@
       <c r="F96">
         <v>-3034.2</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1">
         <v>41851</v>
       </c>
@@ -4344,8 +4648,11 @@
       <c r="F97">
         <v>-27307.79</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1">
         <v>41851</v>
       </c>
@@ -4364,8 +4671,11 @@
       <c r="F98">
         <v>-16340.99</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1">
         <v>41851</v>
       </c>
@@ -4387,8 +4697,11 @@
       <c r="H99" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1">
         <v>40921</v>
       </c>
@@ -4407,8 +4720,11 @@
       <c r="F100">
         <v>-17496.008699999998</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1">
         <v>39883</v>
       </c>
@@ -4427,8 +4743,11 @@
       <c r="F101">
         <v>-9458.2757000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="I101" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1">
         <v>41851</v>
       </c>
@@ -4447,8 +4766,11 @@
       <c r="F102">
         <v>-4126.2</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1">
         <v>41851</v>
       </c>
@@ -4467,8 +4789,11 @@
       <c r="F103">
         <v>-4126.2</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1">
         <v>41851</v>
       </c>
@@ -4487,8 +4812,11 @@
       <c r="F104">
         <v>-14780.98</v>
       </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="I104" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1">
         <v>41851</v>
       </c>
@@ -4507,8 +4835,11 @@
       <c r="F105">
         <v>-8868.59</v>
       </c>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="I105" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1">
         <v>41851</v>
       </c>
@@ -4527,8 +4858,11 @@
       <c r="F106">
         <v>-14780.98</v>
       </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="I106" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1">
         <v>41851</v>
       </c>
@@ -4547,8 +4881,11 @@
       <c r="F107">
         <v>-8868.59</v>
       </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="I107" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1">
         <v>40372</v>
       </c>
@@ -4567,8 +4904,11 @@
       <c r="F108">
         <v>-576.73</v>
       </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="I108" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1">
         <v>41851</v>
       </c>
@@ -4587,8 +4927,11 @@
       <c r="F109">
         <v>-9664.51</v>
       </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="I109" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1">
         <v>40105</v>
       </c>
@@ -4607,8 +4950,11 @@
       <c r="F110">
         <v>-812.13</v>
       </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="I110" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1">
         <v>42804</v>
       </c>
@@ -4627,8 +4973,11 @@
       <c r="F111">
         <v>-16975.04</v>
       </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="I111" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1">
         <v>40802</v>
       </c>
@@ -4647,8 +4996,11 @@
       <c r="F112">
         <v>-3173.62</v>
       </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="I112" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1">
         <v>40597</v>
       </c>
@@ -4667,8 +5019,11 @@
       <c r="F113">
         <v>-11941.2</v>
       </c>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="I113" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1">
         <v>44082</v>
       </c>
@@ -4687,8 +5042,11 @@
       <c r="F114">
         <v>-197.29000000000099</v>
       </c>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="I114" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1">
         <v>41213</v>
       </c>
@@ -4707,8 +5065,11 @@
       <c r="F115">
         <v>-1706.65</v>
       </c>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="I115" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1">
         <v>42091</v>
       </c>
@@ -4727,8 +5088,11 @@
       <c r="F116">
         <v>-5788.7</v>
       </c>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="I116" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1">
         <v>39435</v>
       </c>
@@ -4747,8 +5111,11 @@
       <c r="F117">
         <v>-11714.96</v>
       </c>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="I117" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1">
         <v>41632</v>
       </c>
@@ -4767,8 +5134,11 @@
       <c r="F118">
         <v>-963</v>
       </c>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="I118" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1">
         <v>44189</v>
       </c>
@@ -4787,8 +5157,11 @@
       <c r="F119">
         <v>-5262.7</v>
       </c>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="I119" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1">
         <v>44189</v>
       </c>
@@ -4807,8 +5180,11 @@
       <c r="F120">
         <v>-5847.44</v>
       </c>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="I120" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1">
         <v>44189</v>
       </c>
@@ -4827,8 +5203,11 @@
       <c r="F121">
         <v>-4661.03</v>
       </c>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="I121" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1">
         <v>44189</v>
       </c>
@@ -4847,8 +5226,11 @@
       <c r="F122">
         <v>-10932.2</v>
       </c>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="I122" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1">
         <v>44189</v>
       </c>
@@ -4867,8 +5249,11 @@
       <c r="F123">
         <v>-50423.75</v>
       </c>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="I123" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1">
         <v>44189</v>
       </c>
@@ -4887,8 +5272,11 @@
       <c r="F124">
         <v>-38084.720000000001</v>
       </c>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="I124" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1">
         <v>44189</v>
       </c>
@@ -4907,8 +5295,11 @@
       <c r="F125">
         <v>-13542.37</v>
       </c>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="I125" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1">
         <v>44194</v>
       </c>
@@ -4927,8 +5318,11 @@
       <c r="F126">
         <v>-20296.62</v>
       </c>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="I126" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1">
         <v>43178</v>
       </c>
@@ -4947,8 +5341,11 @@
       <c r="F127">
         <v>-25933.38</v>
       </c>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="I127" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1">
         <v>42978</v>
       </c>
@@ -4967,8 +5364,11 @@
       <c r="F128">
         <v>-21400</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="I128" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1">
         <v>39559</v>
       </c>
@@ -4987,8 +5387,11 @@
       <c r="F129">
         <v>-344.2</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="I129" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1">
         <v>42331</v>
       </c>
@@ -5007,8 +5410,11 @@
       <c r="F130">
         <v>-343.5</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="I130" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1">
         <v>40597</v>
       </c>
@@ -5027,8 +5433,11 @@
       <c r="F131">
         <v>-1498</v>
       </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="I131" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1">
         <v>43874</v>
       </c>
@@ -5047,8 +5456,11 @@
       <c r="F132">
         <v>-1364.98</v>
       </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="I132" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1">
         <v>43437</v>
       </c>
@@ -5067,8 +5479,11 @@
       <c r="F133">
         <v>-2721.74</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="I133" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1">
         <v>42733</v>
       </c>
@@ -5087,8 +5502,11 @@
       <c r="F134">
         <v>-107</v>
       </c>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="I134" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1">
         <v>39247</v>
       </c>
@@ -5107,8 +5525,11 @@
       <c r="F135">
         <v>-67.650000000000006</v>
       </c>
-    </row>
-    <row r="136" spans="1:7">
+      <c r="I135" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1">
         <v>44165</v>
       </c>
@@ -5127,8 +5548,11 @@
       <c r="F136">
         <v>-2621.5</v>
       </c>
-    </row>
-    <row r="137" spans="1:7">
+      <c r="I136" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1">
         <v>42835</v>
       </c>
@@ -5147,8 +5571,11 @@
       <c r="F137">
         <v>-9630</v>
       </c>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="I137" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1">
         <v>42847</v>
       </c>
@@ -5167,8 +5594,11 @@
       <c r="F138">
         <v>-1690.6</v>
       </c>
-    </row>
-    <row r="139" spans="1:7">
+      <c r="I138" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1">
         <v>41565</v>
       </c>
@@ -5187,8 +5617,11 @@
       <c r="F139">
         <v>-2520</v>
       </c>
-    </row>
-    <row r="140" spans="1:7">
+      <c r="I139" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1">
         <v>43644</v>
       </c>
@@ -5207,8 +5640,11 @@
       <c r="F140">
         <v>-1318.74</v>
       </c>
-    </row>
-    <row r="141" spans="1:7">
+      <c r="I140" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1">
         <v>43644</v>
       </c>
@@ -5227,8 +5663,11 @@
       <c r="F141">
         <v>-587.32000000000005</v>
       </c>
-    </row>
-    <row r="142" spans="1:7">
+      <c r="I141" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1">
         <v>44623</v>
       </c>
@@ -5250,8 +5689,11 @@
       <c r="G142" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="143" spans="1:7">
+      <c r="I142" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1">
         <v>44832</v>
       </c>
@@ -5273,8 +5715,11 @@
       <c r="G143" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="144" spans="1:7">
+      <c r="I143" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1">
         <v>44994</v>
       </c>
@@ -5296,8 +5741,11 @@
       <c r="G144" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="I144" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1">
         <v>45008</v>
       </c>
@@ -5319,8 +5767,11 @@
       <c r="G145" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="I145" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1">
         <v>45094</v>
       </c>
@@ -5342,8 +5793,11 @@
       <c r="G146" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="I146" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1">
         <v>45094</v>
       </c>
@@ -5365,8 +5819,11 @@
       <c r="G147" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="I147" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1">
         <v>45094</v>
       </c>
@@ -5388,8 +5845,11 @@
       <c r="G148" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="I148" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1">
         <v>45094</v>
       </c>
@@ -5411,8 +5871,11 @@
       <c r="G149" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="I149" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1">
         <v>45094</v>
       </c>
@@ -5434,8 +5897,11 @@
       <c r="G150" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="151" spans="1:7">
+      <c r="I150" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1">
         <v>45094</v>
       </c>
@@ -5457,8 +5923,11 @@
       <c r="G151" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="152" spans="1:7">
+      <c r="I151" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1">
         <v>45094</v>
       </c>
@@ -5480,8 +5949,11 @@
       <c r="G152" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="153" spans="1:7">
+      <c r="I152" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1">
         <v>45094</v>
       </c>
@@ -5503,8 +5975,11 @@
       <c r="G153" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="154" spans="1:7">
+      <c r="I153" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1">
         <v>45097</v>
       </c>
@@ -5526,8 +6001,11 @@
       <c r="G154" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="155" spans="1:7">
+      <c r="I154" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1">
         <v>45097</v>
       </c>
@@ -5549,8 +6027,11 @@
       <c r="G155" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="156" spans="1:7">
+      <c r="I155" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1">
         <v>45097</v>
       </c>
@@ -5572,8 +6053,11 @@
       <c r="G156" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="157" spans="1:7">
+      <c r="I156" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1">
         <v>45097</v>
       </c>
@@ -5595,8 +6079,11 @@
       <c r="G157" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="158" spans="1:7">
+      <c r="I157" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1">
         <v>45097</v>
       </c>
@@ -5618,8 +6105,11 @@
       <c r="G158" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="159" spans="1:7">
+      <c r="I158" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1">
         <v>45099</v>
       </c>
@@ -5641,8 +6131,11 @@
       <c r="G159" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="160" spans="1:7">
+      <c r="I159" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1">
         <v>45099</v>
       </c>
@@ -5664,8 +6157,11 @@
       <c r="G160" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="161" spans="1:7">
+      <c r="I160" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1">
         <v>45106</v>
       </c>
@@ -5687,8 +6183,11 @@
       <c r="G161" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="162" spans="1:7">
+      <c r="I161" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1">
         <v>45125</v>
       </c>
@@ -5710,8 +6209,11 @@
       <c r="G162" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="163" spans="1:7">
+      <c r="I162" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1">
         <v>45274</v>
       </c>
@@ -5733,8 +6235,11 @@
       <c r="G163" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="164" spans="1:7">
+      <c r="I163" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1">
         <v>45286</v>
       </c>
@@ -5756,8 +6261,11 @@
       <c r="G164" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="165" spans="1:7">
+      <c r="I164" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1">
         <v>45373</v>
       </c>
@@ -5779,8 +6287,11 @@
       <c r="G165" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="166" spans="1:7">
+      <c r="I165" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1">
         <v>45426</v>
       </c>
@@ -5802,8 +6313,11 @@
       <c r="G166" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="167" spans="1:7">
+      <c r="I166" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1">
         <v>45435</v>
       </c>
@@ -5825,8 +6339,11 @@
       <c r="G167" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="168" spans="1:7">
+      <c r="I167" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1">
         <v>45435</v>
       </c>
@@ -5848,8 +6365,11 @@
       <c r="G168" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="169" spans="1:7">
+      <c r="I168" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1">
         <v>45435</v>
       </c>
@@ -5871,8 +6391,11 @@
       <c r="G169" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="170" spans="1:7">
+      <c r="I169" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1">
         <v>45435</v>
       </c>
@@ -5894,8 +6417,11 @@
       <c r="G170" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="171" spans="1:7">
+      <c r="I170" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1">
         <v>45435</v>
       </c>
@@ -5917,8 +6443,11 @@
       <c r="G171" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="172" spans="1:7">
+      <c r="I171" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1">
         <v>45435</v>
       </c>
@@ -5940,8 +6469,11 @@
       <c r="G172" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="173" spans="1:7">
+      <c r="I172" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1">
         <v>45456</v>
       </c>
@@ -5963,8 +6495,11 @@
       <c r="G173" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="174" spans="1:7">
+      <c r="I173" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1">
         <v>45463</v>
       </c>
@@ -5986,8 +6521,11 @@
       <c r="G174" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="175" spans="1:7">
+      <c r="I174" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1">
         <v>45478</v>
       </c>
@@ -6009,8 +6547,11 @@
       <c r="G175" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="176" spans="1:7">
+      <c r="I175" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1">
         <v>45497</v>
       </c>
@@ -6032,8 +6573,11 @@
       <c r="G176" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="177" spans="1:7">
+      <c r="I176" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1">
         <v>45517</v>
       </c>
@@ -6055,8 +6599,11 @@
       <c r="G177" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="178" spans="1:7">
+      <c r="I177" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1">
         <v>45531</v>
       </c>
@@ -6078,8 +6625,11 @@
       <c r="G178" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="179" spans="1:7">
+      <c r="I178" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1">
         <v>45531</v>
       </c>
@@ -6101,8 +6651,11 @@
       <c r="G179" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="180" spans="1:7">
+      <c r="I179" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1">
         <v>45554</v>
       </c>
@@ -6124,8 +6677,11 @@
       <c r="G180" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="181" spans="1:7">
+      <c r="I180" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1">
         <v>45554</v>
       </c>
@@ -6147,8 +6703,11 @@
       <c r="G181" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="182" spans="1:7">
+      <c r="I181" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1">
         <v>45554</v>
       </c>
@@ -6170,8 +6729,11 @@
       <c r="G182" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="183" spans="1:7">
+      <c r="I182" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1">
         <v>45554</v>
       </c>
@@ -6193,8 +6755,11 @@
       <c r="G183" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="184" spans="1:7">
+      <c r="I183" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1">
         <v>45556</v>
       </c>
@@ -6216,8 +6781,11 @@
       <c r="G184" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="185" spans="1:7">
+      <c r="I184" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1">
         <v>45556</v>
       </c>
@@ -6239,8 +6807,11 @@
       <c r="G185" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="186" spans="1:7">
+      <c r="I185" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1">
         <v>45556</v>
       </c>
@@ -6262,8 +6833,11 @@
       <c r="G186" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="187" spans="1:7">
+      <c r="I186" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1">
         <v>45556</v>
       </c>
@@ -6285,8 +6859,11 @@
       <c r="G187" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="188" spans="1:7">
+      <c r="I187" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1">
         <v>45556</v>
       </c>
@@ -6308,8 +6885,11 @@
       <c r="G188" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="189" spans="1:7">
+      <c r="I188" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1">
         <v>45556</v>
       </c>
@@ -6331,8 +6911,11 @@
       <c r="G189" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="190" spans="1:7">
+      <c r="I189" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1">
         <v>45556</v>
       </c>
@@ -6354,8 +6937,11 @@
       <c r="G190" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="191" spans="1:7">
+      <c r="I190" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1">
         <v>45556</v>
       </c>
@@ -6377,8 +6963,11 @@
       <c r="G191" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="192" spans="1:7">
+      <c r="I191" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1">
         <v>45556</v>
       </c>
@@ -6400,8 +6989,11 @@
       <c r="G192" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="193" spans="1:7">
+      <c r="I192" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1">
         <v>45556</v>
       </c>
@@ -6423,8 +7015,11 @@
       <c r="G193" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="194" spans="1:7">
+      <c r="I193" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1">
         <v>45556</v>
       </c>
@@ -6446,8 +7041,11 @@
       <c r="G194" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="195" spans="1:7">
+      <c r="I194" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1">
         <v>45556</v>
       </c>
@@ -6469,8 +7067,11 @@
       <c r="G195" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="196" spans="1:7">
+      <c r="I195" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1">
         <v>45556</v>
       </c>
@@ -6492,8 +7093,11 @@
       <c r="G196" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="197" spans="1:7">
+      <c r="I196" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1">
         <v>45617</v>
       </c>
@@ -6515,8 +7119,11 @@
       <c r="G197" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="198" spans="1:7">
+      <c r="I197" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1">
         <v>45624</v>
       </c>
@@ -6538,8 +7145,11 @@
       <c r="G198" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="199" spans="1:7">
+      <c r="I198" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1">
         <v>45629</v>
       </c>
@@ -6561,8 +7171,11 @@
       <c r="G199" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="200" spans="1:7">
+      <c r="I199" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1">
         <v>45633</v>
       </c>
@@ -6584,8 +7197,11 @@
       <c r="G200" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="201" spans="1:7">
+      <c r="I200" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1">
         <v>45639</v>
       </c>
@@ -6607,8 +7223,11 @@
       <c r="G201" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="202" spans="1:7">
+      <c r="I201" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1">
         <v>45645</v>
       </c>
@@ -6630,8 +7249,11 @@
       <c r="G202" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="203" spans="1:7">
+      <c r="I202" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1">
         <v>45649</v>
       </c>
@@ -6653,8 +7275,11 @@
       <c r="G203" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="204" spans="1:7">
+      <c r="I203" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1">
         <v>45649</v>
       </c>
@@ -6676,8 +7301,11 @@
       <c r="G204" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="205" spans="1:7">
+      <c r="I204" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1">
         <v>45649</v>
       </c>
@@ -6699,8 +7327,11 @@
       <c r="G205" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="206" spans="1:7">
+      <c r="I205" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1">
         <v>45649</v>
       </c>
@@ -6722,8 +7353,11 @@
       <c r="G206" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="207" spans="1:7">
+      <c r="I206" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1">
         <v>45671</v>
       </c>
@@ -6742,8 +7376,11 @@
       <c r="F207">
         <v>-1412.94</v>
       </c>
-    </row>
-    <row r="208" spans="1:7">
+      <c r="I207" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1">
         <v>45671</v>
       </c>
@@ -6762,8 +7399,11 @@
       <c r="F208">
         <v>-1048.5999999999999</v>
       </c>
-    </row>
-    <row r="209" spans="1:6">
+      <c r="I208" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1">
         <v>45673</v>
       </c>
@@ -6782,8 +7422,11 @@
       <c r="F209">
         <v>-64475.42</v>
       </c>
-    </row>
-    <row r="210" spans="1:6">
+      <c r="I209" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1">
         <v>45677</v>
       </c>
@@ -6802,8 +7445,11 @@
       <c r="F210">
         <v>-43034.76</v>
       </c>
-    </row>
-    <row r="211" spans="1:6">
+      <c r="I210" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1">
         <v>45694</v>
       </c>
@@ -6822,8 +7468,11 @@
       <c r="F211">
         <v>-12621.72</v>
       </c>
-    </row>
-    <row r="212" spans="1:6">
+      <c r="I211" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1">
         <v>45694</v>
       </c>
@@ -6842,8 +7491,11 @@
       <c r="F212">
         <v>-865.73</v>
       </c>
-    </row>
-    <row r="213" spans="1:6">
+      <c r="I212" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1">
         <v>45694</v>
       </c>
@@ -6862,8 +7514,11 @@
       <c r="F213">
         <v>-865.73</v>
       </c>
-    </row>
-    <row r="214" spans="1:6">
+      <c r="I213" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1">
         <v>45694</v>
       </c>
@@ -6882,8 +7537,11 @@
       <c r="F214">
         <v>-4786.9399999999996</v>
       </c>
-    </row>
-    <row r="215" spans="1:6">
+      <c r="I214" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1">
         <v>45694</v>
       </c>
@@ -6902,8 +7560,11 @@
       <c r="F215">
         <v>-1396.8</v>
       </c>
-    </row>
-    <row r="216" spans="1:6">
+      <c r="I215" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1">
         <v>45694</v>
       </c>
@@ -6922,8 +7583,11 @@
       <c r="F216">
         <v>-6540.23</v>
       </c>
-    </row>
-    <row r="217" spans="1:6">
+      <c r="I216" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1">
         <v>45701</v>
       </c>
@@ -6942,8 +7606,11 @@
       <c r="F217">
         <v>-2205.0100000000002</v>
       </c>
-    </row>
-    <row r="218" spans="1:6">
+      <c r="I217" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="1">
         <v>45701</v>
       </c>
@@ -6962,8 +7629,11 @@
       <c r="F218">
         <v>-1837.51</v>
       </c>
-    </row>
-    <row r="219" spans="1:6">
+      <c r="I218" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="1">
         <v>45701</v>
       </c>
@@ -6982,8 +7652,11 @@
       <c r="F219">
         <v>-1470.01</v>
       </c>
-    </row>
-    <row r="220" spans="1:6">
+      <c r="I219" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="1">
         <v>45701</v>
       </c>
@@ -7002,8 +7675,11 @@
       <c r="F220">
         <v>-1470.01</v>
       </c>
-    </row>
-    <row r="221" spans="1:6">
+      <c r="I220" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="1">
         <v>45701</v>
       </c>
@@ -7022,8 +7698,11 @@
       <c r="F221">
         <v>-4867.4799999999996</v>
       </c>
-    </row>
-    <row r="222" spans="1:6">
+      <c r="I221" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" s="1">
         <v>45701</v>
       </c>
@@ -7042,8 +7721,11 @@
       <c r="F222">
         <v>-442.5</v>
       </c>
-    </row>
-    <row r="223" spans="1:6">
+      <c r="I222" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" s="1">
         <v>45706</v>
       </c>
@@ -7062,8 +7744,11 @@
       <c r="F223">
         <v>-21828</v>
       </c>
-    </row>
-    <row r="224" spans="1:6">
+      <c r="I223" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" s="1">
         <v>45706</v>
       </c>
@@ -7082,8 +7767,11 @@
       <c r="F224">
         <v>-1372.28</v>
       </c>
-    </row>
-    <row r="225" spans="1:6">
+      <c r="I224" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" s="1">
         <v>45706</v>
       </c>
@@ -7102,8 +7790,11 @@
       <c r="F225">
         <v>-1646.73</v>
       </c>
-    </row>
-    <row r="226" spans="1:6">
+      <c r="I225" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" s="1">
         <v>45706</v>
       </c>
@@ -7122,8 +7813,11 @@
       <c r="F226">
         <v>-365.94</v>
       </c>
-    </row>
-    <row r="227" spans="1:6">
+      <c r="I226" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" s="1">
         <v>45706</v>
       </c>
@@ -7142,8 +7836,11 @@
       <c r="F227">
         <v>-914.85</v>
       </c>
-    </row>
-    <row r="228" spans="1:6">
+      <c r="I227" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" s="1">
         <v>45708</v>
       </c>
@@ -7162,8 +7859,11 @@
       <c r="F228">
         <v>-274.45999999999998</v>
       </c>
-    </row>
-    <row r="229" spans="1:6">
+      <c r="I228" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" s="1">
         <v>45712</v>
       </c>
@@ -7182,8 +7882,11 @@
       <c r="F229">
         <v>-23624.99</v>
       </c>
-    </row>
-    <row r="230" spans="1:6">
+      <c r="I229" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" s="1">
         <v>45713</v>
       </c>
@@ -7202,8 +7905,11 @@
       <c r="F230">
         <v>-2364.41</v>
       </c>
-    </row>
-    <row r="231" spans="1:6">
+      <c r="I230" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231" s="1">
         <v>45713</v>
       </c>
@@ -7222,8 +7928,11 @@
       <c r="F231">
         <v>-1687.39</v>
       </c>
-    </row>
-    <row r="232" spans="1:6">
+      <c r="I231" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" s="1">
         <v>45713</v>
       </c>
@@ -7242,8 +7951,11 @@
       <c r="F232">
         <v>-106815.53</v>
       </c>
-    </row>
-    <row r="233" spans="1:6">
+      <c r="I232" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" s="1">
         <v>45696</v>
       </c>
@@ -7259,8 +7971,11 @@
       <c r="F233">
         <v>-1494.59</v>
       </c>
-    </row>
-    <row r="234" spans="1:6">
+      <c r="I233" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234" s="1">
         <v>41195</v>
       </c>
@@ -7279,8 +7994,11 @@
       <c r="F234">
         <v>-101.2542</v>
       </c>
-    </row>
-    <row r="235" spans="1:6">
+      <c r="I234" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" s="1">
         <v>45020</v>
       </c>
@@ -7299,8 +8017,11 @@
       <c r="F235">
         <v>-818.96</v>
       </c>
-    </row>
-    <row r="236" spans="1:6">
+      <c r="I235" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" s="1">
         <v>41632</v>
       </c>
@@ -7319,8 +8040,11 @@
       <c r="F236">
         <v>-13643.05</v>
       </c>
-    </row>
-    <row r="237" spans="1:6">
+      <c r="I236" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237" s="1">
         <v>42004</v>
       </c>
@@ -7339,8 +8063,11 @@
       <c r="F237">
         <v>-2157.6799999999998</v>
       </c>
-    </row>
-    <row r="238" spans="1:6">
+      <c r="I237" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="A238" s="1">
         <v>42004</v>
       </c>
@@ -7359,8 +8086,11 @@
       <c r="F238">
         <v>-2522</v>
       </c>
-    </row>
-    <row r="239" spans="1:6">
+      <c r="I238" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239" s="1">
         <v>42004</v>
       </c>
@@ -7379,8 +8109,11 @@
       <c r="F239">
         <v>-2189.31</v>
       </c>
-    </row>
-    <row r="240" spans="1:6">
+      <c r="I239" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="A240" s="1">
         <v>42097</v>
       </c>
@@ -7399,8 +8132,11 @@
       <c r="F240">
         <v>-1087.6125</v>
       </c>
-    </row>
-    <row r="241" spans="1:6">
+      <c r="I240" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="A241" s="1">
         <v>43048</v>
       </c>
@@ -7419,8 +8155,11 @@
       <c r="F241">
         <v>-4469.6099999999997</v>
       </c>
-    </row>
-    <row r="242" spans="1:6">
+      <c r="I241" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="A242" s="1">
         <v>39381</v>
       </c>
@@ -7439,8 +8178,11 @@
       <c r="F242">
         <v>-14535.29</v>
       </c>
-    </row>
-    <row r="243" spans="1:6">
+      <c r="I242" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243" s="1">
         <v>40396</v>
       </c>
@@ -7459,8 +8201,11 @@
       <c r="F243">
         <v>-9312</v>
       </c>
-    </row>
-    <row r="244" spans="1:6">
+      <c r="I243" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="A244" s="1">
         <v>40639</v>
       </c>
@@ -7479,8 +8224,11 @@
       <c r="F244">
         <v>-9700</v>
       </c>
-    </row>
-    <row r="245" spans="1:6">
+      <c r="I244" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
       <c r="A245" s="1">
         <v>40772</v>
       </c>
@@ -7499,8 +8247,11 @@
       <c r="F245">
         <v>-7275</v>
       </c>
-    </row>
-    <row r="246" spans="1:6">
+      <c r="I245" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="A246" s="1">
         <v>40828</v>
       </c>
@@ -7519,8 +8270,11 @@
       <c r="F246">
         <v>-9600</v>
       </c>
-    </row>
-    <row r="247" spans="1:6">
+      <c r="I246" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="A247" s="1">
         <v>42004</v>
       </c>
@@ -7539,8 +8293,11 @@
       <c r="F247">
         <v>-1183.75</v>
       </c>
-    </row>
-    <row r="248" spans="1:6">
+      <c r="I247" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
       <c r="A248" s="1">
         <v>39806</v>
       </c>
@@ -7559,8 +8316,11 @@
       <c r="F248">
         <v>-9797</v>
       </c>
-    </row>
-    <row r="249" spans="1:6">
+      <c r="I248" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="A249" s="1">
         <v>42654</v>
       </c>
@@ -7579,8 +8339,11 @@
       <c r="F249">
         <v>-644.48</v>
       </c>
-    </row>
-    <row r="250" spans="1:6">
+      <c r="I249" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="A250" s="1">
         <v>42725</v>
       </c>
@@ -7599,8 +8362,11 @@
       <c r="F250">
         <v>-926.35</v>
       </c>
-    </row>
-    <row r="251" spans="1:6">
+      <c r="I250" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
       <c r="A251" s="1">
         <v>42725</v>
       </c>
@@ -7619,8 +8385,11 @@
       <c r="F251">
         <v>-1772.32</v>
       </c>
-    </row>
-    <row r="252" spans="1:6">
+      <c r="I251" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
       <c r="A252" s="1">
         <v>42004</v>
       </c>
@@ -7639,8 +8408,11 @@
       <c r="F252">
         <v>-2215.0500000000002</v>
       </c>
-    </row>
-    <row r="253" spans="1:6">
+      <c r="I252" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
       <c r="A253" s="1">
         <v>42676</v>
       </c>
@@ -7659,8 +8431,11 @@
       <c r="F253">
         <v>-3151.53</v>
       </c>
-    </row>
-    <row r="254" spans="1:6">
+      <c r="I253" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
       <c r="A254" s="1">
         <v>43956</v>
       </c>
@@ -7679,8 +8454,11 @@
       <c r="F254">
         <v>-48.96</v>
       </c>
-    </row>
-    <row r="255" spans="1:6">
+      <c r="I254" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
       <c r="A255" s="1">
         <v>42004</v>
       </c>
@@ -7699,8 +8477,11 @@
       <c r="F255">
         <v>-7824.21</v>
       </c>
-    </row>
-    <row r="256" spans="1:6">
+      <c r="I255" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
       <c r="A256" s="1">
         <v>42004</v>
       </c>
@@ -7719,8 +8500,11 @@
       <c r="F256">
         <v>-4146.38</v>
       </c>
-    </row>
-    <row r="257" spans="1:6">
+      <c r="I256" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
       <c r="A257" s="1">
         <v>42004</v>
       </c>
@@ -7739,8 +8523,11 @@
       <c r="F257">
         <v>-2037</v>
       </c>
-    </row>
-    <row r="258" spans="1:6">
+      <c r="I257" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
       <c r="A258" s="1">
         <v>42004</v>
       </c>
@@ -7759,8 +8546,11 @@
       <c r="F258">
         <v>-2859.56</v>
       </c>
-    </row>
-    <row r="259" spans="1:6">
+      <c r="I258" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
       <c r="A259" s="1">
         <v>42097</v>
       </c>
@@ -7779,8 +8569,11 @@
       <c r="F259">
         <v>-340.45</v>
       </c>
-    </row>
-    <row r="260" spans="1:6">
+      <c r="I259" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
       <c r="A260" s="1">
         <v>40766</v>
       </c>
@@ -7799,8 +8592,11 @@
       <c r="F260">
         <v>-50.58</v>
       </c>
-    </row>
-    <row r="261" spans="1:6">
+      <c r="I260" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
       <c r="A261" s="1">
         <v>42004</v>
       </c>
@@ -7819,8 +8615,11 @@
       <c r="F261">
         <v>-5322.33</v>
       </c>
-    </row>
-    <row r="262" spans="1:6">
+      <c r="I261" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
       <c r="A262" s="1">
         <v>42997</v>
       </c>
@@ -7839,8 +8638,11 @@
       <c r="F262">
         <v>-75.599999999999994</v>
       </c>
-    </row>
-    <row r="263" spans="1:6">
+      <c r="I262" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
       <c r="A263" s="1">
         <v>43433</v>
       </c>
@@ -7859,8 +8661,11 @@
       <c r="F263">
         <v>-150.33000000000001</v>
       </c>
-    </row>
-    <row r="264" spans="1:6">
+      <c r="I263" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
       <c r="A264" s="1">
         <v>44321</v>
       </c>
@@ -7879,8 +8684,11 @@
       <c r="F264">
         <v>-3078.01</v>
       </c>
-    </row>
-    <row r="265" spans="1:6">
+      <c r="I264" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
       <c r="A265" s="1">
         <v>44637</v>
       </c>
@@ -7899,8 +8707,11 @@
       <c r="F265">
         <v>-23091.98</v>
       </c>
-    </row>
-    <row r="266" spans="1:6">
+      <c r="I265" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
       <c r="A266" s="1">
         <v>45005</v>
       </c>
@@ -7919,8 +8730,11 @@
       <c r="F266">
         <v>-213.71</v>
       </c>
-    </row>
-    <row r="267" spans="1:6">
+      <c r="I266" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
       <c r="A267" s="1">
         <v>45005</v>
       </c>
@@ -7939,8 +8753,11 @@
       <c r="F267">
         <v>-298.08</v>
       </c>
-    </row>
-    <row r="268" spans="1:6">
+      <c r="I267" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
       <c r="A268" s="1">
         <v>45005</v>
       </c>
@@ -7959,8 +8776,11 @@
       <c r="F268">
         <v>-50.85</v>
       </c>
-    </row>
-    <row r="269" spans="1:6">
+      <c r="I268" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
       <c r="A269" s="1">
         <v>45005</v>
       </c>
@@ -7979,8 +8799,11 @@
       <c r="F269">
         <v>-7673.9</v>
       </c>
-    </row>
-    <row r="270" spans="1:6">
+      <c r="I269" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
       <c r="A270" s="1">
         <v>45104</v>
       </c>
@@ -7999,8 +8822,11 @@
       <c r="F270">
         <v>-14710.76</v>
       </c>
-    </row>
-    <row r="271" spans="1:6">
+      <c r="I270" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
       <c r="A271" s="1">
         <v>45146</v>
       </c>
@@ -8019,8 +8845,11 @@
       <c r="F271">
         <v>-1382.82</v>
       </c>
-    </row>
-    <row r="272" spans="1:6">
+      <c r="I271" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
       <c r="A272" s="1">
         <v>45146</v>
       </c>
@@ -8039,8 +8868,11 @@
       <c r="F272">
         <v>-2678.86</v>
       </c>
-    </row>
-    <row r="273" spans="1:6">
+      <c r="I272" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
       <c r="A273" s="1">
         <v>45146</v>
       </c>
@@ -8059,8 +8891,11 @@
       <c r="F273">
         <v>-1096.8800000000001</v>
       </c>
-    </row>
-    <row r="274" spans="1:6">
+      <c r="I273" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
       <c r="A274" s="1">
         <v>45146</v>
       </c>
@@ -8079,8 +8914,11 @@
       <c r="F274">
         <v>-1072.43</v>
       </c>
-    </row>
-    <row r="275" spans="1:6">
+      <c r="I274" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
       <c r="A275" s="1">
         <v>45146</v>
       </c>
@@ -8099,8 +8937,11 @@
       <c r="F275">
         <v>-1319.37</v>
       </c>
-    </row>
-    <row r="276" spans="1:6">
+      <c r="I275" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
       <c r="A276" s="1">
         <v>45146</v>
       </c>
@@ -8119,8 +8960,11 @@
       <c r="F276">
         <v>-1165.25</v>
       </c>
-    </row>
-    <row r="277" spans="1:6">
+      <c r="I276" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
       <c r="A277" s="1">
         <v>45146</v>
       </c>
@@ -8139,8 +8983,11 @@
       <c r="F277">
         <v>-5479.19</v>
       </c>
-    </row>
-    <row r="278" spans="1:6">
+      <c r="I277" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
       <c r="A278" s="1">
         <v>45215</v>
       </c>
@@ -8159,8 +9006,11 @@
       <c r="F278">
         <v>-587.23</v>
       </c>
-    </row>
-    <row r="279" spans="1:6">
+      <c r="I278" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
       <c r="A279" s="1">
         <v>45618</v>
       </c>
@@ -8179,8 +9029,11 @@
       <c r="F279">
         <v>-2817.42</v>
       </c>
-    </row>
-    <row r="280" spans="1:6">
+      <c r="I279" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
       <c r="A280" s="1">
         <v>45618</v>
       </c>
@@ -8199,8 +9052,11 @@
       <c r="F280">
         <v>-394.38</v>
       </c>
-    </row>
-    <row r="281" spans="1:6">
+      <c r="I280" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
       <c r="A281" s="1">
         <v>45618</v>
       </c>
@@ -8219,8 +9075,11 @@
       <c r="F281">
         <v>-526.29</v>
       </c>
-    </row>
-    <row r="282" spans="1:6">
+      <c r="I281" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
       <c r="A282" s="1">
         <v>45618</v>
       </c>
@@ -8239,8 +9098,11 @@
       <c r="F282">
         <v>-7380.89</v>
       </c>
-    </row>
-    <row r="283" spans="1:6">
+      <c r="I282" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
       <c r="A283" s="1">
         <v>45618</v>
       </c>
@@ -8259,8 +9121,11 @@
       <c r="F283">
         <v>-64.3</v>
       </c>
-    </row>
-    <row r="284" spans="1:6">
+      <c r="I283" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
       <c r="A284" s="1">
         <v>45618</v>
       </c>
@@ -8279,8 +9144,11 @@
       <c r="F284">
         <v>-1052.58</v>
       </c>
-    </row>
-    <row r="285" spans="1:6">
+      <c r="I284" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
       <c r="A285" s="1">
         <v>45638</v>
       </c>
@@ -8299,8 +9167,11 @@
       <c r="F285">
         <v>-7343.64</v>
       </c>
-    </row>
-    <row r="286" spans="1:6">
+      <c r="I285" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
       <c r="A286" s="1">
         <v>45665</v>
       </c>
@@ -8319,8 +9190,11 @@
       <c r="F286">
         <v>-2631.63</v>
       </c>
-    </row>
-    <row r="287" spans="1:6">
+      <c r="I286" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
       <c r="A287" s="1">
         <v>45665</v>
       </c>
@@ -8339,8 +9213,11 @@
       <c r="F287">
         <v>-449.81</v>
       </c>
-    </row>
-    <row r="288" spans="1:6">
+      <c r="I287" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
       <c r="A288" s="1">
         <v>45665</v>
       </c>
@@ -8359,8 +9236,11 @@
       <c r="F288">
         <v>-1525.13</v>
       </c>
-    </row>
-    <row r="289" spans="1:6">
+      <c r="I288" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
       <c r="A289" s="1">
         <v>45665</v>
       </c>
@@ -8379,8 +9259,11 @@
       <c r="F289">
         <v>-1691.54</v>
       </c>
-    </row>
-    <row r="290" spans="1:6">
+      <c r="I289" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
       <c r="A290" s="1">
         <v>45665</v>
       </c>
@@ -8399,8 +9282,11 @@
       <c r="F290">
         <v>-659.29</v>
       </c>
-    </row>
-    <row r="291" spans="1:6">
+      <c r="I290" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
       <c r="A291" s="1">
         <v>45665</v>
       </c>
@@ -8419,8 +9305,11 @@
       <c r="F291">
         <v>-3378.02</v>
       </c>
-    </row>
-    <row r="292" spans="1:6">
+      <c r="I291" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
       <c r="A292" s="1">
         <v>45665</v>
       </c>
@@ -8439,8 +9328,11 @@
       <c r="F292">
         <v>-2819.3</v>
       </c>
-    </row>
-    <row r="293" spans="1:6">
+      <c r="I292" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
       <c r="A293" s="1">
         <v>45665</v>
       </c>
@@ -8459,8 +9351,11 @@
       <c r="F293">
         <v>-4226.9399999999996</v>
       </c>
-    </row>
-    <row r="294" spans="1:6">
+      <c r="I293" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
       <c r="A294" s="1">
         <v>45665</v>
       </c>
@@ -8479,8 +9374,11 @@
       <c r="F294">
         <v>-533.5</v>
       </c>
-    </row>
-    <row r="295" spans="1:6">
+      <c r="I294" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
       <c r="A295" s="1">
         <v>45665</v>
       </c>
@@ -8499,8 +9397,11 @@
       <c r="F295">
         <v>-190.26</v>
       </c>
-    </row>
-    <row r="296" spans="1:6">
+      <c r="I295" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
       <c r="A296" s="1">
         <v>45702</v>
       </c>
@@ -8519,8 +9420,11 @@
       <c r="F296">
         <v>-772.42</v>
       </c>
-    </row>
-    <row r="297" spans="1:6">
+      <c r="I296" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
       <c r="A297" s="1">
         <v>45702</v>
       </c>
@@ -8539,8 +9443,11 @@
       <c r="F297">
         <v>-714.58</v>
       </c>
-    </row>
-    <row r="298" spans="1:6">
+      <c r="I297" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9">
       <c r="A298" s="1">
         <v>45702</v>
       </c>
@@ -8559,8 +9466,11 @@
       <c r="F298">
         <v>-677.52</v>
       </c>
-    </row>
-    <row r="299" spans="1:6">
+      <c r="I298" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
       <c r="A299" s="1">
         <v>45702</v>
       </c>
@@ -8579,8 +9489,11 @@
       <c r="F299">
         <v>-609.38</v>
       </c>
-    </row>
-    <row r="300" spans="1:6">
+      <c r="I299" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
       <c r="A300" s="1">
         <v>45702</v>
       </c>
@@ -8599,8 +9512,11 @@
       <c r="F300">
         <v>-85.08</v>
       </c>
-    </row>
-    <row r="301" spans="1:6">
+      <c r="I300" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9">
       <c r="A301" s="1">
         <v>45702</v>
       </c>
@@ -8619,8 +9535,11 @@
       <c r="F301">
         <v>-526.16</v>
       </c>
-    </row>
-    <row r="302" spans="1:6">
+      <c r="I301" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
       <c r="A302" s="1">
         <v>45702</v>
       </c>
@@ -8639,8 +9558,11 @@
       <c r="F302">
         <v>-7494.4</v>
       </c>
-    </row>
-    <row r="303" spans="1:6">
+      <c r="I302" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
       <c r="A303" s="1">
         <v>45702</v>
       </c>
@@ -8659,8 +9581,11 @@
       <c r="F303">
         <v>-67.27</v>
       </c>
-    </row>
-    <row r="304" spans="1:6">
+      <c r="I303" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9">
       <c r="A304" s="1">
         <v>45702</v>
       </c>
@@ -8679,8 +9604,11 @@
       <c r="F304">
         <v>-77625.289999999994</v>
       </c>
-    </row>
-    <row r="305" spans="1:6">
+      <c r="I304" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9">
       <c r="A305" s="1">
         <v>45702</v>
       </c>
@@ -8699,8 +9627,11 @@
       <c r="F305">
         <v>-3043.24</v>
       </c>
-    </row>
-    <row r="306" spans="1:6">
+      <c r="I305" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
       <c r="A306" s="1">
         <v>45702</v>
       </c>
@@ -8719,8 +9650,11 @@
       <c r="F306">
         <v>-6436.81</v>
       </c>
-    </row>
-    <row r="307" spans="1:6">
+      <c r="I306" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
       <c r="A307" s="1">
         <v>45702</v>
       </c>
@@ -8739,8 +9673,11 @@
       <c r="F307">
         <v>-8222.77</v>
       </c>
-    </row>
-    <row r="308" spans="1:6">
+      <c r="I307" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
       <c r="A308" s="1">
         <v>45702</v>
       </c>
@@ -8759,8 +9696,11 @@
       <c r="F308">
         <v>-7904.22</v>
       </c>
-    </row>
-    <row r="309" spans="1:6">
+      <c r="I308" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9">
       <c r="A309" s="1">
         <v>45702</v>
       </c>
@@ -8779,8 +9719,11 @@
       <c r="F309">
         <v>-518.38</v>
       </c>
-    </row>
-    <row r="310" spans="1:6">
+      <c r="I309" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
       <c r="A310" s="1">
         <v>45702</v>
       </c>
@@ -8799,8 +9742,11 @@
       <c r="F310">
         <v>-8315.75</v>
       </c>
-    </row>
-    <row r="311" spans="1:6">
+      <c r="I310" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
       <c r="A311" s="1">
         <v>45702</v>
       </c>
@@ -8819,8 +9765,11 @@
       <c r="F311">
         <v>-50.45</v>
       </c>
-    </row>
-    <row r="312" spans="1:6">
+      <c r="I311" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
       <c r="A312" s="1">
         <v>45702</v>
       </c>
@@ -8839,8 +9788,11 @@
       <c r="F312">
         <v>-3176.63</v>
       </c>
-    </row>
-    <row r="313" spans="1:6">
+      <c r="I312" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9">
       <c r="A313" s="1">
         <v>45702</v>
       </c>
@@ -8859,8 +9811,11 @@
       <c r="F313">
         <v>-208091.11</v>
       </c>
-    </row>
-    <row r="314" spans="1:6">
+      <c r="I313" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9">
       <c r="A314" s="1">
         <v>45702</v>
       </c>
@@ -8879,8 +9834,11 @@
       <c r="F314">
         <v>-1714.73</v>
       </c>
-    </row>
-    <row r="315" spans="1:6">
+      <c r="I314" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
       <c r="A315" s="1">
         <v>45702</v>
       </c>
@@ -8899,8 +9857,11 @@
       <c r="F315">
         <v>-166472.89000000001</v>
       </c>
-    </row>
-    <row r="316" spans="1:6">
+      <c r="I315" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
       <c r="A316" s="1">
         <v>45702</v>
       </c>
@@ -8919,8 +9880,11 @@
       <c r="F316">
         <v>-5629.57</v>
       </c>
-    </row>
-    <row r="317" spans="1:6">
+      <c r="I316" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9">
       <c r="A317" s="1">
         <v>45702</v>
       </c>
@@ -8939,8 +9903,11 @@
       <c r="F317">
         <v>-858.55</v>
       </c>
-    </row>
-    <row r="318" spans="1:6">
+      <c r="I317" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
       <c r="A318" s="1">
         <v>45702</v>
       </c>
@@ -8959,8 +9926,11 @@
       <c r="F318">
         <v>-592.37</v>
       </c>
-    </row>
-    <row r="319" spans="1:6">
+      <c r="I318" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9">
       <c r="A319" s="1">
         <v>45702</v>
       </c>
@@ -8979,8 +9949,11 @@
       <c r="F319">
         <v>-1811.8</v>
       </c>
-    </row>
-    <row r="320" spans="1:6">
+      <c r="I319" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
       <c r="A320" s="1">
         <v>45702</v>
       </c>
@@ -8999,8 +9972,11 @@
       <c r="F320">
         <v>-1259.1400000000001</v>
       </c>
-    </row>
-    <row r="321" spans="1:6">
+      <c r="I320" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
       <c r="A321" s="1">
         <v>45702</v>
       </c>
@@ -9019,8 +9995,11 @@
       <c r="F321">
         <v>-1270.6500000000001</v>
       </c>
-    </row>
-    <row r="322" spans="1:6">
+      <c r="I321" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
       <c r="A322" s="1">
         <v>45702</v>
       </c>
@@ -9039,8 +10018,11 @@
       <c r="F322">
         <v>-25048.51</v>
       </c>
-    </row>
-    <row r="323" spans="1:6">
+      <c r="I322" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
       <c r="A323" s="1">
         <v>45702</v>
       </c>
@@ -9059,8 +10041,11 @@
       <c r="F323">
         <v>-685.89</v>
       </c>
-    </row>
-    <row r="324" spans="1:6">
+      <c r="I323" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9">
       <c r="A324" s="1">
         <v>42623</v>
       </c>
@@ -9079,8 +10064,11 @@
       <c r="F324">
         <v>-50005.65</v>
       </c>
-    </row>
-    <row r="325" spans="1:6">
+      <c r="I324" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
       <c r="A325" s="1">
         <v>42678</v>
       </c>
@@ -9099,8 +10087,11 @@
       <c r="F325">
         <v>-5000</v>
       </c>
-    </row>
-    <row r="326" spans="1:6">
+      <c r="I325" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
       <c r="A326" s="1">
         <v>42916</v>
       </c>
@@ -9119,8 +10110,11 @@
       <c r="F326">
         <v>-7980</v>
       </c>
-    </row>
-    <row r="327" spans="1:6">
+      <c r="I326" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9">
       <c r="A327" s="1">
         <v>43019</v>
       </c>
@@ -9139,8 +10133,11 @@
       <c r="F327">
         <v>-5218.07</v>
       </c>
-    </row>
-    <row r="328" spans="1:6">
+      <c r="I327" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
       <c r="A328" s="1">
         <v>43171</v>
       </c>
@@ -9159,8 +10156,11 @@
       <c r="F328">
         <v>-21389.51</v>
       </c>
-    </row>
-    <row r="329" spans="1:6">
+      <c r="I328" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
       <c r="A329" s="1">
         <v>43171</v>
       </c>
@@ -9179,8 +10179,11 @@
       <c r="F329">
         <v>-13331.44</v>
       </c>
-    </row>
-    <row r="330" spans="1:6">
+      <c r="I329" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
       <c r="A330" s="1">
         <v>43181</v>
       </c>
@@ -9199,8 +10202,11 @@
       <c r="F330">
         <v>-23077</v>
       </c>
-    </row>
-    <row r="331" spans="1:6">
+      <c r="I330" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
       <c r="A331" s="1">
         <v>43342</v>
       </c>
@@ -9219,8 +10225,11 @@
       <c r="F331">
         <v>-12156.93</v>
       </c>
-    </row>
-    <row r="332" spans="1:6">
+      <c r="I331" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
       <c r="A332" s="1">
         <v>43482</v>
       </c>
@@ -9239,8 +10248,11 @@
       <c r="F332">
         <v>-38300</v>
       </c>
-    </row>
-    <row r="333" spans="1:6">
+      <c r="I332" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
       <c r="A333" s="1">
         <v>43595</v>
       </c>
@@ -9259,8 +10271,11 @@
       <c r="F333">
         <v>-3741.73</v>
       </c>
-    </row>
-    <row r="334" spans="1:6">
+      <c r="I333" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
       <c r="A334" s="1">
         <v>43669</v>
       </c>
@@ -9279,8 +10294,11 @@
       <c r="F334">
         <v>-48966.65</v>
       </c>
-    </row>
-    <row r="335" spans="1:6">
+      <c r="I334" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
       <c r="A335" s="1">
         <v>43950</v>
       </c>
@@ -9299,8 +10317,11 @@
       <c r="F335">
         <v>-25391.88</v>
       </c>
-    </row>
-    <row r="336" spans="1:6">
+      <c r="I335" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
       <c r="A336" s="1">
         <v>44525</v>
       </c>
@@ -9319,8 +10340,11 @@
       <c r="F336">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="337" spans="1:6">
+      <c r="I336" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
       <c r="A337" s="1">
         <v>44561</v>
       </c>
@@ -9339,8 +10363,11 @@
       <c r="F337">
         <v>-46033.81</v>
       </c>
-    </row>
-    <row r="338" spans="1:6">
+      <c r="I337" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
       <c r="A338" s="1">
         <v>44692</v>
       </c>
@@ -9359,8 +10386,11 @@
       <c r="F338">
         <v>-6000</v>
       </c>
-    </row>
-    <row r="339" spans="1:6">
+      <c r="I338" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
       <c r="A339" s="1">
         <v>44692</v>
       </c>
@@ -9379,8 +10409,11 @@
       <c r="F339">
         <v>-6000</v>
       </c>
-    </row>
-    <row r="340" spans="1:6">
+      <c r="I339" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
       <c r="A340" s="1">
         <v>45155</v>
       </c>
@@ -9399,8 +10432,11 @@
       <c r="F340">
         <v>-1571.76</v>
       </c>
-    </row>
-    <row r="341" spans="1:6">
+      <c r="I340" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
       <c r="A341" s="1">
         <v>45310</v>
       </c>
@@ -9419,8 +10455,11 @@
       <c r="F341">
         <v>-1730.62</v>
       </c>
-    </row>
-    <row r="342" spans="1:6">
+      <c r="I341" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
       <c r="A342" s="1">
         <v>45560</v>
       </c>
@@ -9439,8 +10478,11 @@
       <c r="F342">
         <v>-1518.33</v>
       </c>
-    </row>
-    <row r="343" spans="1:6">
+      <c r="I342" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
       <c r="A343" s="1">
         <v>45560</v>
       </c>
@@ -9459,8 +10501,11 @@
       <c r="F343">
         <v>-4730.0200000000004</v>
       </c>
-    </row>
-    <row r="344" spans="1:6">
+      <c r="I343" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
       <c r="A344" s="1">
         <v>45551</v>
       </c>
@@ -9479,8 +10524,11 @@
       <c r="F344">
         <v>-1493.72</v>
       </c>
-    </row>
-    <row r="345" spans="1:6">
+      <c r="I344" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
       <c r="A345" s="1">
         <v>45638</v>
       </c>
@@ -9499,8 +10547,11 @@
       <c r="F345">
         <v>-1644.87</v>
       </c>
-    </row>
-    <row r="346" spans="1:6">
+      <c r="I345" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
       <c r="A346" s="1">
         <v>45638</v>
       </c>
@@ -9518,6 +10569,9 @@
       </c>
       <c r="F346">
         <v>-1722.01</v>
+      </c>
+      <c r="I346" t="s">
+        <v>682</v>
       </c>
     </row>
   </sheetData>

--- a/Data_file/import_invoice_CN.xlsx
+++ b/Data_file/import_invoice_CN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="645">
   <si>
     <t>invoice_date</t>
   </si>
@@ -1959,963 +1959,6 @@
   </si>
   <si>
     <t>บริษัท บุญถาวร รีเทล คอร์ปอเรชั่น จำกัด (มหาชน) สาขาเชียงใหม่ สาขาที่ 00011</t>
-  </si>
-  <si>
-    <t>OB-AR 114201</t>
-  </si>
-  <si>
-    <t>OB-AR 114202</t>
-  </si>
-  <si>
-    <t>OB-AR 114203</t>
-  </si>
-  <si>
-    <t>OB-AR 114204</t>
-  </si>
-  <si>
-    <t>OB-AR 114205</t>
-  </si>
-  <si>
-    <t>OB-AR 114206</t>
-  </si>
-  <si>
-    <t>OB-AR 114207</t>
-  </si>
-  <si>
-    <t>OB-AR 114208</t>
-  </si>
-  <si>
-    <t>OB-AR 114209</t>
-  </si>
-  <si>
-    <t>OB-AR 114210</t>
-  </si>
-  <si>
-    <t>OB-AR 114211</t>
-  </si>
-  <si>
-    <t>OB-AR 114212</t>
-  </si>
-  <si>
-    <t>OB-AR 114213</t>
-  </si>
-  <si>
-    <t>OB-AR 114214</t>
-  </si>
-  <si>
-    <t>OB-AR 114215</t>
-  </si>
-  <si>
-    <t>OB-AR 114216</t>
-  </si>
-  <si>
-    <t>OB-AR 114217</t>
-  </si>
-  <si>
-    <t>OB-AR 114218</t>
-  </si>
-  <si>
-    <t>OB-AR 114219</t>
-  </si>
-  <si>
-    <t>OB-AR 114220</t>
-  </si>
-  <si>
-    <t>OB-AR 114221</t>
-  </si>
-  <si>
-    <t>OB-AR 114222</t>
-  </si>
-  <si>
-    <t>OB-AR 114223</t>
-  </si>
-  <si>
-    <t>OB-AR 114224</t>
-  </si>
-  <si>
-    <t>OB-AR 114225</t>
-  </si>
-  <si>
-    <t>OB-AR 114226</t>
-  </si>
-  <si>
-    <t>OB-AR 114227</t>
-  </si>
-  <si>
-    <t>OB-AR 114228</t>
-  </si>
-  <si>
-    <t>OB-AR 114229</t>
-  </si>
-  <si>
-    <t>OB-AR 114230</t>
-  </si>
-  <si>
-    <t>OB-AR 114231</t>
-  </si>
-  <si>
-    <t>OB-AR 114232</t>
-  </si>
-  <si>
-    <t>OB-AR 114233</t>
-  </si>
-  <si>
-    <t>OB-AR 114234</t>
-  </si>
-  <si>
-    <t>OB-AR 114235</t>
-  </si>
-  <si>
-    <t>OB-AR 114236</t>
-  </si>
-  <si>
-    <t>OB-AR 114237</t>
-  </si>
-  <si>
-    <t>OB-AR 114238</t>
-  </si>
-  <si>
-    <t>OB-AR 114239</t>
-  </si>
-  <si>
-    <t>OB-AR 114240</t>
-  </si>
-  <si>
-    <t>OB-AR 114241</t>
-  </si>
-  <si>
-    <t>OB-AR 114242</t>
-  </si>
-  <si>
-    <t>OB-AR 114243</t>
-  </si>
-  <si>
-    <t>OB-AR 114244</t>
-  </si>
-  <si>
-    <t>OB-AR 114245</t>
-  </si>
-  <si>
-    <t>OB-AR 114246</t>
-  </si>
-  <si>
-    <t>OB-AR 114247</t>
-  </si>
-  <si>
-    <t>OB-AR 114248</t>
-  </si>
-  <si>
-    <t>OB-AR 114249</t>
-  </si>
-  <si>
-    <t>OB-AR 114250</t>
-  </si>
-  <si>
-    <t>OB-AR 114251</t>
-  </si>
-  <si>
-    <t>OB-AR 114252</t>
-  </si>
-  <si>
-    <t>OB-AR 114253</t>
-  </si>
-  <si>
-    <t>OB-AR 114254</t>
-  </si>
-  <si>
-    <t>OB-AR 114255</t>
-  </si>
-  <si>
-    <t>OB-AR 114256</t>
-  </si>
-  <si>
-    <t>OB-AR 114257</t>
-  </si>
-  <si>
-    <t>OB-AR 114258</t>
-  </si>
-  <si>
-    <t>OB-AR 114259</t>
-  </si>
-  <si>
-    <t>OB-AR 114260</t>
-  </si>
-  <si>
-    <t>OB-AR 114261</t>
-  </si>
-  <si>
-    <t>OB-AR 114262</t>
-  </si>
-  <si>
-    <t>OB-AR 114263</t>
-  </si>
-  <si>
-    <t>OB-AR 114264</t>
-  </si>
-  <si>
-    <t>OB-AR 114265</t>
-  </si>
-  <si>
-    <t>OB-AR 114266</t>
-  </si>
-  <si>
-    <t>OB-AR 114267</t>
-  </si>
-  <si>
-    <t>OB-AR 114268</t>
-  </si>
-  <si>
-    <t>OB-AR 114269</t>
-  </si>
-  <si>
-    <t>OB-AR 114270</t>
-  </si>
-  <si>
-    <t>OB-AR 114271</t>
-  </si>
-  <si>
-    <t>OB-AR 114272</t>
-  </si>
-  <si>
-    <t>OB-AR 114273</t>
-  </si>
-  <si>
-    <t>OB-AR 114274</t>
-  </si>
-  <si>
-    <t>OB-AR 114275</t>
-  </si>
-  <si>
-    <t>OB-AR 114276</t>
-  </si>
-  <si>
-    <t>OB-AR 114277</t>
-  </si>
-  <si>
-    <t>OB-AR 114278</t>
-  </si>
-  <si>
-    <t>OB-AR 114279</t>
-  </si>
-  <si>
-    <t>OB-AR 114280</t>
-  </si>
-  <si>
-    <t>OB-AR 114281</t>
-  </si>
-  <si>
-    <t>OB-AR 114282</t>
-  </si>
-  <si>
-    <t>OB-AR 114283</t>
-  </si>
-  <si>
-    <t>OB-AR 114284</t>
-  </si>
-  <si>
-    <t>OB-AR 114285</t>
-  </si>
-  <si>
-    <t>OB-AR 114286</t>
-  </si>
-  <si>
-    <t>OB-AR 114287</t>
-  </si>
-  <si>
-    <t>OB-AR 114288</t>
-  </si>
-  <si>
-    <t>OB-AR 114289</t>
-  </si>
-  <si>
-    <t>OB-AR 114290</t>
-  </si>
-  <si>
-    <t>OB-AR 114291</t>
-  </si>
-  <si>
-    <t>OB-AR 114292</t>
-  </si>
-  <si>
-    <t>OB-AR 114293</t>
-  </si>
-  <si>
-    <t>OB-AR 114294</t>
-  </si>
-  <si>
-    <t>OB-AR 114295</t>
-  </si>
-  <si>
-    <t>OB-AR 114296</t>
-  </si>
-  <si>
-    <t>OB-AR 114297</t>
-  </si>
-  <si>
-    <t>OB-AR 114298</t>
-  </si>
-  <si>
-    <t>OB-AR 114299</t>
-  </si>
-  <si>
-    <t>OB-AR 114300</t>
-  </si>
-  <si>
-    <t>OB-AR 114301</t>
-  </si>
-  <si>
-    <t>OB-AR 114302</t>
-  </si>
-  <si>
-    <t>OB-AR 114303</t>
-  </si>
-  <si>
-    <t>OB-AR 114304</t>
-  </si>
-  <si>
-    <t>OB-AR 114305</t>
-  </si>
-  <si>
-    <t>OB-AR 114306</t>
-  </si>
-  <si>
-    <t>OB-AR 114307</t>
-  </si>
-  <si>
-    <t>OB-AR 114308</t>
-  </si>
-  <si>
-    <t>OB-AR 114309</t>
-  </si>
-  <si>
-    <t>OB-AR 114310</t>
-  </si>
-  <si>
-    <t>OB-AR 114311</t>
-  </si>
-  <si>
-    <t>OB-AR 114312</t>
-  </si>
-  <si>
-    <t>OB-AR 114313</t>
-  </si>
-  <si>
-    <t>OB-AR 114314</t>
-  </si>
-  <si>
-    <t>OB-AR 114315</t>
-  </si>
-  <si>
-    <t>OB-AR 114316</t>
-  </si>
-  <si>
-    <t>OB-AR 114317</t>
-  </si>
-  <si>
-    <t>OB-AR 114318</t>
-  </si>
-  <si>
-    <t>OB-AR 114319</t>
-  </si>
-  <si>
-    <t>OB-AR 114320</t>
-  </si>
-  <si>
-    <t>OB-AR 114321</t>
-  </si>
-  <si>
-    <t>OB-AR 114322</t>
-  </si>
-  <si>
-    <t>OB-AR 114323</t>
-  </si>
-  <si>
-    <t>OB-AR 114324</t>
-  </si>
-  <si>
-    <t>OB-AR 114325</t>
-  </si>
-  <si>
-    <t>OB-AR 114326</t>
-  </si>
-  <si>
-    <t>OB-AR 114327</t>
-  </si>
-  <si>
-    <t>OB-AR 114328</t>
-  </si>
-  <si>
-    <t>OB-AR 114329</t>
-  </si>
-  <si>
-    <t>OB-AR 114330</t>
-  </si>
-  <si>
-    <t>OB-AR 114331</t>
-  </si>
-  <si>
-    <t>OB-AR 114332</t>
-  </si>
-  <si>
-    <t>OB-AR 114333</t>
-  </si>
-  <si>
-    <t>OB-AR 114334</t>
-  </si>
-  <si>
-    <t>OB-AR 114335</t>
-  </si>
-  <si>
-    <t>OB-AR 114336</t>
-  </si>
-  <si>
-    <t>OB-AR 114337</t>
-  </si>
-  <si>
-    <t>OB-AR 114338</t>
-  </si>
-  <si>
-    <t>OB-AR 114339</t>
-  </si>
-  <si>
-    <t>OB-AR 114340</t>
-  </si>
-  <si>
-    <t>OB-AR 114341</t>
-  </si>
-  <si>
-    <t>OB-AR 114342</t>
-  </si>
-  <si>
-    <t>OB-AR 114343</t>
-  </si>
-  <si>
-    <t>OB-AR 114344</t>
-  </si>
-  <si>
-    <t>OB-AR 114345</t>
-  </si>
-  <si>
-    <t>OB-AR 114346</t>
-  </si>
-  <si>
-    <t>OB-AR 114347</t>
-  </si>
-  <si>
-    <t>OB-AR 114348</t>
-  </si>
-  <si>
-    <t>OB-AR 114349</t>
-  </si>
-  <si>
-    <t>OB-AR 114350</t>
-  </si>
-  <si>
-    <t>OB-AR 114351</t>
-  </si>
-  <si>
-    <t>OB-AR 114352</t>
-  </si>
-  <si>
-    <t>OB-AR 114353</t>
-  </si>
-  <si>
-    <t>OB-AR 114354</t>
-  </si>
-  <si>
-    <t>OB-AR 114355</t>
-  </si>
-  <si>
-    <t>OB-AR 114356</t>
-  </si>
-  <si>
-    <t>OB-AR 114357</t>
-  </si>
-  <si>
-    <t>OB-AR 114358</t>
-  </si>
-  <si>
-    <t>OB-AR 114359</t>
-  </si>
-  <si>
-    <t>OB-AR 114360</t>
-  </si>
-  <si>
-    <t>OB-AR 114361</t>
-  </si>
-  <si>
-    <t>OB-AR 114362</t>
-  </si>
-  <si>
-    <t>OB-AR 114363</t>
-  </si>
-  <si>
-    <t>OB-AR 114364</t>
-  </si>
-  <si>
-    <t>OB-AR 114365</t>
-  </si>
-  <si>
-    <t>OB-AR 114366</t>
-  </si>
-  <si>
-    <t>OB-AR 114367</t>
-  </si>
-  <si>
-    <t>OB-AR 114368</t>
-  </si>
-  <si>
-    <t>OB-AR 114369</t>
-  </si>
-  <si>
-    <t>OB-AR 114370</t>
-  </si>
-  <si>
-    <t>OB-AR 114371</t>
-  </si>
-  <si>
-    <t>OB-AR 114372</t>
-  </si>
-  <si>
-    <t>OB-AR 114373</t>
-  </si>
-  <si>
-    <t>OB-AR 114374</t>
-  </si>
-  <si>
-    <t>OB-AR 114375</t>
-  </si>
-  <si>
-    <t>OB-AR 114376</t>
-  </si>
-  <si>
-    <t>OB-AR 114377</t>
-  </si>
-  <si>
-    <t>OB-AR 114378</t>
-  </si>
-  <si>
-    <t>OB-AR 114379</t>
-  </si>
-  <si>
-    <t>OB-AR 114380</t>
-  </si>
-  <si>
-    <t>OB-AR 114381</t>
-  </si>
-  <si>
-    <t>OB-AR 114382</t>
-  </si>
-  <si>
-    <t>OB-AR 114383</t>
-  </si>
-  <si>
-    <t>OB-AR 114384</t>
-  </si>
-  <si>
-    <t>OB-AR 114385</t>
-  </si>
-  <si>
-    <t>OB-AR 114386</t>
-  </si>
-  <si>
-    <t>OB-AR 114387</t>
-  </si>
-  <si>
-    <t>OB-AR 114388</t>
-  </si>
-  <si>
-    <t>OB-AR 114389</t>
-  </si>
-  <si>
-    <t>OB-AR 114390</t>
-  </si>
-  <si>
-    <t>OB-AR 114391</t>
-  </si>
-  <si>
-    <t>OB-AR 114392</t>
-  </si>
-  <si>
-    <t>OB-AR 114393</t>
-  </si>
-  <si>
-    <t>OB-AR 114394</t>
-  </si>
-  <si>
-    <t>OB-AR 114395</t>
-  </si>
-  <si>
-    <t>OB-AR 114396</t>
-  </si>
-  <si>
-    <t>OB-AR 114397</t>
-  </si>
-  <si>
-    <t>OB-AR 114398</t>
-  </si>
-  <si>
-    <t>OB-AR 114399</t>
-  </si>
-  <si>
-    <t>OB-AR 114400</t>
-  </si>
-  <si>
-    <t>OB-AR 114401</t>
-  </si>
-  <si>
-    <t>OB-AR 114402</t>
-  </si>
-  <si>
-    <t>OB-AR 114403</t>
-  </si>
-  <si>
-    <t>OB-AR 114404</t>
-  </si>
-  <si>
-    <t>OB-AR 114405</t>
-  </si>
-  <si>
-    <t>OB-AR 114406</t>
-  </si>
-  <si>
-    <t>OB-AR 114407</t>
-  </si>
-  <si>
-    <t>OB-AR 114408</t>
-  </si>
-  <si>
-    <t>OB-AR 114409</t>
-  </si>
-  <si>
-    <t>OB-AR 114410</t>
-  </si>
-  <si>
-    <t>OB-AR 114411</t>
-  </si>
-  <si>
-    <t>OB-AR 114412</t>
-  </si>
-  <si>
-    <t>OB-AR 114413</t>
-  </si>
-  <si>
-    <t>OB-AR 114414</t>
-  </si>
-  <si>
-    <t>OB-AR 114415</t>
-  </si>
-  <si>
-    <t>OB-AR 114416</t>
-  </si>
-  <si>
-    <t>OB-AR 114417</t>
-  </si>
-  <si>
-    <t>OB-AR 114418</t>
-  </si>
-  <si>
-    <t>OB-AR 114419</t>
-  </si>
-  <si>
-    <t>OB-AR 114420</t>
-  </si>
-  <si>
-    <t>OB-AR 114421</t>
-  </si>
-  <si>
-    <t>OB-AR 114422</t>
-  </si>
-  <si>
-    <t>OB-AR 114423</t>
-  </si>
-  <si>
-    <t>OB-AR 114424</t>
-  </si>
-  <si>
-    <t>OB-AR 114425</t>
-  </si>
-  <si>
-    <t>OB-AR 114426</t>
-  </si>
-  <si>
-    <t>OB-AR 114427</t>
-  </si>
-  <si>
-    <t>OB-AR 114428</t>
-  </si>
-  <si>
-    <t>OB-AR 114429</t>
-  </si>
-  <si>
-    <t>OB-AR 114430</t>
-  </si>
-  <si>
-    <t>OB-AR 114431</t>
-  </si>
-  <si>
-    <t>OB-AR 114432</t>
-  </si>
-  <si>
-    <t>OB-AR 114433</t>
-  </si>
-  <si>
-    <t>OB-AR 114434</t>
-  </si>
-  <si>
-    <t>OB-AR 114435</t>
-  </si>
-  <si>
-    <t>OB-AR 114436</t>
-  </si>
-  <si>
-    <t>OB-AR 114437</t>
-  </si>
-  <si>
-    <t>OB-AR 114438</t>
-  </si>
-  <si>
-    <t>OB-AR 114439</t>
-  </si>
-  <si>
-    <t>OB-AR 114440</t>
-  </si>
-  <si>
-    <t>OB-AR 114441</t>
-  </si>
-  <si>
-    <t>OB-AR 114442</t>
-  </si>
-  <si>
-    <t>OB-AR 114443</t>
-  </si>
-  <si>
-    <t>OB-AR 114444</t>
-  </si>
-  <si>
-    <t>OB-AR 114445</t>
-  </si>
-  <si>
-    <t>OB-AR 114446</t>
-  </si>
-  <si>
-    <t>OB-AR 114447</t>
-  </si>
-  <si>
-    <t>OB-AR 114448</t>
-  </si>
-  <si>
-    <t>OB-AR 114449</t>
-  </si>
-  <si>
-    <t>OB-AR 114450</t>
-  </si>
-  <si>
-    <t>OB-AR 114451</t>
-  </si>
-  <si>
-    <t>OB-AR 114452</t>
-  </si>
-  <si>
-    <t>OB-AR 114453</t>
-  </si>
-  <si>
-    <t>OB-AR 114454</t>
-  </si>
-  <si>
-    <t>OB-AR 114455</t>
-  </si>
-  <si>
-    <t>OB-AR 114456</t>
-  </si>
-  <si>
-    <t>OB-AR 114457</t>
-  </si>
-  <si>
-    <t>OB-AR 114458</t>
-  </si>
-  <si>
-    <t>OB-AR 114459</t>
-  </si>
-  <si>
-    <t>OB-AR 114460</t>
-  </si>
-  <si>
-    <t>OB-AR 114461</t>
-  </si>
-  <si>
-    <t>OB-AR 114462</t>
-  </si>
-  <si>
-    <t>OB-AR 114463</t>
-  </si>
-  <si>
-    <t>OB-AR 114464</t>
-  </si>
-  <si>
-    <t>OB-AR 114465</t>
-  </si>
-  <si>
-    <t>OB-AR 114466</t>
-  </si>
-  <si>
-    <t>OB-AR 114467</t>
-  </si>
-  <si>
-    <t>OB-AR 114468</t>
-  </si>
-  <si>
-    <t>OB-AR 114469</t>
-  </si>
-  <si>
-    <t>OB-AR 114470</t>
-  </si>
-  <si>
-    <t>OB-AR 114471</t>
-  </si>
-  <si>
-    <t>OB-AR 114472</t>
-  </si>
-  <si>
-    <t>OB-AR 114473</t>
-  </si>
-  <si>
-    <t>OB-AR 114474</t>
-  </si>
-  <si>
-    <t>OB-AR 114475</t>
-  </si>
-  <si>
-    <t>OB-AR 114476</t>
-  </si>
-  <si>
-    <t>OB-AR 114477</t>
-  </si>
-  <si>
-    <t>OB-AR 114478</t>
-  </si>
-  <si>
-    <t>OB-AR 114479</t>
-  </si>
-  <si>
-    <t>OB-AR 114480</t>
-  </si>
-  <si>
-    <t>OB-AR 114481</t>
-  </si>
-  <si>
-    <t>OB-AR 114482</t>
-  </si>
-  <si>
-    <t>OB-AR 114483</t>
-  </si>
-  <si>
-    <t>OB-AR 114484</t>
-  </si>
-  <si>
-    <t>OB-AR 114485</t>
-  </si>
-  <si>
-    <t>OB-AR 114486</t>
-  </si>
-  <si>
-    <t>OB-AR 114487</t>
-  </si>
-  <si>
-    <t>OB-AR 114488</t>
-  </si>
-  <si>
-    <t>OB-AR 114489</t>
-  </si>
-  <si>
-    <t>OB-AR 114490</t>
-  </si>
-  <si>
-    <t>OB-AR 114491</t>
-  </si>
-  <si>
-    <t>OB-AR 114492</t>
-  </si>
-  <si>
-    <t>OB-AR 114493</t>
-  </si>
-  <si>
-    <t>OB-AR 114494</t>
-  </si>
-  <si>
-    <t>OB-AR 114495</t>
-  </si>
-  <si>
-    <t>OB-AR 114496</t>
-  </si>
-  <si>
-    <t>OB-AR 114497</t>
-  </si>
-  <si>
-    <t>OB-AR 114498</t>
-  </si>
-  <si>
-    <t>OB-AR 114499</t>
-  </si>
-  <si>
-    <t>OB-AR 114500</t>
-  </si>
-  <si>
-    <t>OB-AR 114501</t>
-  </si>
-  <si>
-    <t>OB-AR 114502</t>
-  </si>
-  <si>
-    <t>OB-AR 114503</t>
-  </si>
-  <si>
-    <t>OB-AR 114504</t>
-  </si>
-  <si>
-    <t>OB-AR 114505</t>
-  </si>
-  <si>
-    <t>OB-AR 114506</t>
-  </si>
-  <si>
-    <t>OB-AR 114507</t>
-  </si>
-  <si>
-    <t>OB-AR 114508</t>
-  </si>
-  <si>
-    <t>OB-AR 114509</t>
-  </si>
-  <si>
-    <t>OB-AR 114510</t>
-  </si>
-  <si>
-    <t>OB-AR 114511</t>
-  </si>
-  <si>
-    <t>OB-AR 114512</t>
-  </si>
-  <si>
-    <t>OB-AR 114513</t>
-  </si>
-  <si>
-    <t>OB-AR 114514</t>
-  </si>
-  <si>
-    <t>OB-AR 114515</t>
-  </si>
-  <si>
-    <t>OB-AR 114516</t>
-  </si>
-  <si>
-    <t>OB-AR 114517</t>
-  </si>
-  <si>
-    <t>OB-AR 114518</t>
-  </si>
-  <si>
-    <t>OB-AR 114519</t>
   </si>
 </sst>
 </file>
@@ -3252,15 +2295,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="G302" sqref="G302"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" customWidth="1"/>
     <col min="9" max="9" width="13.88671875" customWidth="1"/>
@@ -3338,7 +2383,7 @@
         <v>13643.05</v>
       </c>
       <c r="I3" t="s">
-        <v>645</v>
+        <v>612</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3361,7 +2406,7 @@
         <v>2157.6799999999998</v>
       </c>
       <c r="I4" t="s">
-        <v>646</v>
+        <v>612</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3384,7 +2429,7 @@
         <v>2058.41</v>
       </c>
       <c r="I5" t="s">
-        <v>647</v>
+        <v>612</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3407,7 +2452,7 @@
         <v>25615.8</v>
       </c>
       <c r="I6" t="s">
-        <v>648</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3430,7 +2475,7 @@
         <v>11313.65</v>
       </c>
       <c r="I7" t="s">
-        <v>649</v>
+        <v>612</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3453,7 +2498,7 @@
         <v>26394.46</v>
       </c>
       <c r="I8" t="s">
-        <v>650</v>
+        <v>612</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3476,7 +2521,7 @@
         <v>2522</v>
       </c>
       <c r="I9" t="s">
-        <v>651</v>
+        <v>612</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3499,7 +2544,7 @@
         <v>2189.31</v>
       </c>
       <c r="I10" t="s">
-        <v>652</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3522,7 +2567,7 @@
         <v>12856.69</v>
       </c>
       <c r="I11" t="s">
-        <v>653</v>
+        <v>612</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3545,7 +2590,7 @@
         <v>6099</v>
       </c>
       <c r="I12" t="s">
-        <v>654</v>
+        <v>612</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3568,7 +2613,7 @@
         <v>128617.81</v>
       </c>
       <c r="I13" t="s">
-        <v>655</v>
+        <v>612</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3591,7 +2636,7 @@
         <v>78619.83</v>
       </c>
       <c r="I14" t="s">
-        <v>656</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3614,7 +2659,7 @@
         <v>7164.04</v>
       </c>
       <c r="I15" t="s">
-        <v>657</v>
+        <v>612</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3637,7 +2682,7 @@
         <v>3148.48</v>
       </c>
       <c r="I16" t="s">
-        <v>658</v>
+        <v>612</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3660,7 +2705,7 @@
         <v>1087.6099999999999</v>
       </c>
       <c r="I17" t="s">
-        <v>659</v>
+        <v>612</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3683,7 +2728,7 @@
         <v>4469.6099999999997</v>
       </c>
       <c r="I18" t="s">
-        <v>660</v>
+        <v>612</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3706,7 +2751,7 @@
         <v>14535.29</v>
       </c>
       <c r="I19" t="s">
-        <v>661</v>
+        <v>612</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3729,7 +2774,7 @@
         <v>3503.82</v>
       </c>
       <c r="I20" t="s">
-        <v>662</v>
+        <v>612</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3752,7 +2797,7 @@
         <v>9312</v>
       </c>
       <c r="I21" t="s">
-        <v>663</v>
+        <v>612</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3775,7 +2820,7 @@
         <v>9700</v>
       </c>
       <c r="I22" t="s">
-        <v>664</v>
+        <v>612</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3798,7 +2843,7 @@
         <v>7275</v>
       </c>
       <c r="I23" t="s">
-        <v>665</v>
+        <v>612</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3821,7 +2866,7 @@
         <v>9600</v>
       </c>
       <c r="I24" t="s">
-        <v>666</v>
+        <v>612</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3844,7 +2889,7 @@
         <v>203.3</v>
       </c>
       <c r="I25" t="s">
-        <v>667</v>
+        <v>612</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3867,7 +2912,7 @@
         <v>5377.29</v>
       </c>
       <c r="I26" t="s">
-        <v>668</v>
+        <v>612</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3890,7 +2935,7 @@
         <v>1183.75</v>
       </c>
       <c r="I27" t="s">
-        <v>669</v>
+        <v>612</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3913,7 +2958,7 @@
         <v>2990</v>
       </c>
       <c r="I28" t="s">
-        <v>670</v>
+        <v>612</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3936,7 +2981,7 @@
         <v>9797</v>
       </c>
       <c r="I29" t="s">
-        <v>671</v>
+        <v>612</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -3959,7 +3004,7 @@
         <v>122.41</v>
       </c>
       <c r="I30" t="s">
-        <v>672</v>
+        <v>612</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -3982,7 +3027,7 @@
         <v>10362.950000000001</v>
       </c>
       <c r="I31" t="s">
-        <v>673</v>
+        <v>612</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4005,7 +3050,7 @@
         <v>13226</v>
       </c>
       <c r="I32" t="s">
-        <v>674</v>
+        <v>612</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4028,7 +3073,7 @@
         <v>7996.69</v>
       </c>
       <c r="I33" t="s">
-        <v>675</v>
+        <v>612</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4051,7 +3096,7 @@
         <v>139.21</v>
       </c>
       <c r="I34" t="s">
-        <v>676</v>
+        <v>612</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4074,7 +3119,7 @@
         <v>1520.71</v>
       </c>
       <c r="I35" t="s">
-        <v>677</v>
+        <v>612</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4097,7 +3142,7 @@
         <v>1709.37</v>
       </c>
       <c r="I36" t="s">
-        <v>678</v>
+        <v>612</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4120,7 +3165,7 @@
         <v>2665.56</v>
       </c>
       <c r="I37" t="s">
-        <v>679</v>
+        <v>612</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4143,7 +3188,7 @@
         <v>6224.39</v>
       </c>
       <c r="I38" t="s">
-        <v>680</v>
+        <v>612</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4166,7 +3211,7 @@
         <v>3034.2</v>
       </c>
       <c r="I39" t="s">
-        <v>681</v>
+        <v>612</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4189,7 +3234,7 @@
         <v>9804.59</v>
       </c>
       <c r="I40" t="s">
-        <v>682</v>
+        <v>612</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4212,7 +3257,7 @@
         <v>66994.16</v>
       </c>
       <c r="I41" t="s">
-        <v>683</v>
+        <v>612</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4235,7 +3280,7 @@
         <v>25677.58</v>
       </c>
       <c r="I42" t="s">
-        <v>684</v>
+        <v>612</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4258,7 +3303,7 @@
         <v>26145.58</v>
       </c>
       <c r="I43" t="s">
-        <v>685</v>
+        <v>612</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4281,7 +3326,7 @@
         <v>15638.99</v>
       </c>
       <c r="I44" t="s">
-        <v>686</v>
+        <v>612</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4304,7 +3349,7 @@
         <v>13072.79</v>
       </c>
       <c r="I45" t="s">
-        <v>687</v>
+        <v>612</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4327,7 +3372,7 @@
         <v>24585.57</v>
       </c>
       <c r="I46" t="s">
-        <v>688</v>
+        <v>612</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4350,7 +3395,7 @@
         <v>40926.559999999998</v>
       </c>
       <c r="I47" t="s">
-        <v>689</v>
+        <v>612</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4373,7 +3418,7 @@
         <v>9804.59</v>
       </c>
       <c r="I48" t="s">
-        <v>690</v>
+        <v>612</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4396,7 +3441,7 @@
         <v>9102.6</v>
       </c>
       <c r="I49" t="s">
-        <v>691</v>
+        <v>612</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4419,7 +3464,7 @@
         <v>19609.18</v>
       </c>
       <c r="I50" t="s">
-        <v>692</v>
+        <v>612</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4442,7 +3487,7 @@
         <v>14780.98</v>
       </c>
       <c r="I51" t="s">
-        <v>693</v>
+        <v>612</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4465,7 +3510,7 @@
         <v>2956.2</v>
       </c>
       <c r="I52" t="s">
-        <v>694</v>
+        <v>612</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4488,7 +3533,7 @@
         <v>18049.18</v>
       </c>
       <c r="I53" t="s">
-        <v>695</v>
+        <v>612</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4511,7 +3556,7 @@
         <v>8868.59</v>
       </c>
       <c r="I54" t="s">
-        <v>696</v>
+        <v>612</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4534,7 +3579,7 @@
         <v>3268.2</v>
       </c>
       <c r="I55" t="s">
-        <v>697</v>
+        <v>612</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4557,7 +3602,7 @@
         <v>577.20000000000005</v>
       </c>
       <c r="I56" t="s">
-        <v>698</v>
+        <v>612</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4580,7 +3625,7 @@
         <v>55559.35</v>
       </c>
       <c r="I57" t="s">
-        <v>699</v>
+        <v>612</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4603,7 +3648,7 @@
         <v>14780.98</v>
       </c>
       <c r="I58" t="s">
-        <v>700</v>
+        <v>612</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4626,7 +3671,7 @@
         <v>11824.78</v>
       </c>
       <c r="I59" t="s">
-        <v>701</v>
+        <v>612</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4649,7 +3694,7 @@
         <v>16340.99</v>
       </c>
       <c r="I60" t="s">
-        <v>702</v>
+        <v>612</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4672,7 +3717,7 @@
         <v>9804.59</v>
       </c>
       <c r="I61" t="s">
-        <v>703</v>
+        <v>612</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4695,7 +3740,7 @@
         <v>6536.39</v>
       </c>
       <c r="I62" t="s">
-        <v>704</v>
+        <v>612</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4718,7 +3763,7 @@
         <v>2956.2</v>
       </c>
       <c r="I63" t="s">
-        <v>705</v>
+        <v>612</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -4741,7 +3786,7 @@
         <v>3783</v>
       </c>
       <c r="I64" t="s">
-        <v>706</v>
+        <v>612</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -4764,7 +3809,7 @@
         <v>3817.76</v>
       </c>
       <c r="I65" t="s">
-        <v>707</v>
+        <v>612</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -4787,7 +3832,7 @@
         <v>538.20000000000005</v>
       </c>
       <c r="I66" t="s">
-        <v>708</v>
+        <v>612</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -4810,7 +3855,7 @@
         <v>9711</v>
       </c>
       <c r="I67" t="s">
-        <v>709</v>
+        <v>612</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -4833,7 +3878,7 @@
         <v>32705.38</v>
       </c>
       <c r="I68" t="s">
-        <v>710</v>
+        <v>612</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -4856,7 +3901,7 @@
         <v>62244.04</v>
       </c>
       <c r="I69" t="s">
-        <v>711</v>
+        <v>612</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -4879,7 +3924,7 @@
         <v>8580</v>
       </c>
       <c r="I70" t="s">
-        <v>712</v>
+        <v>612</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -4902,7 +3947,7 @@
         <v>3034.2</v>
       </c>
       <c r="I71" t="s">
-        <v>713</v>
+        <v>612</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -4925,7 +3970,7 @@
         <v>11824.78</v>
       </c>
       <c r="I72" t="s">
-        <v>714</v>
+        <v>612</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -4948,7 +3993,7 @@
         <v>39218.370000000003</v>
       </c>
       <c r="I73" t="s">
-        <v>715</v>
+        <v>612</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4971,7 +4016,7 @@
         <v>3268.2</v>
       </c>
       <c r="I74" t="s">
-        <v>716</v>
+        <v>612</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4994,7 +4039,7 @@
         <v>2956.2</v>
       </c>
       <c r="I75" t="s">
-        <v>717</v>
+        <v>612</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -5017,7 +4062,7 @@
         <v>2956.2</v>
       </c>
       <c r="I76" t="s">
-        <v>718</v>
+        <v>612</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -5040,7 +4085,7 @@
         <v>2956.2</v>
       </c>
       <c r="I77" t="s">
-        <v>719</v>
+        <v>612</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5063,7 +4108,7 @@
         <v>18205.189999999999</v>
       </c>
       <c r="I78" t="s">
-        <v>720</v>
+        <v>612</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -5086,7 +4131,7 @@
         <v>14780.98</v>
       </c>
       <c r="I79" t="s">
-        <v>721</v>
+        <v>612</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -5109,7 +4154,7 @@
         <v>6536.39</v>
       </c>
       <c r="I80" t="s">
-        <v>722</v>
+        <v>612</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -5132,7 +4177,7 @@
         <v>11824.78</v>
       </c>
       <c r="I81" t="s">
-        <v>723</v>
+        <v>612</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -5155,7 +4200,7 @@
         <v>5912.39</v>
       </c>
       <c r="I82" t="s">
-        <v>724</v>
+        <v>612</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -5178,7 +4223,7 @@
         <v>16340.99</v>
       </c>
       <c r="I83" t="s">
-        <v>725</v>
+        <v>612</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -5201,7 +4246,7 @@
         <v>41238.559999999998</v>
       </c>
       <c r="I84" t="s">
-        <v>726</v>
+        <v>612</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -5224,7 +4269,7 @@
         <v>12448.79</v>
       </c>
       <c r="I85" t="s">
-        <v>727</v>
+        <v>612</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -5247,7 +4292,7 @@
         <v>11824.78</v>
       </c>
       <c r="I86" t="s">
-        <v>728</v>
+        <v>612</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -5270,7 +4315,7 @@
         <v>29413.78</v>
       </c>
       <c r="I87" t="s">
-        <v>729</v>
+        <v>612</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -5293,7 +4338,7 @@
         <v>34390.160000000003</v>
       </c>
       <c r="I88" t="s">
-        <v>730</v>
+        <v>612</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -5316,7 +4361,7 @@
         <v>14780.98</v>
       </c>
       <c r="I89" t="s">
-        <v>731</v>
+        <v>612</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -5339,7 +4384,7 @@
         <v>19609.18</v>
       </c>
       <c r="I90" t="s">
-        <v>732</v>
+        <v>612</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -5362,7 +4407,7 @@
         <v>59287.74</v>
       </c>
       <c r="I91" t="s">
-        <v>733</v>
+        <v>612</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -5385,7 +4430,7 @@
         <v>17737.18</v>
       </c>
       <c r="I92" t="s">
-        <v>734</v>
+        <v>612</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -5408,7 +4453,7 @@
         <v>2956.2</v>
       </c>
       <c r="I93" t="s">
-        <v>735</v>
+        <v>612</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -5431,7 +4476,7 @@
         <v>13072.79</v>
       </c>
       <c r="I94" t="s">
-        <v>736</v>
+        <v>612</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -5454,7 +4499,7 @@
         <v>16340.99</v>
       </c>
       <c r="I95" t="s">
-        <v>737</v>
+        <v>612</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -5477,7 +4522,7 @@
         <v>14780.98</v>
       </c>
       <c r="I96" t="s">
-        <v>738</v>
+        <v>612</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5500,7 +4545,7 @@
         <v>18985.18</v>
       </c>
       <c r="I97" t="s">
-        <v>739</v>
+        <v>612</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -5523,7 +4568,7 @@
         <v>2956.2</v>
       </c>
       <c r="I98" t="s">
-        <v>740</v>
+        <v>612</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -5546,7 +4591,7 @@
         <v>13072.79</v>
       </c>
       <c r="I99" t="s">
-        <v>741</v>
+        <v>612</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -5569,7 +4614,7 @@
         <v>9804.59</v>
       </c>
       <c r="I100" t="s">
-        <v>742</v>
+        <v>612</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -5592,7 +4637,7 @@
         <v>11824.78</v>
       </c>
       <c r="I101" t="s">
-        <v>743</v>
+        <v>612</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -5615,7 +4660,7 @@
         <v>16340.99</v>
       </c>
       <c r="I102" t="s">
-        <v>744</v>
+        <v>612</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -5638,7 +4683,7 @@
         <v>8868.59</v>
       </c>
       <c r="I103" t="s">
-        <v>745</v>
+        <v>612</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -5661,7 +4706,7 @@
         <v>4056</v>
       </c>
       <c r="I104" t="s">
-        <v>746</v>
+        <v>612</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -5684,7 +4729,7 @@
         <v>3608</v>
       </c>
       <c r="I105" t="s">
-        <v>747</v>
+        <v>612</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -5707,7 +4752,7 @@
         <v>4056</v>
       </c>
       <c r="I106" t="s">
-        <v>748</v>
+        <v>612</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -5730,7 +4775,7 @@
         <v>3783</v>
       </c>
       <c r="I107" t="s">
-        <v>749</v>
+        <v>612</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -5753,7 +4798,7 @@
         <v>1257.92</v>
       </c>
       <c r="I108" t="s">
-        <v>750</v>
+        <v>612</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -5776,7 +4821,7 @@
         <v>3034.2</v>
       </c>
       <c r="I109" t="s">
-        <v>751</v>
+        <v>612</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -5799,7 +4844,7 @@
         <v>27307.79</v>
       </c>
       <c r="I110" t="s">
-        <v>752</v>
+        <v>612</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -5822,7 +4867,7 @@
         <v>16340.99</v>
       </c>
       <c r="I111" t="s">
-        <v>753</v>
+        <v>612</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -5845,7 +4890,7 @@
         <v>3268.2</v>
       </c>
       <c r="I112" t="s">
-        <v>754</v>
+        <v>612</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -5868,7 +4913,7 @@
         <v>17496.009999999998</v>
       </c>
       <c r="I113" t="s">
-        <v>755</v>
+        <v>612</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -5891,7 +4936,7 @@
         <v>9458.2800000000007</v>
       </c>
       <c r="I114" t="s">
-        <v>756</v>
+        <v>612</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -5914,7 +4959,7 @@
         <v>4126.2</v>
       </c>
       <c r="I115" t="s">
-        <v>757</v>
+        <v>612</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -5937,7 +4982,7 @@
         <v>4126.2</v>
       </c>
       <c r="I116" t="s">
-        <v>758</v>
+        <v>612</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -5960,7 +5005,7 @@
         <v>14780.98</v>
       </c>
       <c r="I117" t="s">
-        <v>759</v>
+        <v>612</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -5983,7 +5028,7 @@
         <v>8868.59</v>
       </c>
       <c r="I118" t="s">
-        <v>760</v>
+        <v>612</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -6006,7 +5051,7 @@
         <v>14780.98</v>
       </c>
       <c r="I119" t="s">
-        <v>761</v>
+        <v>612</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -6029,7 +5074,7 @@
         <v>8868.59</v>
       </c>
       <c r="I120" t="s">
-        <v>762</v>
+        <v>612</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -6052,7 +5097,7 @@
         <v>576.73</v>
       </c>
       <c r="I121" t="s">
-        <v>763</v>
+        <v>612</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -6075,7 +5120,7 @@
         <v>9664.51</v>
       </c>
       <c r="I122" t="s">
-        <v>764</v>
+        <v>612</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -6098,7 +5143,7 @@
         <v>644.48</v>
       </c>
       <c r="I123" t="s">
-        <v>765</v>
+        <v>612</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -6121,7 +5166,7 @@
         <v>926.35</v>
       </c>
       <c r="I124" t="s">
-        <v>766</v>
+        <v>612</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -6144,7 +5189,7 @@
         <v>1772.32</v>
       </c>
       <c r="I125" t="s">
-        <v>767</v>
+        <v>612</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -6167,7 +5212,7 @@
         <v>812.13</v>
       </c>
       <c r="I126" t="s">
-        <v>768</v>
+        <v>612</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -6190,7 +5235,7 @@
         <v>2215.0500000000002</v>
       </c>
       <c r="I127" t="s">
-        <v>769</v>
+        <v>612</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -6213,7 +5258,7 @@
         <v>3151.53</v>
       </c>
       <c r="I128" t="s">
-        <v>770</v>
+        <v>612</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -6236,7 +5281,7 @@
         <v>16975.04</v>
       </c>
       <c r="I129" t="s">
-        <v>771</v>
+        <v>612</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -6259,7 +5304,7 @@
         <v>3173.62</v>
       </c>
       <c r="I130" t="s">
-        <v>772</v>
+        <v>612</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -6282,7 +5327,7 @@
         <v>11941.2</v>
       </c>
       <c r="I131" t="s">
-        <v>773</v>
+        <v>612</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -6305,7 +5350,7 @@
         <v>197.29</v>
       </c>
       <c r="I132" t="s">
-        <v>774</v>
+        <v>612</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -6328,7 +5373,7 @@
         <v>1706.65</v>
       </c>
       <c r="I133" t="s">
-        <v>775</v>
+        <v>612</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -6351,7 +5396,7 @@
         <v>5788.7</v>
       </c>
       <c r="I134" t="s">
-        <v>776</v>
+        <v>612</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -6374,7 +5419,7 @@
         <v>11714.96</v>
       </c>
       <c r="I135" t="s">
-        <v>777</v>
+        <v>612</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -6397,7 +5442,7 @@
         <v>963</v>
       </c>
       <c r="I136" t="s">
-        <v>778</v>
+        <v>612</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -6420,7 +5465,7 @@
         <v>48.96</v>
       </c>
       <c r="I137" t="s">
-        <v>779</v>
+        <v>612</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -6443,7 +5488,7 @@
         <v>5262.7</v>
       </c>
       <c r="I138" t="s">
-        <v>780</v>
+        <v>612</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -6466,7 +5511,7 @@
         <v>5847.44</v>
       </c>
       <c r="I139" t="s">
-        <v>781</v>
+        <v>612</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -6489,7 +5534,7 @@
         <v>4661.03</v>
       </c>
       <c r="I140" t="s">
-        <v>782</v>
+        <v>612</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -6512,7 +5557,7 @@
         <v>10932.2</v>
       </c>
       <c r="I141" t="s">
-        <v>783</v>
+        <v>612</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -6535,7 +5580,7 @@
         <v>50423.75</v>
       </c>
       <c r="I142" t="s">
-        <v>784</v>
+        <v>612</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -6558,7 +5603,7 @@
         <v>38084.720000000001</v>
       </c>
       <c r="I143" t="s">
-        <v>785</v>
+        <v>612</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -6581,7 +5626,7 @@
         <v>13542.37</v>
       </c>
       <c r="I144" t="s">
-        <v>786</v>
+        <v>612</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -6604,7 +5649,7 @@
         <v>20296.62</v>
       </c>
       <c r="I145" t="s">
-        <v>787</v>
+        <v>612</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -6627,7 +5672,7 @@
         <v>7824.21</v>
       </c>
       <c r="I146" t="s">
-        <v>788</v>
+        <v>612</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -6650,7 +5695,7 @@
         <v>25933.38</v>
       </c>
       <c r="I147" t="s">
-        <v>789</v>
+        <v>612</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -6673,7 +5718,7 @@
         <v>21400</v>
       </c>
       <c r="I148" t="s">
-        <v>790</v>
+        <v>612</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -6696,7 +5741,7 @@
         <v>344.2</v>
       </c>
       <c r="I149" t="s">
-        <v>791</v>
+        <v>612</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -6719,7 +5764,7 @@
         <v>4146.38</v>
       </c>
       <c r="I150" t="s">
-        <v>792</v>
+        <v>612</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -6742,7 +5787,7 @@
         <v>2037</v>
       </c>
       <c r="I151" t="s">
-        <v>793</v>
+        <v>612</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -6765,7 +5810,7 @@
         <v>2859.56</v>
       </c>
       <c r="I152" t="s">
-        <v>794</v>
+        <v>612</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -6788,7 +5833,7 @@
         <v>340.45</v>
       </c>
       <c r="I153" t="s">
-        <v>795</v>
+        <v>612</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -6811,7 +5856,7 @@
         <v>343.5</v>
       </c>
       <c r="I154" t="s">
-        <v>796</v>
+        <v>612</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -6834,7 +5879,7 @@
         <v>1498</v>
       </c>
       <c r="I155" t="s">
-        <v>797</v>
+        <v>612</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -6857,7 +5902,7 @@
         <v>1364.98</v>
       </c>
       <c r="I156" t="s">
-        <v>798</v>
+        <v>612</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -6880,7 +5925,7 @@
         <v>2721.74</v>
       </c>
       <c r="I157" t="s">
-        <v>799</v>
+        <v>612</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -6903,7 +5948,7 @@
         <v>107</v>
       </c>
       <c r="I158" t="s">
-        <v>800</v>
+        <v>612</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -6926,7 +5971,7 @@
         <v>50.58</v>
       </c>
       <c r="I159" t="s">
-        <v>801</v>
+        <v>612</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -6949,7 +5994,7 @@
         <v>5322.33</v>
       </c>
       <c r="I160" t="s">
-        <v>802</v>
+        <v>612</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -6972,7 +6017,7 @@
         <v>75.599999999999994</v>
       </c>
       <c r="I161" t="s">
-        <v>803</v>
+        <v>612</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -6995,7 +6040,7 @@
         <v>67.650000000000006</v>
       </c>
       <c r="I162" t="s">
-        <v>804</v>
+        <v>612</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -7018,7 +6063,7 @@
         <v>2621.5</v>
       </c>
       <c r="I163" t="s">
-        <v>805</v>
+        <v>612</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -7041,7 +6086,7 @@
         <v>9630</v>
       </c>
       <c r="I164" t="s">
-        <v>806</v>
+        <v>612</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -7064,7 +6109,7 @@
         <v>1690.6</v>
       </c>
       <c r="I165" t="s">
-        <v>807</v>
+        <v>612</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -7087,7 +6132,7 @@
         <v>150.33000000000001</v>
       </c>
       <c r="I166" t="s">
-        <v>808</v>
+        <v>612</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -7110,7 +6155,7 @@
         <v>2520</v>
       </c>
       <c r="I167" t="s">
-        <v>809</v>
+        <v>612</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -7133,7 +6178,7 @@
         <v>1318.74</v>
       </c>
       <c r="I168" t="s">
-        <v>810</v>
+        <v>612</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -7156,7 +6201,7 @@
         <v>587.32000000000005</v>
       </c>
       <c r="I169" t="s">
-        <v>811</v>
+        <v>612</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -7179,7 +6224,7 @@
         <v>3078.01</v>
       </c>
       <c r="I170" t="s">
-        <v>812</v>
+        <v>612</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -7205,7 +6250,7 @@
         <v>304</v>
       </c>
       <c r="I171" t="s">
-        <v>813</v>
+        <v>612</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -7228,7 +6273,7 @@
         <v>23091.98</v>
       </c>
       <c r="I172" t="s">
-        <v>814</v>
+        <v>612</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -7254,7 +6299,7 @@
         <v>308</v>
       </c>
       <c r="I173" t="s">
-        <v>815</v>
+        <v>612</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -7280,7 +6325,7 @@
         <v>310</v>
       </c>
       <c r="I174" t="s">
-        <v>816</v>
+        <v>612</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -7306,7 +6351,7 @@
         <v>313</v>
       </c>
       <c r="I175" t="s">
-        <v>817</v>
+        <v>612</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -7329,7 +6374,7 @@
         <v>213.71</v>
       </c>
       <c r="I176" t="s">
-        <v>818</v>
+        <v>612</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -7352,7 +6397,7 @@
         <v>298.08</v>
       </c>
       <c r="I177" t="s">
-        <v>819</v>
+        <v>612</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -7375,7 +6420,7 @@
         <v>50.85</v>
       </c>
       <c r="I178" t="s">
-        <v>820</v>
+        <v>612</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -7398,7 +6443,7 @@
         <v>7673.9</v>
       </c>
       <c r="I179" t="s">
-        <v>821</v>
+        <v>612</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -7424,7 +6469,7 @@
         <v>316</v>
       </c>
       <c r="I180" t="s">
-        <v>822</v>
+        <v>612</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -7450,7 +6495,7 @@
         <v>318</v>
       </c>
       <c r="I181" t="s">
-        <v>823</v>
+        <v>612</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -7476,7 +6521,7 @@
         <v>320</v>
       </c>
       <c r="I182" t="s">
-        <v>824</v>
+        <v>612</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -7502,7 +6547,7 @@
         <v>322</v>
       </c>
       <c r="I183" t="s">
-        <v>825</v>
+        <v>612</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -7528,7 +6573,7 @@
         <v>324</v>
       </c>
       <c r="I184" t="s">
-        <v>826</v>
+        <v>612</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -7554,7 +6599,7 @@
         <v>326</v>
       </c>
       <c r="I185" t="s">
-        <v>827</v>
+        <v>612</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -7580,7 +6625,7 @@
         <v>328</v>
       </c>
       <c r="I186" t="s">
-        <v>828</v>
+        <v>612</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -7606,7 +6651,7 @@
         <v>330</v>
       </c>
       <c r="I187" t="s">
-        <v>829</v>
+        <v>612</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -7632,7 +6677,7 @@
         <v>332</v>
       </c>
       <c r="I188" t="s">
-        <v>830</v>
+        <v>612</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -7658,7 +6703,7 @@
         <v>334</v>
       </c>
       <c r="I189" t="s">
-        <v>831</v>
+        <v>612</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -7684,7 +6729,7 @@
         <v>336</v>
       </c>
       <c r="I190" t="s">
-        <v>832</v>
+        <v>612</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -7710,7 +6755,7 @@
         <v>338</v>
       </c>
       <c r="I191" t="s">
-        <v>833</v>
+        <v>612</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -7736,7 +6781,7 @@
         <v>340</v>
       </c>
       <c r="I192" t="s">
-        <v>834</v>
+        <v>612</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -7762,7 +6807,7 @@
         <v>342</v>
       </c>
       <c r="I193" t="s">
-        <v>835</v>
+        <v>612</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -7788,7 +6833,7 @@
         <v>344</v>
       </c>
       <c r="I194" t="s">
-        <v>836</v>
+        <v>612</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -7814,7 +6859,7 @@
         <v>346</v>
       </c>
       <c r="I195" t="s">
-        <v>837</v>
+        <v>612</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -7837,7 +6882,7 @@
         <v>14710.76</v>
       </c>
       <c r="I196" t="s">
-        <v>838</v>
+        <v>612</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -7863,7 +6908,7 @@
         <v>350</v>
       </c>
       <c r="I197" t="s">
-        <v>839</v>
+        <v>612</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -7886,7 +6931,7 @@
         <v>1382.82</v>
       </c>
       <c r="I198" t="s">
-        <v>840</v>
+        <v>612</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -7909,7 +6954,7 @@
         <v>2678.86</v>
       </c>
       <c r="I199" t="s">
-        <v>841</v>
+        <v>612</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -7932,7 +6977,7 @@
         <v>1096.8800000000001</v>
       </c>
       <c r="I200" t="s">
-        <v>842</v>
+        <v>612</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -7955,7 +7000,7 @@
         <v>1072.43</v>
       </c>
       <c r="I201" t="s">
-        <v>843</v>
+        <v>612</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -7978,7 +7023,7 @@
         <v>1319.37</v>
       </c>
       <c r="I202" t="s">
-        <v>844</v>
+        <v>612</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -8001,7 +7046,7 @@
         <v>1165.25</v>
       </c>
       <c r="I203" t="s">
-        <v>845</v>
+        <v>612</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -8024,7 +7069,7 @@
         <v>5479.19</v>
       </c>
       <c r="I204" t="s">
-        <v>846</v>
+        <v>612</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -8047,7 +7092,7 @@
         <v>587.23</v>
       </c>
       <c r="I205" t="s">
-        <v>847</v>
+        <v>612</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -8073,7 +7118,7 @@
         <v>353</v>
       </c>
       <c r="I206" t="s">
-        <v>848</v>
+        <v>612</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -8099,7 +7144,7 @@
         <v>357</v>
       </c>
       <c r="I207" t="s">
-        <v>849</v>
+        <v>612</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -8125,7 +7170,7 @@
         <v>359</v>
       </c>
       <c r="I208" t="s">
-        <v>850</v>
+        <v>612</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -8151,7 +7196,7 @@
         <v>363</v>
       </c>
       <c r="I209" t="s">
-        <v>851</v>
+        <v>612</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -8177,7 +7222,7 @@
         <v>365</v>
       </c>
       <c r="I210" t="s">
-        <v>852</v>
+        <v>612</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -8203,7 +7248,7 @@
         <v>367</v>
       </c>
       <c r="I211" t="s">
-        <v>853</v>
+        <v>612</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -8229,7 +7274,7 @@
         <v>367</v>
       </c>
       <c r="I212" t="s">
-        <v>854</v>
+        <v>612</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -8255,7 +7300,7 @@
         <v>370</v>
       </c>
       <c r="I213" t="s">
-        <v>855</v>
+        <v>612</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -8281,7 +7326,7 @@
         <v>372</v>
       </c>
       <c r="I214" t="s">
-        <v>856</v>
+        <v>612</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -8307,7 +7352,7 @@
         <v>374</v>
       </c>
       <c r="I215" t="s">
-        <v>857</v>
+        <v>612</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -8333,7 +7378,7 @@
         <v>378</v>
       </c>
       <c r="I216" t="s">
-        <v>858</v>
+        <v>612</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -8359,7 +7404,7 @@
         <v>381</v>
       </c>
       <c r="I217" t="s">
-        <v>859</v>
+        <v>612</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -8385,7 +7430,7 @@
         <v>383</v>
       </c>
       <c r="I218" t="s">
-        <v>860</v>
+        <v>612</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -8411,7 +7456,7 @@
         <v>387</v>
       </c>
       <c r="I219" t="s">
-        <v>861</v>
+        <v>612</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -8437,7 +7482,7 @@
         <v>389</v>
       </c>
       <c r="I220" t="s">
-        <v>862</v>
+        <v>612</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -8463,7 +7508,7 @@
         <v>392</v>
       </c>
       <c r="I221" t="s">
-        <v>863</v>
+        <v>612</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -8489,7 +7534,7 @@
         <v>396</v>
       </c>
       <c r="I222" t="s">
-        <v>864</v>
+        <v>612</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -8515,7 +7560,7 @@
         <v>399</v>
       </c>
       <c r="I223" t="s">
-        <v>865</v>
+        <v>612</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -8541,7 +7586,7 @@
         <v>399</v>
       </c>
       <c r="I224" t="s">
-        <v>866</v>
+        <v>612</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -8567,7 +7612,7 @@
         <v>399</v>
       </c>
       <c r="I225" t="s">
-        <v>867</v>
+        <v>612</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -8593,7 +7638,7 @@
         <v>399</v>
       </c>
       <c r="I226" t="s">
-        <v>868</v>
+        <v>612</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -8619,7 +7664,7 @@
         <v>404</v>
       </c>
       <c r="I227" t="s">
-        <v>869</v>
+        <v>612</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -8645,7 +7690,7 @@
         <v>404</v>
       </c>
       <c r="I228" t="s">
-        <v>870</v>
+        <v>612</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -8671,7 +7716,7 @@
         <v>404</v>
       </c>
       <c r="I229" t="s">
-        <v>871</v>
+        <v>612</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -8697,7 +7742,7 @@
         <v>404</v>
       </c>
       <c r="I230" t="s">
-        <v>872</v>
+        <v>612</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -8723,7 +7768,7 @@
         <v>404</v>
       </c>
       <c r="I231" t="s">
-        <v>873</v>
+        <v>612</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -8749,7 +7794,7 @@
         <v>404</v>
       </c>
       <c r="I232" t="s">
-        <v>874</v>
+        <v>612</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -8775,7 +7820,7 @@
         <v>404</v>
       </c>
       <c r="I233" t="s">
-        <v>875</v>
+        <v>612</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -8801,7 +7846,7 @@
         <v>404</v>
       </c>
       <c r="I234" t="s">
-        <v>876</v>
+        <v>612</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -8827,7 +7872,7 @@
         <v>404</v>
       </c>
       <c r="I235" t="s">
-        <v>877</v>
+        <v>612</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -8853,7 +7898,7 @@
         <v>404</v>
       </c>
       <c r="I236" t="s">
-        <v>878</v>
+        <v>612</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -8879,7 +7924,7 @@
         <v>404</v>
       </c>
       <c r="I237" t="s">
-        <v>879</v>
+        <v>612</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -8905,7 +7950,7 @@
         <v>404</v>
       </c>
       <c r="I238" t="s">
-        <v>880</v>
+        <v>612</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -8931,7 +7976,7 @@
         <v>417</v>
       </c>
       <c r="I239" t="s">
-        <v>881</v>
+        <v>612</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -8957,7 +8002,7 @@
         <v>420</v>
       </c>
       <c r="I240" t="s">
-        <v>882</v>
+        <v>612</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -8983,7 +8028,7 @@
         <v>422</v>
       </c>
       <c r="I241" t="s">
-        <v>883</v>
+        <v>612</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -9006,7 +8051,7 @@
         <v>2817.42</v>
       </c>
       <c r="I242" t="s">
-        <v>884</v>
+        <v>612</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -9029,7 +8074,7 @@
         <v>394.38</v>
       </c>
       <c r="I243" t="s">
-        <v>885</v>
+        <v>612</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -9052,7 +8097,7 @@
         <v>526.29</v>
       </c>
       <c r="I244" t="s">
-        <v>886</v>
+        <v>612</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -9075,7 +8120,7 @@
         <v>7380.89</v>
       </c>
       <c r="I245" t="s">
-        <v>887</v>
+        <v>612</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -9098,7 +8143,7 @@
         <v>64.3</v>
       </c>
       <c r="I246" t="s">
-        <v>888</v>
+        <v>612</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -9121,7 +8166,7 @@
         <v>1052.58</v>
       </c>
       <c r="I247" t="s">
-        <v>889</v>
+        <v>612</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -9147,7 +8192,7 @@
         <v>426</v>
       </c>
       <c r="I248" t="s">
-        <v>890</v>
+        <v>612</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -9173,7 +8218,7 @@
         <v>429</v>
       </c>
       <c r="I249" t="s">
-        <v>891</v>
+        <v>612</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -9199,7 +8244,7 @@
         <v>431</v>
       </c>
       <c r="I250" t="s">
-        <v>892</v>
+        <v>612</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -9225,7 +8270,7 @@
         <v>434</v>
       </c>
       <c r="I251" t="s">
-        <v>893</v>
+        <v>612</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -9251,7 +8296,7 @@
         <v>436</v>
       </c>
       <c r="I252" t="s">
-        <v>894</v>
+        <v>612</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -9277,7 +8322,7 @@
         <v>439</v>
       </c>
       <c r="I253" t="s">
-        <v>895</v>
+        <v>612</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -9303,7 +8348,7 @@
         <v>442</v>
       </c>
       <c r="I254" t="s">
-        <v>896</v>
+        <v>612</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -9329,7 +8374,7 @@
         <v>444</v>
       </c>
       <c r="I255" t="s">
-        <v>897</v>
+        <v>612</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -9352,7 +8397,7 @@
         <v>7343.64</v>
       </c>
       <c r="I256" t="s">
-        <v>898</v>
+        <v>612</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -9375,7 +8420,7 @@
         <v>1412.94</v>
       </c>
       <c r="I257" t="s">
-        <v>899</v>
+        <v>612</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -9398,7 +8443,7 @@
         <v>1048.5999999999999</v>
       </c>
       <c r="I258" t="s">
-        <v>900</v>
+        <v>612</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -9421,7 +8466,7 @@
         <v>64475.42</v>
       </c>
       <c r="I259" t="s">
-        <v>901</v>
+        <v>612</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -9444,7 +8489,7 @@
         <v>43034.76</v>
       </c>
       <c r="I260" t="s">
-        <v>902</v>
+        <v>612</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -9467,7 +8512,7 @@
         <v>2631.63</v>
       </c>
       <c r="I261" t="s">
-        <v>903</v>
+        <v>612</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -9490,7 +8535,7 @@
         <v>449.81</v>
       </c>
       <c r="I262" t="s">
-        <v>904</v>
+        <v>612</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -9513,7 +8558,7 @@
         <v>1525.13</v>
       </c>
       <c r="I263" t="s">
-        <v>905</v>
+        <v>612</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -9536,7 +8581,7 @@
         <v>1691.54</v>
       </c>
       <c r="I264" t="s">
-        <v>906</v>
+        <v>612</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -9559,7 +8604,7 @@
         <v>659.29</v>
       </c>
       <c r="I265" t="s">
-        <v>907</v>
+        <v>612</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -9582,7 +8627,7 @@
         <v>3378.02</v>
       </c>
       <c r="I266" t="s">
-        <v>908</v>
+        <v>612</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -9605,7 +8650,7 @@
         <v>2819.3</v>
       </c>
       <c r="I267" t="s">
-        <v>909</v>
+        <v>612</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -9628,7 +8673,7 @@
         <v>4226.9399999999996</v>
       </c>
       <c r="I268" t="s">
-        <v>910</v>
+        <v>612</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -9651,7 +8696,7 @@
         <v>533.5</v>
       </c>
       <c r="I269" t="s">
-        <v>911</v>
+        <v>612</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -9674,7 +8719,7 @@
         <v>190.26</v>
       </c>
       <c r="I270" t="s">
-        <v>912</v>
+        <v>612</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -9697,7 +8742,7 @@
         <v>12621.72</v>
       </c>
       <c r="I271" t="s">
-        <v>913</v>
+        <v>612</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -9720,7 +8765,7 @@
         <v>865.73</v>
       </c>
       <c r="I272" t="s">
-        <v>914</v>
+        <v>612</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -9743,7 +8788,7 @@
         <v>865.73</v>
       </c>
       <c r="I273" t="s">
-        <v>915</v>
+        <v>612</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -9766,7 +8811,7 @@
         <v>4786.9399999999996</v>
       </c>
       <c r="I274" t="s">
-        <v>916</v>
+        <v>612</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -9789,7 +8834,7 @@
         <v>1396.8</v>
       </c>
       <c r="I275" t="s">
-        <v>917</v>
+        <v>612</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -9812,7 +8857,7 @@
         <v>6540.23</v>
       </c>
       <c r="I276" t="s">
-        <v>918</v>
+        <v>612</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -9835,7 +8880,7 @@
         <v>2205.0100000000002</v>
       </c>
       <c r="I277" t="s">
-        <v>919</v>
+        <v>612</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -9858,7 +8903,7 @@
         <v>1837.51</v>
       </c>
       <c r="I278" t="s">
-        <v>920</v>
+        <v>612</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -9881,7 +8926,7 @@
         <v>1470.01</v>
       </c>
       <c r="I279" t="s">
-        <v>921</v>
+        <v>612</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -9904,7 +8949,7 @@
         <v>1470.01</v>
       </c>
       <c r="I280" t="s">
-        <v>922</v>
+        <v>612</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -9927,7 +8972,7 @@
         <v>4867.4799999999996</v>
       </c>
       <c r="I281" t="s">
-        <v>923</v>
+        <v>612</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -9950,7 +8995,7 @@
         <v>442.5</v>
       </c>
       <c r="I282" t="s">
-        <v>924</v>
+        <v>612</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -9973,7 +9018,7 @@
         <v>21828</v>
       </c>
       <c r="I283" t="s">
-        <v>925</v>
+        <v>612</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -9996,7 +9041,7 @@
         <v>1372.28</v>
       </c>
       <c r="I284" t="s">
-        <v>926</v>
+        <v>612</v>
       </c>
     </row>
     <row r="285" spans="1:9">
@@ -10019,7 +9064,7 @@
         <v>1646.73</v>
       </c>
       <c r="I285" t="s">
-        <v>927</v>
+        <v>612</v>
       </c>
     </row>
     <row r="286" spans="1:9">
@@ -10042,7 +9087,7 @@
         <v>365.94</v>
       </c>
       <c r="I286" t="s">
-        <v>928</v>
+        <v>612</v>
       </c>
     </row>
     <row r="287" spans="1:9">
@@ -10065,7 +9110,7 @@
         <v>914.85</v>
       </c>
       <c r="I287" t="s">
-        <v>929</v>
+        <v>612</v>
       </c>
     </row>
     <row r="288" spans="1:9">
@@ -10088,7 +9133,7 @@
         <v>274.45999999999998</v>
       </c>
       <c r="I288" t="s">
-        <v>930</v>
+        <v>612</v>
       </c>
     </row>
     <row r="289" spans="1:9">
@@ -10111,7 +9156,7 @@
         <v>23624.99</v>
       </c>
       <c r="I289" t="s">
-        <v>931</v>
+        <v>612</v>
       </c>
     </row>
     <row r="290" spans="1:9">
@@ -10134,7 +9179,7 @@
         <v>2364.41</v>
       </c>
       <c r="I290" t="s">
-        <v>932</v>
+        <v>612</v>
       </c>
     </row>
     <row r="291" spans="1:9">
@@ -10157,7 +9202,7 @@
         <v>1687.39</v>
       </c>
       <c r="I291" t="s">
-        <v>933</v>
+        <v>612</v>
       </c>
     </row>
     <row r="292" spans="1:9">
@@ -10180,7 +9225,7 @@
         <v>106815.53</v>
       </c>
       <c r="I292" t="s">
-        <v>934</v>
+        <v>612</v>
       </c>
     </row>
     <row r="293" spans="1:9">
@@ -10203,7 +9248,7 @@
         <v>772.42</v>
       </c>
       <c r="I293" t="s">
-        <v>935</v>
+        <v>612</v>
       </c>
     </row>
     <row r="294" spans="1:9">
@@ -10226,7 +9271,7 @@
         <v>714.58</v>
       </c>
       <c r="I294" t="s">
-        <v>936</v>
+        <v>612</v>
       </c>
     </row>
     <row r="295" spans="1:9">
@@ -10249,7 +9294,7 @@
         <v>677.52</v>
       </c>
       <c r="I295" t="s">
-        <v>937</v>
+        <v>612</v>
       </c>
     </row>
     <row r="296" spans="1:9">
@@ -10272,7 +9317,7 @@
         <v>609.38</v>
       </c>
       <c r="I296" t="s">
-        <v>938</v>
+        <v>612</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -10295,7 +9340,7 @@
         <v>85.08</v>
       </c>
       <c r="I297" t="s">
-        <v>939</v>
+        <v>612</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -10318,7 +9363,7 @@
         <v>526.16</v>
       </c>
       <c r="I298" t="s">
-        <v>940</v>
+        <v>612</v>
       </c>
     </row>
     <row r="299" spans="1:9">
@@ -10341,7 +9386,7 @@
         <v>7494.4</v>
       </c>
       <c r="I299" t="s">
-        <v>941</v>
+        <v>612</v>
       </c>
     </row>
     <row r="300" spans="1:9">
@@ -10364,7 +9409,7 @@
         <v>67.27</v>
       </c>
       <c r="I300" t="s">
-        <v>942</v>
+        <v>612</v>
       </c>
     </row>
     <row r="301" spans="1:9">
@@ -10387,7 +9432,7 @@
         <v>77625.289999999994</v>
       </c>
       <c r="I301" t="s">
-        <v>943</v>
+        <v>612</v>
       </c>
     </row>
     <row r="302" spans="1:9">
@@ -10410,7 +9455,7 @@
         <v>3043.24</v>
       </c>
       <c r="I302" t="s">
-        <v>944</v>
+        <v>612</v>
       </c>
     </row>
     <row r="303" spans="1:9">
@@ -10433,7 +9478,7 @@
         <v>6436.81</v>
       </c>
       <c r="I303" t="s">
-        <v>945</v>
+        <v>612</v>
       </c>
     </row>
     <row r="304" spans="1:9">
@@ -10456,7 +9501,7 @@
         <v>8222.77</v>
       </c>
       <c r="I304" t="s">
-        <v>946</v>
+        <v>612</v>
       </c>
     </row>
     <row r="305" spans="1:9">
@@ -10479,7 +9524,7 @@
         <v>7904.22</v>
       </c>
       <c r="I305" t="s">
-        <v>947</v>
+        <v>612</v>
       </c>
     </row>
     <row r="306" spans="1:9">
@@ -10502,7 +9547,7 @@
         <v>518.38</v>
       </c>
       <c r="I306" t="s">
-        <v>948</v>
+        <v>612</v>
       </c>
     </row>
     <row r="307" spans="1:9">
@@ -10525,7 +9570,7 @@
         <v>8315.75</v>
       </c>
       <c r="I307" t="s">
-        <v>949</v>
+        <v>612</v>
       </c>
     </row>
     <row r="308" spans="1:9">
@@ -10548,7 +9593,7 @@
         <v>50.45</v>
       </c>
       <c r="I308" t="s">
-        <v>950</v>
+        <v>612</v>
       </c>
     </row>
     <row r="309" spans="1:9">
@@ -10571,7 +9616,7 @@
         <v>3176.63</v>
       </c>
       <c r="I309" t="s">
-        <v>951</v>
+        <v>612</v>
       </c>
     </row>
     <row r="310" spans="1:9">
@@ -10594,7 +9639,7 @@
         <v>208091.11</v>
       </c>
       <c r="I310" t="s">
-        <v>952</v>
+        <v>612</v>
       </c>
     </row>
     <row r="311" spans="1:9">
@@ -10617,7 +9662,7 @@
         <v>1714.73</v>
       </c>
       <c r="I311" t="s">
-        <v>953</v>
+        <v>612</v>
       </c>
     </row>
     <row r="312" spans="1:9">
@@ -10640,7 +9685,7 @@
         <v>166472.89000000001</v>
       </c>
       <c r="I312" t="s">
-        <v>954</v>
+        <v>612</v>
       </c>
     </row>
     <row r="313" spans="1:9">
@@ -10663,7 +9708,7 @@
         <v>5629.57</v>
       </c>
       <c r="I313" t="s">
-        <v>955</v>
+        <v>612</v>
       </c>
     </row>
     <row r="314" spans="1:9">
@@ -10686,7 +9731,7 @@
         <v>858.55</v>
       </c>
       <c r="I314" t="s">
-        <v>956</v>
+        <v>612</v>
       </c>
     </row>
     <row r="315" spans="1:9">
@@ -10709,7 +9754,7 @@
         <v>592.37</v>
       </c>
       <c r="I315" t="s">
-        <v>957</v>
+        <v>612</v>
       </c>
     </row>
     <row r="316" spans="1:9">
@@ -10732,7 +9777,7 @@
         <v>1811.8</v>
       </c>
       <c r="I316" t="s">
-        <v>958</v>
+        <v>612</v>
       </c>
     </row>
     <row r="317" spans="1:9">
@@ -10755,7 +9800,7 @@
         <v>1259.1400000000001</v>
       </c>
       <c r="I317" t="s">
-        <v>959</v>
+        <v>612</v>
       </c>
     </row>
     <row r="318" spans="1:9">
@@ -10778,7 +9823,7 @@
         <v>1270.6500000000001</v>
       </c>
       <c r="I318" t="s">
-        <v>960</v>
+        <v>612</v>
       </c>
     </row>
     <row r="319" spans="1:9">
@@ -10801,7 +9846,7 @@
         <v>25048.51</v>
       </c>
       <c r="I319" t="s">
-        <v>961</v>
+        <v>612</v>
       </c>
     </row>
     <row r="320" spans="1:9">
@@ -10824,7 +9869,7 @@
         <v>685.89</v>
       </c>
       <c r="I320" t="s">
-        <v>962</v>
+        <v>612</v>
       </c>
     </row>
     <row r="321" spans="1:9">
@@ -10844,7 +9889,7 @@
         <v>1494.59</v>
       </c>
       <c r="I321" t="s">
-        <v>963</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>

--- a/Data_file/import_invoice_CN.xlsx
+++ b/Data_file/import_invoice_CN.xlsx
@@ -2295,8 +2295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2304,8 +2304,9 @@
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.44140625" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="45" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" customWidth="1"/>
     <col min="9" max="9" width="13.88671875" customWidth="1"/>
@@ -2353,10 +2354,10 @@
       <c r="D2" t="s">
         <v>610</v>
       </c>
-      <c r="F2" t="s">
-        <v>611</v>
-      </c>
-      <c r="G2">
+      <c r="E2" t="s">
+        <v>611</v>
+      </c>
+      <c r="F2">
         <v>214</v>
       </c>
       <c r="I2" t="s">
@@ -2376,10 +2377,10 @@
       <c r="D3" t="s">
         <v>613</v>
       </c>
-      <c r="F3" t="s">
-        <v>611</v>
-      </c>
-      <c r="G3">
+      <c r="E3" t="s">
+        <v>611</v>
+      </c>
+      <c r="F3">
         <v>13643.05</v>
       </c>
       <c r="I3" t="s">
@@ -2399,10 +2400,10 @@
       <c r="D4" t="s">
         <v>613</v>
       </c>
-      <c r="F4" t="s">
-        <v>611</v>
-      </c>
-      <c r="G4">
+      <c r="E4" t="s">
+        <v>611</v>
+      </c>
+      <c r="F4">
         <v>2157.6799999999998</v>
       </c>
       <c r="I4" t="s">
@@ -2422,10 +2423,10 @@
       <c r="D5" t="s">
         <v>614</v>
       </c>
-      <c r="F5" t="s">
-        <v>611</v>
-      </c>
-      <c r="G5">
+      <c r="E5" t="s">
+        <v>611</v>
+      </c>
+      <c r="F5">
         <v>2058.41</v>
       </c>
       <c r="I5" t="s">
@@ -2445,10 +2446,10 @@
       <c r="D6" t="s">
         <v>614</v>
       </c>
-      <c r="F6" t="s">
-        <v>611</v>
-      </c>
-      <c r="G6">
+      <c r="E6" t="s">
+        <v>611</v>
+      </c>
+      <c r="F6">
         <v>25615.8</v>
       </c>
       <c r="I6" t="s">
@@ -2468,10 +2469,10 @@
       <c r="D7" t="s">
         <v>614</v>
       </c>
-      <c r="F7" t="s">
-        <v>611</v>
-      </c>
-      <c r="G7">
+      <c r="E7" t="s">
+        <v>611</v>
+      </c>
+      <c r="F7">
         <v>11313.65</v>
       </c>
       <c r="I7" t="s">
@@ -2491,10 +2492,10 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
-        <v>611</v>
-      </c>
-      <c r="G8">
+      <c r="E8" t="s">
+        <v>611</v>
+      </c>
+      <c r="F8">
         <v>26394.46</v>
       </c>
       <c r="I8" t="s">
@@ -2514,10 +2515,10 @@
       <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
-        <v>611</v>
-      </c>
-      <c r="G9">
+      <c r="E9" t="s">
+        <v>611</v>
+      </c>
+      <c r="F9">
         <v>2522</v>
       </c>
       <c r="I9" t="s">
@@ -2537,10 +2538,10 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
-        <v>611</v>
-      </c>
-      <c r="G10">
+      <c r="E10" t="s">
+        <v>611</v>
+      </c>
+      <c r="F10">
         <v>2189.31</v>
       </c>
       <c r="I10" t="s">
@@ -2560,10 +2561,10 @@
       <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" t="s">
-        <v>611</v>
-      </c>
-      <c r="G11">
+      <c r="E11" t="s">
+        <v>611</v>
+      </c>
+      <c r="F11">
         <v>12856.69</v>
       </c>
       <c r="I11" t="s">
@@ -2583,10 +2584,10 @@
       <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="F12" t="s">
-        <v>611</v>
-      </c>
-      <c r="G12">
+      <c r="E12" t="s">
+        <v>611</v>
+      </c>
+      <c r="F12">
         <v>6099</v>
       </c>
       <c r="I12" t="s">
@@ -2606,10 +2607,10 @@
       <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="F13" t="s">
-        <v>611</v>
-      </c>
-      <c r="G13">
+      <c r="E13" t="s">
+        <v>611</v>
+      </c>
+      <c r="F13">
         <v>128617.81</v>
       </c>
       <c r="I13" t="s">
@@ -2629,10 +2630,10 @@
       <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="F14" t="s">
-        <v>611</v>
-      </c>
-      <c r="G14">
+      <c r="E14" t="s">
+        <v>611</v>
+      </c>
+      <c r="F14">
         <v>78619.83</v>
       </c>
       <c r="I14" t="s">
@@ -2652,10 +2653,10 @@
       <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="F15" t="s">
-        <v>611</v>
-      </c>
-      <c r="G15">
+      <c r="E15" t="s">
+        <v>611</v>
+      </c>
+      <c r="F15">
         <v>7164.04</v>
       </c>
       <c r="I15" t="s">
@@ -2675,10 +2676,10 @@
       <c r="D16" t="s">
         <v>30</v>
       </c>
-      <c r="F16" t="s">
-        <v>611</v>
-      </c>
-      <c r="G16">
+      <c r="E16" t="s">
+        <v>611</v>
+      </c>
+      <c r="F16">
         <v>3148.48</v>
       </c>
       <c r="I16" t="s">
@@ -2698,10 +2699,10 @@
       <c r="D17" t="s">
         <v>487</v>
       </c>
-      <c r="F17" t="s">
-        <v>611</v>
-      </c>
-      <c r="G17">
+      <c r="E17" t="s">
+        <v>611</v>
+      </c>
+      <c r="F17">
         <v>1087.6099999999999</v>
       </c>
       <c r="I17" t="s">
@@ -2721,10 +2722,10 @@
       <c r="D18" t="s">
         <v>487</v>
       </c>
-      <c r="F18" t="s">
-        <v>611</v>
-      </c>
-      <c r="G18">
+      <c r="E18" t="s">
+        <v>611</v>
+      </c>
+      <c r="F18">
         <v>4469.6099999999997</v>
       </c>
       <c r="I18" t="s">
@@ -2744,10 +2745,10 @@
       <c r="D19" t="s">
         <v>33</v>
       </c>
-      <c r="F19" t="s">
-        <v>611</v>
-      </c>
-      <c r="G19">
+      <c r="E19" t="s">
+        <v>611</v>
+      </c>
+      <c r="F19">
         <v>14535.29</v>
       </c>
       <c r="I19" t="s">
@@ -2767,10 +2768,10 @@
       <c r="D20" t="s">
         <v>33</v>
       </c>
-      <c r="F20" t="s">
-        <v>611</v>
-      </c>
-      <c r="G20">
+      <c r="E20" t="s">
+        <v>611</v>
+      </c>
+      <c r="F20">
         <v>3503.82</v>
       </c>
       <c r="I20" t="s">
@@ -2790,10 +2791,10 @@
       <c r="D21" t="s">
         <v>33</v>
       </c>
-      <c r="F21" t="s">
-        <v>611</v>
-      </c>
-      <c r="G21">
+      <c r="E21" t="s">
+        <v>611</v>
+      </c>
+      <c r="F21">
         <v>9312</v>
       </c>
       <c r="I21" t="s">
@@ -2813,10 +2814,10 @@
       <c r="D22" t="s">
         <v>33</v>
       </c>
-      <c r="F22" t="s">
-        <v>611</v>
-      </c>
-      <c r="G22">
+      <c r="E22" t="s">
+        <v>611</v>
+      </c>
+      <c r="F22">
         <v>9700</v>
       </c>
       <c r="I22" t="s">
@@ -2836,10 +2837,10 @@
       <c r="D23" t="s">
         <v>33</v>
       </c>
-      <c r="F23" t="s">
-        <v>611</v>
-      </c>
-      <c r="G23">
+      <c r="E23" t="s">
+        <v>611</v>
+      </c>
+      <c r="F23">
         <v>7275</v>
       </c>
       <c r="I23" t="s">
@@ -2859,10 +2860,10 @@
       <c r="D24" t="s">
         <v>33</v>
       </c>
-      <c r="F24" t="s">
-        <v>611</v>
-      </c>
-      <c r="G24">
+      <c r="E24" t="s">
+        <v>611</v>
+      </c>
+      <c r="F24">
         <v>9600</v>
       </c>
       <c r="I24" t="s">
@@ -2882,10 +2883,10 @@
       <c r="D25" t="s">
         <v>36</v>
       </c>
-      <c r="F25" t="s">
-        <v>611</v>
-      </c>
-      <c r="G25">
+      <c r="E25" t="s">
+        <v>611</v>
+      </c>
+      <c r="F25">
         <v>203.3</v>
       </c>
       <c r="I25" t="s">
@@ -2905,10 +2906,10 @@
       <c r="D26" t="s">
         <v>36</v>
       </c>
-      <c r="F26" t="s">
-        <v>611</v>
-      </c>
-      <c r="G26">
+      <c r="E26" t="s">
+        <v>611</v>
+      </c>
+      <c r="F26">
         <v>5377.29</v>
       </c>
       <c r="I26" t="s">
@@ -2928,10 +2929,10 @@
       <c r="D27" t="s">
         <v>36</v>
       </c>
-      <c r="F27" t="s">
-        <v>611</v>
-      </c>
-      <c r="G27">
+      <c r="E27" t="s">
+        <v>611</v>
+      </c>
+      <c r="F27">
         <v>1183.75</v>
       </c>
       <c r="I27" t="s">
@@ -2951,10 +2952,10 @@
       <c r="D28" t="s">
         <v>40</v>
       </c>
-      <c r="F28" t="s">
-        <v>611</v>
-      </c>
-      <c r="G28">
+      <c r="E28" t="s">
+        <v>611</v>
+      </c>
+      <c r="F28">
         <v>2990</v>
       </c>
       <c r="I28" t="s">
@@ -2974,10 +2975,10 @@
       <c r="D29" t="s">
         <v>497</v>
       </c>
-      <c r="F29" t="s">
-        <v>611</v>
-      </c>
-      <c r="G29">
+      <c r="E29" t="s">
+        <v>611</v>
+      </c>
+      <c r="F29">
         <v>9797</v>
       </c>
       <c r="I29" t="s">
@@ -2997,10 +2998,10 @@
       <c r="D30" t="s">
         <v>43</v>
       </c>
-      <c r="F30" t="s">
-        <v>611</v>
-      </c>
-      <c r="G30">
+      <c r="E30" t="s">
+        <v>611</v>
+      </c>
+      <c r="F30">
         <v>122.41</v>
       </c>
       <c r="I30" t="s">
@@ -3020,10 +3021,10 @@
       <c r="D31" t="s">
         <v>198</v>
       </c>
-      <c r="F31" t="s">
-        <v>611</v>
-      </c>
-      <c r="G31">
+      <c r="E31" t="s">
+        <v>611</v>
+      </c>
+      <c r="F31">
         <v>10362.950000000001</v>
       </c>
       <c r="I31" t="s">
@@ -3043,10 +3044,10 @@
       <c r="D32" t="s">
         <v>198</v>
       </c>
-      <c r="F32" t="s">
-        <v>611</v>
-      </c>
-      <c r="G32">
+      <c r="E32" t="s">
+        <v>611</v>
+      </c>
+      <c r="F32">
         <v>13226</v>
       </c>
       <c r="I32" t="s">
@@ -3066,10 +3067,10 @@
       <c r="D33" t="s">
         <v>615</v>
       </c>
-      <c r="F33" t="s">
-        <v>611</v>
-      </c>
-      <c r="G33">
+      <c r="E33" t="s">
+        <v>611</v>
+      </c>
+      <c r="F33">
         <v>7996.69</v>
       </c>
       <c r="I33" t="s">
@@ -3089,10 +3090,10 @@
       <c r="D34" t="s">
         <v>615</v>
       </c>
-      <c r="F34" t="s">
-        <v>611</v>
-      </c>
-      <c r="G34">
+      <c r="E34" t="s">
+        <v>611</v>
+      </c>
+      <c r="F34">
         <v>139.21</v>
       </c>
       <c r="I34" t="s">
@@ -3112,10 +3113,10 @@
       <c r="D35" t="s">
         <v>615</v>
       </c>
-      <c r="F35" t="s">
-        <v>611</v>
-      </c>
-      <c r="G35">
+      <c r="E35" t="s">
+        <v>611</v>
+      </c>
+      <c r="F35">
         <v>1520.71</v>
       </c>
       <c r="I35" t="s">
@@ -3135,10 +3136,10 @@
       <c r="D36" t="s">
         <v>615</v>
       </c>
-      <c r="F36" t="s">
-        <v>611</v>
-      </c>
-      <c r="G36">
+      <c r="E36" t="s">
+        <v>611</v>
+      </c>
+      <c r="F36">
         <v>1709.37</v>
       </c>
       <c r="I36" t="s">
@@ -3158,10 +3159,10 @@
       <c r="D37" t="s">
         <v>615</v>
       </c>
-      <c r="F37" t="s">
-        <v>611</v>
-      </c>
-      <c r="G37">
+      <c r="E37" t="s">
+        <v>611</v>
+      </c>
+      <c r="F37">
         <v>2665.56</v>
       </c>
       <c r="I37" t="s">
@@ -3181,10 +3182,10 @@
       <c r="D38" t="s">
         <v>55</v>
       </c>
-      <c r="F38" t="s">
-        <v>611</v>
-      </c>
-      <c r="G38">
+      <c r="E38" t="s">
+        <v>611</v>
+      </c>
+      <c r="F38">
         <v>6224.39</v>
       </c>
       <c r="I38" t="s">
@@ -3204,10 +3205,10 @@
       <c r="D39" t="s">
         <v>58</v>
       </c>
-      <c r="F39" t="s">
-        <v>611</v>
-      </c>
-      <c r="G39">
+      <c r="E39" t="s">
+        <v>611</v>
+      </c>
+      <c r="F39">
         <v>3034.2</v>
       </c>
       <c r="I39" t="s">
@@ -3227,10 +3228,10 @@
       <c r="D40" t="s">
         <v>58</v>
       </c>
-      <c r="F40" t="s">
-        <v>611</v>
-      </c>
-      <c r="G40">
+      <c r="E40" t="s">
+        <v>611</v>
+      </c>
+      <c r="F40">
         <v>9804.59</v>
       </c>
       <c r="I40" t="s">
@@ -3250,10 +3251,10 @@
       <c r="D41" t="s">
         <v>58</v>
       </c>
-      <c r="F41" t="s">
-        <v>611</v>
-      </c>
-      <c r="G41">
+      <c r="E41" t="s">
+        <v>611</v>
+      </c>
+      <c r="F41">
         <v>66994.16</v>
       </c>
       <c r="I41" t="s">
@@ -3273,10 +3274,10 @@
       <c r="D42" t="s">
         <v>58</v>
       </c>
-      <c r="F42" t="s">
-        <v>611</v>
-      </c>
-      <c r="G42">
+      <c r="E42" t="s">
+        <v>611</v>
+      </c>
+      <c r="F42">
         <v>25677.58</v>
       </c>
       <c r="I42" t="s">
@@ -3296,10 +3297,10 @@
       <c r="D43" t="s">
         <v>64</v>
       </c>
-      <c r="F43" t="s">
-        <v>611</v>
-      </c>
-      <c r="G43">
+      <c r="E43" t="s">
+        <v>611</v>
+      </c>
+      <c r="F43">
         <v>26145.58</v>
       </c>
       <c r="I43" t="s">
@@ -3319,10 +3320,10 @@
       <c r="D44" t="s">
         <v>67</v>
       </c>
-      <c r="F44" t="s">
-        <v>611</v>
-      </c>
-      <c r="G44">
+      <c r="E44" t="s">
+        <v>611</v>
+      </c>
+      <c r="F44">
         <v>15638.99</v>
       </c>
       <c r="I44" t="s">
@@ -3342,10 +3343,10 @@
       <c r="D45" t="s">
         <v>70</v>
       </c>
-      <c r="F45" t="s">
-        <v>611</v>
-      </c>
-      <c r="G45">
+      <c r="E45" t="s">
+        <v>611</v>
+      </c>
+      <c r="F45">
         <v>13072.79</v>
       </c>
       <c r="I45" t="s">
@@ -3365,10 +3366,10 @@
       <c r="D46" t="s">
         <v>70</v>
       </c>
-      <c r="F46" t="s">
-        <v>611</v>
-      </c>
-      <c r="G46">
+      <c r="E46" t="s">
+        <v>611</v>
+      </c>
+      <c r="F46">
         <v>24585.57</v>
       </c>
       <c r="I46" t="s">
@@ -3388,10 +3389,10 @@
       <c r="D47" t="s">
         <v>74</v>
       </c>
-      <c r="F47" t="s">
-        <v>611</v>
-      </c>
-      <c r="G47">
+      <c r="E47" t="s">
+        <v>611</v>
+      </c>
+      <c r="F47">
         <v>40926.559999999998</v>
       </c>
       <c r="I47" t="s">
@@ -3411,10 +3412,10 @@
       <c r="D48" t="s">
         <v>77</v>
       </c>
-      <c r="F48" t="s">
-        <v>611</v>
-      </c>
-      <c r="G48">
+      <c r="E48" t="s">
+        <v>611</v>
+      </c>
+      <c r="F48">
         <v>9804.59</v>
       </c>
       <c r="I48" t="s">
@@ -3434,10 +3435,10 @@
       <c r="D49" t="s">
         <v>80</v>
       </c>
-      <c r="F49" t="s">
-        <v>611</v>
-      </c>
-      <c r="G49">
+      <c r="E49" t="s">
+        <v>611</v>
+      </c>
+      <c r="F49">
         <v>9102.6</v>
       </c>
       <c r="I49" t="s">
@@ -3457,10 +3458,10 @@
       <c r="D50" t="s">
         <v>83</v>
       </c>
-      <c r="F50" t="s">
-        <v>611</v>
-      </c>
-      <c r="G50">
+      <c r="E50" t="s">
+        <v>611</v>
+      </c>
+      <c r="F50">
         <v>19609.18</v>
       </c>
       <c r="I50" t="s">
@@ -3480,10 +3481,10 @@
       <c r="D51" t="s">
         <v>83</v>
       </c>
-      <c r="F51" t="s">
-        <v>611</v>
-      </c>
-      <c r="G51">
+      <c r="E51" t="s">
+        <v>611</v>
+      </c>
+      <c r="F51">
         <v>14780.98</v>
       </c>
       <c r="I51" t="s">
@@ -3503,10 +3504,10 @@
       <c r="D52" t="s">
         <v>83</v>
       </c>
-      <c r="F52" t="s">
-        <v>611</v>
-      </c>
-      <c r="G52">
+      <c r="E52" t="s">
+        <v>611</v>
+      </c>
+      <c r="F52">
         <v>2956.2</v>
       </c>
       <c r="I52" t="s">
@@ -3526,10 +3527,10 @@
       <c r="D53" t="s">
         <v>88</v>
       </c>
-      <c r="F53" t="s">
-        <v>611</v>
-      </c>
-      <c r="G53">
+      <c r="E53" t="s">
+        <v>611</v>
+      </c>
+      <c r="F53">
         <v>18049.18</v>
       </c>
       <c r="I53" t="s">
@@ -3549,10 +3550,10 @@
       <c r="D54" t="s">
         <v>88</v>
       </c>
-      <c r="F54" t="s">
-        <v>611</v>
-      </c>
-      <c r="G54">
+      <c r="E54" t="s">
+        <v>611</v>
+      </c>
+      <c r="F54">
         <v>8868.59</v>
       </c>
       <c r="I54" t="s">
@@ -3572,10 +3573,10 @@
       <c r="D55" t="s">
         <v>92</v>
       </c>
-      <c r="F55" t="s">
-        <v>611</v>
-      </c>
-      <c r="G55">
+      <c r="E55" t="s">
+        <v>611</v>
+      </c>
+      <c r="F55">
         <v>3268.2</v>
       </c>
       <c r="I55" t="s">
@@ -3595,10 +3596,10 @@
       <c r="D56" t="s">
         <v>92</v>
       </c>
-      <c r="F56" t="s">
-        <v>611</v>
-      </c>
-      <c r="G56">
+      <c r="E56" t="s">
+        <v>611</v>
+      </c>
+      <c r="F56">
         <v>577.20000000000005</v>
       </c>
       <c r="I56" t="s">
@@ -3618,10 +3619,10 @@
       <c r="D57" t="s">
         <v>96</v>
       </c>
-      <c r="F57" t="s">
-        <v>611</v>
-      </c>
-      <c r="G57">
+      <c r="E57" t="s">
+        <v>611</v>
+      </c>
+      <c r="F57">
         <v>55559.35</v>
       </c>
       <c r="I57" t="s">
@@ -3641,10 +3642,10 @@
       <c r="D58" t="s">
         <v>96</v>
       </c>
-      <c r="F58" t="s">
-        <v>611</v>
-      </c>
-      <c r="G58">
+      <c r="E58" t="s">
+        <v>611</v>
+      </c>
+      <c r="F58">
         <v>14780.98</v>
       </c>
       <c r="I58" t="s">
@@ -3664,10 +3665,10 @@
       <c r="D59" t="s">
         <v>100</v>
       </c>
-      <c r="F59" t="s">
-        <v>611</v>
-      </c>
-      <c r="G59">
+      <c r="E59" t="s">
+        <v>611</v>
+      </c>
+      <c r="F59">
         <v>11824.78</v>
       </c>
       <c r="I59" t="s">
@@ -3687,10 +3688,10 @@
       <c r="D60" t="s">
         <v>103</v>
       </c>
-      <c r="F60" t="s">
-        <v>611</v>
-      </c>
-      <c r="G60">
+      <c r="E60" t="s">
+        <v>611</v>
+      </c>
+      <c r="F60">
         <v>16340.99</v>
       </c>
       <c r="I60" t="s">
@@ -3710,10 +3711,10 @@
       <c r="D61" t="s">
         <v>103</v>
       </c>
-      <c r="F61" t="s">
-        <v>611</v>
-      </c>
-      <c r="G61">
+      <c r="E61" t="s">
+        <v>611</v>
+      </c>
+      <c r="F61">
         <v>9804.59</v>
       </c>
       <c r="I61" t="s">
@@ -3733,10 +3734,10 @@
       <c r="D62" t="s">
         <v>103</v>
       </c>
-      <c r="F62" t="s">
-        <v>611</v>
-      </c>
-      <c r="G62">
+      <c r="E62" t="s">
+        <v>611</v>
+      </c>
+      <c r="F62">
         <v>6536.39</v>
       </c>
       <c r="I62" t="s">
@@ -3756,10 +3757,10 @@
       <c r="D63" t="s">
         <v>108</v>
       </c>
-      <c r="F63" t="s">
-        <v>611</v>
-      </c>
-      <c r="G63">
+      <c r="E63" t="s">
+        <v>611</v>
+      </c>
+      <c r="F63">
         <v>2956.2</v>
       </c>
       <c r="I63" t="s">
@@ -3779,10 +3780,10 @@
       <c r="D64" t="s">
         <v>108</v>
       </c>
-      <c r="F64" t="s">
-        <v>611</v>
-      </c>
-      <c r="G64">
+      <c r="E64" t="s">
+        <v>611</v>
+      </c>
+      <c r="F64">
         <v>3783</v>
       </c>
       <c r="I64" t="s">
@@ -3802,10 +3803,10 @@
       <c r="D65" t="s">
         <v>108</v>
       </c>
-      <c r="F65" t="s">
-        <v>611</v>
-      </c>
-      <c r="G65">
+      <c r="E65" t="s">
+        <v>611</v>
+      </c>
+      <c r="F65">
         <v>3817.76</v>
       </c>
       <c r="I65" t="s">
@@ -3825,10 +3826,10 @@
       <c r="D66" t="s">
         <v>113</v>
       </c>
-      <c r="F66" t="s">
-        <v>611</v>
-      </c>
-      <c r="G66">
+      <c r="E66" t="s">
+        <v>611</v>
+      </c>
+      <c r="F66">
         <v>538.20000000000005</v>
       </c>
       <c r="I66" t="s">
@@ -3848,10 +3849,10 @@
       <c r="D67" t="s">
         <v>113</v>
       </c>
-      <c r="F67" t="s">
-        <v>611</v>
-      </c>
-      <c r="G67">
+      <c r="E67" t="s">
+        <v>611</v>
+      </c>
+      <c r="F67">
         <v>9711</v>
       </c>
       <c r="I67" t="s">
@@ -3871,10 +3872,10 @@
       <c r="D68" t="s">
         <v>113</v>
       </c>
-      <c r="F68" t="s">
-        <v>611</v>
-      </c>
-      <c r="G68">
+      <c r="E68" t="s">
+        <v>611</v>
+      </c>
+      <c r="F68">
         <v>32705.38</v>
       </c>
       <c r="I68" t="s">
@@ -3894,10 +3895,10 @@
       <c r="D69" t="s">
         <v>113</v>
       </c>
-      <c r="F69" t="s">
-        <v>611</v>
-      </c>
-      <c r="G69">
+      <c r="E69" t="s">
+        <v>611</v>
+      </c>
+      <c r="F69">
         <v>62244.04</v>
       </c>
       <c r="I69" t="s">
@@ -3917,10 +3918,10 @@
       <c r="D70" t="s">
         <v>113</v>
       </c>
-      <c r="F70" t="s">
-        <v>611</v>
-      </c>
-      <c r="G70">
+      <c r="E70" t="s">
+        <v>611</v>
+      </c>
+      <c r="F70">
         <v>8580</v>
       </c>
       <c r="I70" t="s">
@@ -3940,10 +3941,10 @@
       <c r="D71" t="s">
         <v>120</v>
       </c>
-      <c r="F71" t="s">
-        <v>611</v>
-      </c>
-      <c r="G71">
+      <c r="E71" t="s">
+        <v>611</v>
+      </c>
+      <c r="F71">
         <v>3034.2</v>
       </c>
       <c r="I71" t="s">
@@ -3963,10 +3964,10 @@
       <c r="D72" t="s">
         <v>123</v>
       </c>
-      <c r="F72" t="s">
-        <v>611</v>
-      </c>
-      <c r="G72">
+      <c r="E72" t="s">
+        <v>611</v>
+      </c>
+      <c r="F72">
         <v>11824.78</v>
       </c>
       <c r="I72" t="s">
@@ -3986,10 +3987,10 @@
       <c r="D73" t="s">
         <v>123</v>
       </c>
-      <c r="F73" t="s">
-        <v>611</v>
-      </c>
-      <c r="G73">
+      <c r="E73" t="s">
+        <v>611</v>
+      </c>
+      <c r="F73">
         <v>39218.370000000003</v>
       </c>
       <c r="I73" t="s">
@@ -4009,10 +4010,10 @@
       <c r="D74" t="s">
         <v>127</v>
       </c>
-      <c r="F74" t="s">
-        <v>611</v>
-      </c>
-      <c r="G74">
+      <c r="E74" t="s">
+        <v>611</v>
+      </c>
+      <c r="F74">
         <v>3268.2</v>
       </c>
       <c r="I74" t="s">
@@ -4032,10 +4033,10 @@
       <c r="D75" t="s">
         <v>127</v>
       </c>
-      <c r="F75" t="s">
-        <v>611</v>
-      </c>
-      <c r="G75">
+      <c r="E75" t="s">
+        <v>611</v>
+      </c>
+      <c r="F75">
         <v>2956.2</v>
       </c>
       <c r="I75" t="s">
@@ -4055,10 +4056,10 @@
       <c r="D76" t="s">
         <v>131</v>
       </c>
-      <c r="F76" t="s">
-        <v>611</v>
-      </c>
-      <c r="G76">
+      <c r="E76" t="s">
+        <v>611</v>
+      </c>
+      <c r="F76">
         <v>2956.2</v>
       </c>
       <c r="I76" t="s">
@@ -4078,10 +4079,10 @@
       <c r="D77" t="s">
         <v>134</v>
       </c>
-      <c r="F77" t="s">
-        <v>611</v>
-      </c>
-      <c r="G77">
+      <c r="E77" t="s">
+        <v>611</v>
+      </c>
+      <c r="F77">
         <v>2956.2</v>
       </c>
       <c r="I77" t="s">
@@ -4101,10 +4102,10 @@
       <c r="D78" t="s">
         <v>137</v>
       </c>
-      <c r="F78" t="s">
-        <v>611</v>
-      </c>
-      <c r="G78">
+      <c r="E78" t="s">
+        <v>611</v>
+      </c>
+      <c r="F78">
         <v>18205.189999999999</v>
       </c>
       <c r="I78" t="s">
@@ -4124,10 +4125,10 @@
       <c r="D79" t="s">
         <v>140</v>
       </c>
-      <c r="F79" t="s">
-        <v>611</v>
-      </c>
-      <c r="G79">
+      <c r="E79" t="s">
+        <v>611</v>
+      </c>
+      <c r="F79">
         <v>14780.98</v>
       </c>
       <c r="I79" t="s">
@@ -4147,10 +4148,10 @@
       <c r="D80" t="s">
         <v>140</v>
       </c>
-      <c r="F80" t="s">
-        <v>611</v>
-      </c>
-      <c r="G80">
+      <c r="E80" t="s">
+        <v>611</v>
+      </c>
+      <c r="F80">
         <v>6536.39</v>
       </c>
       <c r="I80" t="s">
@@ -4170,10 +4171,10 @@
       <c r="D81" t="s">
         <v>140</v>
       </c>
-      <c r="F81" t="s">
-        <v>611</v>
-      </c>
-      <c r="G81">
+      <c r="E81" t="s">
+        <v>611</v>
+      </c>
+      <c r="F81">
         <v>11824.78</v>
       </c>
       <c r="I81" t="s">
@@ -4193,10 +4194,10 @@
       <c r="D82" t="s">
         <v>140</v>
       </c>
-      <c r="F82" t="s">
-        <v>611</v>
-      </c>
-      <c r="G82">
+      <c r="E82" t="s">
+        <v>611</v>
+      </c>
+      <c r="F82">
         <v>5912.39</v>
       </c>
       <c r="I82" t="s">
@@ -4216,10 +4217,10 @@
       <c r="D83" t="s">
         <v>145</v>
       </c>
-      <c r="F83" t="s">
-        <v>611</v>
-      </c>
-      <c r="G83">
+      <c r="E83" t="s">
+        <v>611</v>
+      </c>
+      <c r="F83">
         <v>16340.99</v>
       </c>
       <c r="I83" t="s">
@@ -4239,10 +4240,10 @@
       <c r="D84" t="s">
         <v>148</v>
       </c>
-      <c r="F84" t="s">
-        <v>611</v>
-      </c>
-      <c r="G84">
+      <c r="E84" t="s">
+        <v>611</v>
+      </c>
+      <c r="F84">
         <v>41238.559999999998</v>
       </c>
       <c r="I84" t="s">
@@ -4262,10 +4263,10 @@
       <c r="D85" t="s">
         <v>150</v>
       </c>
-      <c r="F85" t="s">
-        <v>611</v>
-      </c>
-      <c r="G85">
+      <c r="E85" t="s">
+        <v>611</v>
+      </c>
+      <c r="F85">
         <v>12448.79</v>
       </c>
       <c r="I85" t="s">
@@ -4285,10 +4286,10 @@
       <c r="D86" t="s">
         <v>153</v>
       </c>
-      <c r="F86" t="s">
-        <v>611</v>
-      </c>
-      <c r="G86">
+      <c r="E86" t="s">
+        <v>611</v>
+      </c>
+      <c r="F86">
         <v>11824.78</v>
       </c>
       <c r="I86" t="s">
@@ -4308,10 +4309,10 @@
       <c r="D87" t="s">
         <v>153</v>
       </c>
-      <c r="F87" t="s">
-        <v>611</v>
-      </c>
-      <c r="G87">
+      <c r="E87" t="s">
+        <v>611</v>
+      </c>
+      <c r="F87">
         <v>29413.78</v>
       </c>
       <c r="I87" t="s">
@@ -4331,10 +4332,10 @@
       <c r="D88" t="s">
         <v>157</v>
       </c>
-      <c r="F88" t="s">
-        <v>611</v>
-      </c>
-      <c r="G88">
+      <c r="E88" t="s">
+        <v>611</v>
+      </c>
+      <c r="F88">
         <v>34390.160000000003</v>
       </c>
       <c r="I88" t="s">
@@ -4354,10 +4355,10 @@
       <c r="D89" t="s">
         <v>157</v>
       </c>
-      <c r="F89" t="s">
-        <v>611</v>
-      </c>
-      <c r="G89">
+      <c r="E89" t="s">
+        <v>611</v>
+      </c>
+      <c r="F89">
         <v>14780.98</v>
       </c>
       <c r="I89" t="s">
@@ -4377,10 +4378,10 @@
       <c r="D90" t="s">
         <v>161</v>
       </c>
-      <c r="F90" t="s">
-        <v>611</v>
-      </c>
-      <c r="G90">
+      <c r="E90" t="s">
+        <v>611</v>
+      </c>
+      <c r="F90">
         <v>19609.18</v>
       </c>
       <c r="I90" t="s">
@@ -4400,10 +4401,10 @@
       <c r="D91" t="s">
         <v>164</v>
       </c>
-      <c r="F91" t="s">
-        <v>611</v>
-      </c>
-      <c r="G91">
+      <c r="E91" t="s">
+        <v>611</v>
+      </c>
+      <c r="F91">
         <v>59287.74</v>
       </c>
       <c r="I91" t="s">
@@ -4423,10 +4424,10 @@
       <c r="D92" t="s">
         <v>167</v>
       </c>
-      <c r="F92" t="s">
-        <v>611</v>
-      </c>
-      <c r="G92">
+      <c r="E92" t="s">
+        <v>611</v>
+      </c>
+      <c r="F92">
         <v>17737.18</v>
       </c>
       <c r="I92" t="s">
@@ -4446,10 +4447,10 @@
       <c r="D93" t="s">
         <v>170</v>
       </c>
-      <c r="F93" t="s">
-        <v>611</v>
-      </c>
-      <c r="G93">
+      <c r="E93" t="s">
+        <v>611</v>
+      </c>
+      <c r="F93">
         <v>2956.2</v>
       </c>
       <c r="I93" t="s">
@@ -4469,10 +4470,10 @@
       <c r="D94" t="s">
         <v>172</v>
       </c>
-      <c r="F94" t="s">
-        <v>611</v>
-      </c>
-      <c r="G94">
+      <c r="E94" t="s">
+        <v>611</v>
+      </c>
+      <c r="F94">
         <v>13072.79</v>
       </c>
       <c r="I94" t="s">
@@ -4492,10 +4493,10 @@
       <c r="D95" t="s">
         <v>175</v>
       </c>
-      <c r="F95" t="s">
-        <v>611</v>
-      </c>
-      <c r="G95">
+      <c r="E95" t="s">
+        <v>611</v>
+      </c>
+      <c r="F95">
         <v>16340.99</v>
       </c>
       <c r="I95" t="s">
@@ -4515,10 +4516,10 @@
       <c r="D96" t="s">
         <v>177</v>
       </c>
-      <c r="F96" t="s">
-        <v>611</v>
-      </c>
-      <c r="G96">
+      <c r="E96" t="s">
+        <v>611</v>
+      </c>
+      <c r="F96">
         <v>14780.98</v>
       </c>
       <c r="I96" t="s">
@@ -4538,10 +4539,10 @@
       <c r="D97" t="s">
         <v>180</v>
       </c>
-      <c r="F97" t="s">
-        <v>611</v>
-      </c>
-      <c r="G97">
+      <c r="E97" t="s">
+        <v>611</v>
+      </c>
+      <c r="F97">
         <v>18985.18</v>
       </c>
       <c r="I97" t="s">
@@ -4561,10 +4562,10 @@
       <c r="D98" t="s">
         <v>182</v>
       </c>
-      <c r="F98" t="s">
-        <v>611</v>
-      </c>
-      <c r="G98">
+      <c r="E98" t="s">
+        <v>611</v>
+      </c>
+      <c r="F98">
         <v>2956.2</v>
       </c>
       <c r="I98" t="s">
@@ -4584,10 +4585,10 @@
       <c r="D99" t="s">
         <v>185</v>
       </c>
-      <c r="F99" t="s">
-        <v>611</v>
-      </c>
-      <c r="G99">
+      <c r="E99" t="s">
+        <v>611</v>
+      </c>
+      <c r="F99">
         <v>13072.79</v>
       </c>
       <c r="I99" t="s">
@@ -4607,10 +4608,10 @@
       <c r="D100" t="s">
         <v>187</v>
       </c>
-      <c r="F100" t="s">
-        <v>611</v>
-      </c>
-      <c r="G100">
+      <c r="E100" t="s">
+        <v>611</v>
+      </c>
+      <c r="F100">
         <v>9804.59</v>
       </c>
       <c r="I100" t="s">
@@ -4630,10 +4631,10 @@
       <c r="D101" t="s">
         <v>187</v>
       </c>
-      <c r="F101" t="s">
-        <v>611</v>
-      </c>
-      <c r="G101">
+      <c r="E101" t="s">
+        <v>611</v>
+      </c>
+      <c r="F101">
         <v>11824.78</v>
       </c>
       <c r="I101" t="s">
@@ -4653,10 +4654,10 @@
       <c r="D102" t="s">
         <v>190</v>
       </c>
-      <c r="F102" t="s">
-        <v>611</v>
-      </c>
-      <c r="G102">
+      <c r="E102" t="s">
+        <v>611</v>
+      </c>
+      <c r="F102">
         <v>16340.99</v>
       </c>
       <c r="I102" t="s">
@@ -4676,10 +4677,10 @@
       <c r="D103" t="s">
         <v>192</v>
       </c>
-      <c r="F103" t="s">
-        <v>611</v>
-      </c>
-      <c r="G103">
+      <c r="E103" t="s">
+        <v>611</v>
+      </c>
+      <c r="F103">
         <v>8868.59</v>
       </c>
       <c r="I103" t="s">
@@ -4699,10 +4700,10 @@
       <c r="D104" t="s">
         <v>192</v>
       </c>
-      <c r="F104" t="s">
-        <v>611</v>
-      </c>
-      <c r="G104">
+      <c r="E104" t="s">
+        <v>611</v>
+      </c>
+      <c r="F104">
         <v>4056</v>
       </c>
       <c r="I104" t="s">
@@ -4722,10 +4723,10 @@
       <c r="D105" t="s">
         <v>192</v>
       </c>
-      <c r="F105" t="s">
-        <v>611</v>
-      </c>
-      <c r="G105">
+      <c r="E105" t="s">
+        <v>611</v>
+      </c>
+      <c r="F105">
         <v>3608</v>
       </c>
       <c r="I105" t="s">
@@ -4745,10 +4746,10 @@
       <c r="D106" t="s">
         <v>192</v>
       </c>
-      <c r="F106" t="s">
-        <v>611</v>
-      </c>
-      <c r="G106">
+      <c r="E106" t="s">
+        <v>611</v>
+      </c>
+      <c r="F106">
         <v>4056</v>
       </c>
       <c r="I106" t="s">
@@ -4768,10 +4769,10 @@
       <c r="D107" t="s">
         <v>192</v>
       </c>
-      <c r="F107" t="s">
-        <v>611</v>
-      </c>
-      <c r="G107">
+      <c r="E107" t="s">
+        <v>611</v>
+      </c>
+      <c r="F107">
         <v>3783</v>
       </c>
       <c r="I107" t="s">
@@ -4791,10 +4792,10 @@
       <c r="D108" t="s">
         <v>198</v>
       </c>
-      <c r="F108" t="s">
-        <v>611</v>
-      </c>
-      <c r="G108">
+      <c r="E108" t="s">
+        <v>611</v>
+      </c>
+      <c r="F108">
         <v>1257.92</v>
       </c>
       <c r="I108" t="s">
@@ -4814,10 +4815,10 @@
       <c r="D109" t="s">
         <v>200</v>
       </c>
-      <c r="F109" t="s">
-        <v>611</v>
-      </c>
-      <c r="G109">
+      <c r="E109" t="s">
+        <v>611</v>
+      </c>
+      <c r="F109">
         <v>3034.2</v>
       </c>
       <c r="I109" t="s">
@@ -4837,10 +4838,10 @@
       <c r="D110" t="s">
         <v>200</v>
       </c>
-      <c r="F110" t="s">
-        <v>611</v>
-      </c>
-      <c r="G110">
+      <c r="E110" t="s">
+        <v>611</v>
+      </c>
+      <c r="F110">
         <v>27307.79</v>
       </c>
       <c r="I110" t="s">
@@ -4860,10 +4861,10 @@
       <c r="D111" t="s">
         <v>203</v>
       </c>
-      <c r="F111" t="s">
-        <v>611</v>
-      </c>
-      <c r="G111">
+      <c r="E111" t="s">
+        <v>611</v>
+      </c>
+      <c r="F111">
         <v>16340.99</v>
       </c>
       <c r="I111" t="s">
@@ -4883,10 +4884,10 @@
       <c r="D112" t="s">
         <v>203</v>
       </c>
-      <c r="F112" t="s">
-        <v>611</v>
-      </c>
-      <c r="G112">
+      <c r="E112" t="s">
+        <v>611</v>
+      </c>
+      <c r="F112">
         <v>3268.2</v>
       </c>
       <c r="I112" t="s">
@@ -4906,10 +4907,10 @@
       <c r="D113" t="s">
         <v>206</v>
       </c>
-      <c r="F113" t="s">
-        <v>611</v>
-      </c>
-      <c r="G113">
+      <c r="E113" t="s">
+        <v>611</v>
+      </c>
+      <c r="F113">
         <v>17496.009999999998</v>
       </c>
       <c r="I113" t="s">
@@ -4929,10 +4930,10 @@
       <c r="D114" t="s">
         <v>209</v>
       </c>
-      <c r="F114" t="s">
-        <v>611</v>
-      </c>
-      <c r="G114">
+      <c r="E114" t="s">
+        <v>611</v>
+      </c>
+      <c r="F114">
         <v>9458.2800000000007</v>
       </c>
       <c r="I114" t="s">
@@ -4952,10 +4953,10 @@
       <c r="D115" t="s">
         <v>209</v>
       </c>
-      <c r="F115" t="s">
-        <v>611</v>
-      </c>
-      <c r="G115">
+      <c r="E115" t="s">
+        <v>611</v>
+      </c>
+      <c r="F115">
         <v>4126.2</v>
       </c>
       <c r="I115" t="s">
@@ -4975,10 +4976,10 @@
       <c r="D116" t="s">
         <v>209</v>
       </c>
-      <c r="F116" t="s">
-        <v>611</v>
-      </c>
-      <c r="G116">
+      <c r="E116" t="s">
+        <v>611</v>
+      </c>
+      <c r="F116">
         <v>4126.2</v>
       </c>
       <c r="I116" t="s">
@@ -4998,10 +4999,10 @@
       <c r="D117" t="s">
         <v>214</v>
       </c>
-      <c r="F117" t="s">
-        <v>611</v>
-      </c>
-      <c r="G117">
+      <c r="E117" t="s">
+        <v>611</v>
+      </c>
+      <c r="F117">
         <v>14780.98</v>
       </c>
       <c r="I117" t="s">
@@ -5021,10 +5022,10 @@
       <c r="D118" t="s">
         <v>214</v>
       </c>
-      <c r="F118" t="s">
-        <v>611</v>
-      </c>
-      <c r="G118">
+      <c r="E118" t="s">
+        <v>611</v>
+      </c>
+      <c r="F118">
         <v>8868.59</v>
       </c>
       <c r="I118" t="s">
@@ -5044,10 +5045,10 @@
       <c r="D119" t="s">
         <v>218</v>
       </c>
-      <c r="F119" t="s">
-        <v>611</v>
-      </c>
-      <c r="G119">
+      <c r="E119" t="s">
+        <v>611</v>
+      </c>
+      <c r="F119">
         <v>14780.98</v>
       </c>
       <c r="I119" t="s">
@@ -5067,10 +5068,10 @@
       <c r="D120" t="s">
         <v>220</v>
       </c>
-      <c r="F120" t="s">
-        <v>611</v>
-      </c>
-      <c r="G120">
+      <c r="E120" t="s">
+        <v>611</v>
+      </c>
+      <c r="F120">
         <v>8868.59</v>
       </c>
       <c r="I120" t="s">
@@ -5090,10 +5091,10 @@
       <c r="D121" t="s">
         <v>222</v>
       </c>
-      <c r="F121" t="s">
-        <v>611</v>
-      </c>
-      <c r="G121">
+      <c r="E121" t="s">
+        <v>611</v>
+      </c>
+      <c r="F121">
         <v>576.73</v>
       </c>
       <c r="I121" t="s">
@@ -5113,10 +5114,10 @@
       <c r="D122" t="s">
         <v>224</v>
       </c>
-      <c r="F122" t="s">
-        <v>611</v>
-      </c>
-      <c r="G122">
+      <c r="E122" t="s">
+        <v>611</v>
+      </c>
+      <c r="F122">
         <v>9664.51</v>
       </c>
       <c r="I122" t="s">
@@ -5136,10 +5137,10 @@
       <c r="D123" t="s">
         <v>616</v>
       </c>
-      <c r="F123" t="s">
-        <v>611</v>
-      </c>
-      <c r="G123">
+      <c r="E123" t="s">
+        <v>611</v>
+      </c>
+      <c r="F123">
         <v>644.48</v>
       </c>
       <c r="I123" t="s">
@@ -5159,10 +5160,10 @@
       <c r="D124" t="s">
         <v>616</v>
       </c>
-      <c r="F124" t="s">
-        <v>611</v>
-      </c>
-      <c r="G124">
+      <c r="E124" t="s">
+        <v>611</v>
+      </c>
+      <c r="F124">
         <v>926.35</v>
       </c>
       <c r="I124" t="s">
@@ -5182,10 +5183,10 @@
       <c r="D125" t="s">
         <v>616</v>
       </c>
-      <c r="F125" t="s">
-        <v>611</v>
-      </c>
-      <c r="G125">
+      <c r="E125" t="s">
+        <v>611</v>
+      </c>
+      <c r="F125">
         <v>1772.32</v>
       </c>
       <c r="I125" t="s">
@@ -5205,10 +5206,10 @@
       <c r="D126" t="s">
         <v>617</v>
       </c>
-      <c r="F126" t="s">
-        <v>611</v>
-      </c>
-      <c r="G126">
+      <c r="E126" t="s">
+        <v>611</v>
+      </c>
+      <c r="F126">
         <v>812.13</v>
       </c>
       <c r="I126" t="s">
@@ -5228,10 +5229,10 @@
       <c r="D127" t="s">
         <v>618</v>
       </c>
-      <c r="F127" t="s">
-        <v>611</v>
-      </c>
-      <c r="G127">
+      <c r="E127" t="s">
+        <v>611</v>
+      </c>
+      <c r="F127">
         <v>2215.0500000000002</v>
       </c>
       <c r="I127" t="s">
@@ -5251,10 +5252,10 @@
       <c r="D128" t="s">
         <v>619</v>
       </c>
-      <c r="F128" t="s">
-        <v>611</v>
-      </c>
-      <c r="G128">
+      <c r="E128" t="s">
+        <v>611</v>
+      </c>
+      <c r="F128">
         <v>3151.53</v>
       </c>
       <c r="I128" t="s">
@@ -5274,10 +5275,10 @@
       <c r="D129" t="s">
         <v>229</v>
       </c>
-      <c r="F129" t="s">
-        <v>611</v>
-      </c>
-      <c r="G129">
+      <c r="E129" t="s">
+        <v>611</v>
+      </c>
+      <c r="F129">
         <v>16975.04</v>
       </c>
       <c r="I129" t="s">
@@ -5297,10 +5298,10 @@
       <c r="D130" t="s">
         <v>232</v>
       </c>
-      <c r="F130" t="s">
-        <v>611</v>
-      </c>
-      <c r="G130">
+      <c r="E130" t="s">
+        <v>611</v>
+      </c>
+      <c r="F130">
         <v>3173.62</v>
       </c>
       <c r="I130" t="s">
@@ -5320,10 +5321,10 @@
       <c r="D131" t="s">
         <v>235</v>
       </c>
-      <c r="F131" t="s">
-        <v>611</v>
-      </c>
-      <c r="G131">
+      <c r="E131" t="s">
+        <v>611</v>
+      </c>
+      <c r="F131">
         <v>11941.2</v>
       </c>
       <c r="I131" t="s">
@@ -5343,10 +5344,10 @@
       <c r="D132" t="s">
         <v>238</v>
       </c>
-      <c r="F132" t="s">
-        <v>611</v>
-      </c>
-      <c r="G132">
+      <c r="E132" t="s">
+        <v>611</v>
+      </c>
+      <c r="F132">
         <v>197.29</v>
       </c>
       <c r="I132" t="s">
@@ -5366,10 +5367,10 @@
       <c r="D133" t="s">
         <v>241</v>
       </c>
-      <c r="F133" t="s">
-        <v>611</v>
-      </c>
-      <c r="G133">
+      <c r="E133" t="s">
+        <v>611</v>
+      </c>
+      <c r="F133">
         <v>1706.65</v>
       </c>
       <c r="I133" t="s">
@@ -5389,10 +5390,10 @@
       <c r="D134" t="s">
         <v>244</v>
       </c>
-      <c r="F134" t="s">
-        <v>611</v>
-      </c>
-      <c r="G134">
+      <c r="E134" t="s">
+        <v>611</v>
+      </c>
+      <c r="F134">
         <v>5788.7</v>
       </c>
       <c r="I134" t="s">
@@ -5412,10 +5413,10 @@
       <c r="D135" t="s">
         <v>247</v>
       </c>
-      <c r="F135" t="s">
-        <v>611</v>
-      </c>
-      <c r="G135">
+      <c r="E135" t="s">
+        <v>611</v>
+      </c>
+      <c r="F135">
         <v>11714.96</v>
       </c>
       <c r="I135" t="s">
@@ -5435,10 +5436,10 @@
       <c r="D136" t="s">
         <v>250</v>
       </c>
-      <c r="F136" t="s">
-        <v>611</v>
-      </c>
-      <c r="G136">
+      <c r="E136" t="s">
+        <v>611</v>
+      </c>
+      <c r="F136">
         <v>963</v>
       </c>
       <c r="I136" t="s">
@@ -5458,10 +5459,10 @@
       <c r="D137" t="s">
         <v>620</v>
       </c>
-      <c r="F137" t="s">
-        <v>611</v>
-      </c>
-      <c r="G137">
+      <c r="E137" t="s">
+        <v>611</v>
+      </c>
+      <c r="F137">
         <v>48.96</v>
       </c>
       <c r="I137" t="s">
@@ -5481,10 +5482,10 @@
       <c r="D138" t="s">
         <v>620</v>
       </c>
-      <c r="F138" t="s">
-        <v>611</v>
-      </c>
-      <c r="G138">
+      <c r="E138" t="s">
+        <v>611</v>
+      </c>
+      <c r="F138">
         <v>5262.7</v>
       </c>
       <c r="I138" t="s">
@@ -5504,10 +5505,10 @@
       <c r="D139" t="s">
         <v>620</v>
       </c>
-      <c r="F139" t="s">
-        <v>611</v>
-      </c>
-      <c r="G139">
+      <c r="E139" t="s">
+        <v>611</v>
+      </c>
+      <c r="F139">
         <v>5847.44</v>
       </c>
       <c r="I139" t="s">
@@ -5527,10 +5528,10 @@
       <c r="D140" t="s">
         <v>620</v>
       </c>
-      <c r="F140" t="s">
-        <v>611</v>
-      </c>
-      <c r="G140">
+      <c r="E140" t="s">
+        <v>611</v>
+      </c>
+      <c r="F140">
         <v>4661.03</v>
       </c>
       <c r="I140" t="s">
@@ -5550,10 +5551,10 @@
       <c r="D141" t="s">
         <v>620</v>
       </c>
-      <c r="F141" t="s">
-        <v>611</v>
-      </c>
-      <c r="G141">
+      <c r="E141" t="s">
+        <v>611</v>
+      </c>
+      <c r="F141">
         <v>10932.2</v>
       </c>
       <c r="I141" t="s">
@@ -5573,10 +5574,10 @@
       <c r="D142" t="s">
         <v>620</v>
       </c>
-      <c r="F142" t="s">
-        <v>611</v>
-      </c>
-      <c r="G142">
+      <c r="E142" t="s">
+        <v>611</v>
+      </c>
+      <c r="F142">
         <v>50423.75</v>
       </c>
       <c r="I142" t="s">
@@ -5596,10 +5597,10 @@
       <c r="D143" t="s">
         <v>620</v>
       </c>
-      <c r="F143" t="s">
-        <v>611</v>
-      </c>
-      <c r="G143">
+      <c r="E143" t="s">
+        <v>611</v>
+      </c>
+      <c r="F143">
         <v>38084.720000000001</v>
       </c>
       <c r="I143" t="s">
@@ -5619,10 +5620,10 @@
       <c r="D144" t="s">
         <v>620</v>
       </c>
-      <c r="F144" t="s">
-        <v>611</v>
-      </c>
-      <c r="G144">
+      <c r="E144" t="s">
+        <v>611</v>
+      </c>
+      <c r="F144">
         <v>13542.37</v>
       </c>
       <c r="I144" t="s">
@@ -5642,10 +5643,10 @@
       <c r="D145" t="s">
         <v>620</v>
       </c>
-      <c r="F145" t="s">
-        <v>611</v>
-      </c>
-      <c r="G145">
+      <c r="E145" t="s">
+        <v>611</v>
+      </c>
+      <c r="F145">
         <v>20296.62</v>
       </c>
       <c r="I145" t="s">
@@ -5665,10 +5666,10 @@
       <c r="D146" t="s">
         <v>509</v>
       </c>
-      <c r="F146" t="s">
-        <v>611</v>
-      </c>
-      <c r="G146">
+      <c r="E146" t="s">
+        <v>611</v>
+      </c>
+      <c r="F146">
         <v>7824.21</v>
       </c>
       <c r="I146" t="s">
@@ -5688,10 +5689,10 @@
       <c r="D147" t="s">
         <v>262</v>
       </c>
-      <c r="F147" t="s">
-        <v>611</v>
-      </c>
-      <c r="G147">
+      <c r="E147" t="s">
+        <v>611</v>
+      </c>
+      <c r="F147">
         <v>25933.38</v>
       </c>
       <c r="I147" t="s">
@@ -5711,10 +5712,10 @@
       <c r="D148" t="s">
         <v>265</v>
       </c>
-      <c r="F148" t="s">
-        <v>611</v>
-      </c>
-      <c r="G148">
+      <c r="E148" t="s">
+        <v>611</v>
+      </c>
+      <c r="F148">
         <v>21400</v>
       </c>
       <c r="I148" t="s">
@@ -5734,10 +5735,10 @@
       <c r="D149" t="s">
         <v>268</v>
       </c>
-      <c r="F149" t="s">
-        <v>611</v>
-      </c>
-      <c r="G149">
+      <c r="E149" t="s">
+        <v>611</v>
+      </c>
+      <c r="F149">
         <v>344.2</v>
       </c>
       <c r="I149" t="s">
@@ -5757,10 +5758,10 @@
       <c r="D150" t="s">
         <v>621</v>
       </c>
-      <c r="F150" t="s">
-        <v>611</v>
-      </c>
-      <c r="G150">
+      <c r="E150" t="s">
+        <v>611</v>
+      </c>
+      <c r="F150">
         <v>4146.38</v>
       </c>
       <c r="I150" t="s">
@@ -5780,10 +5781,10 @@
       <c r="D151" t="s">
         <v>621</v>
       </c>
-      <c r="F151" t="s">
-        <v>611</v>
-      </c>
-      <c r="G151">
+      <c r="E151" t="s">
+        <v>611</v>
+      </c>
+      <c r="F151">
         <v>2037</v>
       </c>
       <c r="I151" t="s">
@@ -5803,10 +5804,10 @@
       <c r="D152" t="s">
         <v>476</v>
       </c>
-      <c r="F152" t="s">
-        <v>611</v>
-      </c>
-      <c r="G152">
+      <c r="E152" t="s">
+        <v>611</v>
+      </c>
+      <c r="F152">
         <v>2859.56</v>
       </c>
       <c r="I152" t="s">
@@ -5826,10 +5827,10 @@
       <c r="D153" t="s">
         <v>271</v>
       </c>
-      <c r="F153" t="s">
-        <v>611</v>
-      </c>
-      <c r="G153">
+      <c r="E153" t="s">
+        <v>611</v>
+      </c>
+      <c r="F153">
         <v>340.45</v>
       </c>
       <c r="I153" t="s">
@@ -5849,10 +5850,10 @@
       <c r="D154" t="s">
         <v>271</v>
       </c>
-      <c r="F154" t="s">
-        <v>611</v>
-      </c>
-      <c r="G154">
+      <c r="E154" t="s">
+        <v>611</v>
+      </c>
+      <c r="F154">
         <v>343.5</v>
       </c>
       <c r="I154" t="s">
@@ -5872,10 +5873,10 @@
       <c r="D155" t="s">
         <v>274</v>
       </c>
-      <c r="F155" t="s">
-        <v>611</v>
-      </c>
-      <c r="G155">
+      <c r="E155" t="s">
+        <v>611</v>
+      </c>
+      <c r="F155">
         <v>1498</v>
       </c>
       <c r="I155" t="s">
@@ -5895,10 +5896,10 @@
       <c r="D156" t="s">
         <v>277</v>
       </c>
-      <c r="F156" t="s">
-        <v>611</v>
-      </c>
-      <c r="G156">
+      <c r="E156" t="s">
+        <v>611</v>
+      </c>
+      <c r="F156">
         <v>1364.98</v>
       </c>
       <c r="I156" t="s">
@@ -5918,10 +5919,10 @@
       <c r="D157" t="s">
         <v>280</v>
       </c>
-      <c r="F157" t="s">
-        <v>611</v>
-      </c>
-      <c r="G157">
+      <c r="E157" t="s">
+        <v>611</v>
+      </c>
+      <c r="F157">
         <v>2721.74</v>
       </c>
       <c r="I157" t="s">
@@ -5941,10 +5942,10 @@
       <c r="D158" t="s">
         <v>283</v>
       </c>
-      <c r="F158" t="s">
-        <v>611</v>
-      </c>
-      <c r="G158">
+      <c r="E158" t="s">
+        <v>611</v>
+      </c>
+      <c r="F158">
         <v>107</v>
       </c>
       <c r="I158" t="s">
@@ -5964,10 +5965,10 @@
       <c r="D159" t="s">
         <v>516</v>
       </c>
-      <c r="F159" t="s">
-        <v>611</v>
-      </c>
-      <c r="G159">
+      <c r="E159" t="s">
+        <v>611</v>
+      </c>
+      <c r="F159">
         <v>50.58</v>
       </c>
       <c r="I159" t="s">
@@ -5987,10 +5988,10 @@
       <c r="D160" t="s">
         <v>516</v>
       </c>
-      <c r="F160" t="s">
-        <v>611</v>
-      </c>
-      <c r="G160">
+      <c r="E160" t="s">
+        <v>611</v>
+      </c>
+      <c r="F160">
         <v>5322.33</v>
       </c>
       <c r="I160" t="s">
@@ -6010,10 +6011,10 @@
       <c r="D161" t="s">
         <v>520</v>
       </c>
-      <c r="F161" t="s">
-        <v>611</v>
-      </c>
-      <c r="G161">
+      <c r="E161" t="s">
+        <v>611</v>
+      </c>
+      <c r="F161">
         <v>75.599999999999994</v>
       </c>
       <c r="I161" t="s">
@@ -6033,10 +6034,10 @@
       <c r="D162" t="s">
         <v>286</v>
       </c>
-      <c r="F162" t="s">
-        <v>611</v>
-      </c>
-      <c r="G162">
+      <c r="E162" t="s">
+        <v>611</v>
+      </c>
+      <c r="F162">
         <v>67.650000000000006</v>
       </c>
       <c r="I162" t="s">
@@ -6056,10 +6057,10 @@
       <c r="D163" t="s">
         <v>622</v>
       </c>
-      <c r="F163" t="s">
-        <v>611</v>
-      </c>
-      <c r="G163">
+      <c r="E163" t="s">
+        <v>611</v>
+      </c>
+      <c r="F163">
         <v>2621.5</v>
       </c>
       <c r="I163" t="s">
@@ -6079,10 +6080,10 @@
       <c r="D164" t="s">
         <v>623</v>
       </c>
-      <c r="F164" t="s">
-        <v>611</v>
-      </c>
-      <c r="G164">
+      <c r="E164" t="s">
+        <v>611</v>
+      </c>
+      <c r="F164">
         <v>9630</v>
       </c>
       <c r="I164" t="s">
@@ -6102,10 +6103,10 @@
       <c r="D165" t="s">
         <v>293</v>
       </c>
-      <c r="F165" t="s">
-        <v>611</v>
-      </c>
-      <c r="G165">
+      <c r="E165" t="s">
+        <v>611</v>
+      </c>
+      <c r="F165">
         <v>1690.6</v>
       </c>
       <c r="I165" t="s">
@@ -6125,10 +6126,10 @@
       <c r="D166" t="s">
         <v>624</v>
       </c>
-      <c r="F166" t="s">
-        <v>611</v>
-      </c>
-      <c r="G166">
+      <c r="E166" t="s">
+        <v>611</v>
+      </c>
+      <c r="F166">
         <v>150.33000000000001</v>
       </c>
       <c r="I166" t="s">
@@ -6148,10 +6149,10 @@
       <c r="D167" t="s">
         <v>296</v>
       </c>
-      <c r="F167" t="s">
-        <v>611</v>
-      </c>
-      <c r="G167">
+      <c r="E167" t="s">
+        <v>611</v>
+      </c>
+      <c r="F167">
         <v>2520</v>
       </c>
       <c r="I167" t="s">
@@ -6171,10 +6172,10 @@
       <c r="D168" t="s">
         <v>299</v>
       </c>
-      <c r="F168" t="s">
-        <v>611</v>
-      </c>
-      <c r="G168">
+      <c r="E168" t="s">
+        <v>611</v>
+      </c>
+      <c r="F168">
         <v>1318.74</v>
       </c>
       <c r="I168" t="s">
@@ -6194,10 +6195,10 @@
       <c r="D169" t="s">
         <v>299</v>
       </c>
-      <c r="F169" t="s">
-        <v>611</v>
-      </c>
-      <c r="G169">
+      <c r="E169" t="s">
+        <v>611</v>
+      </c>
+      <c r="F169">
         <v>587.32000000000005</v>
       </c>
       <c r="I169" t="s">
@@ -6217,10 +6218,10 @@
       <c r="D170" t="s">
         <v>525</v>
       </c>
-      <c r="F170" t="s">
-        <v>611</v>
-      </c>
-      <c r="G170">
+      <c r="E170" t="s">
+        <v>611</v>
+      </c>
+      <c r="F170">
         <v>3078.01</v>
       </c>
       <c r="I170" t="s">
@@ -6240,10 +6241,10 @@
       <c r="D171" t="s">
         <v>303</v>
       </c>
-      <c r="F171" t="s">
-        <v>611</v>
-      </c>
-      <c r="G171">
+      <c r="E171" t="s">
+        <v>611</v>
+      </c>
+      <c r="F171">
         <v>342.4</v>
       </c>
       <c r="H171" t="s">
@@ -6266,10 +6267,10 @@
       <c r="D172" t="s">
         <v>625</v>
       </c>
-      <c r="F172" t="s">
-        <v>611</v>
-      </c>
-      <c r="G172">
+      <c r="E172" t="s">
+        <v>611</v>
+      </c>
+      <c r="F172">
         <v>23091.98</v>
       </c>
       <c r="I172" t="s">
@@ -6289,10 +6290,10 @@
       <c r="D173" t="s">
         <v>307</v>
       </c>
-      <c r="F173" t="s">
-        <v>611</v>
-      </c>
-      <c r="G173">
+      <c r="E173" t="s">
+        <v>611</v>
+      </c>
+      <c r="F173">
         <v>5242.5</v>
       </c>
       <c r="H173" t="s">
@@ -6315,10 +6316,10 @@
       <c r="D174" t="s">
         <v>19</v>
       </c>
-      <c r="F174" t="s">
-        <v>611</v>
-      </c>
-      <c r="G174">
+      <c r="E174" t="s">
+        <v>611</v>
+      </c>
+      <c r="F174">
         <v>3984.68</v>
       </c>
       <c r="H174" t="s">
@@ -6341,10 +6342,10 @@
       <c r="D175" t="s">
         <v>626</v>
       </c>
-      <c r="F175" t="s">
-        <v>611</v>
-      </c>
-      <c r="G175">
+      <c r="E175" t="s">
+        <v>611</v>
+      </c>
+      <c r="F175">
         <v>18810.599999999999</v>
       </c>
       <c r="H175" t="s">
@@ -6367,10 +6368,10 @@
       <c r="D176" t="s">
         <v>530</v>
       </c>
-      <c r="F176" t="s">
-        <v>611</v>
-      </c>
-      <c r="G176">
+      <c r="E176" t="s">
+        <v>611</v>
+      </c>
+      <c r="F176">
         <v>213.71</v>
       </c>
       <c r="I176" t="s">
@@ -6390,10 +6391,10 @@
       <c r="D177" t="s">
         <v>530</v>
       </c>
-      <c r="F177" t="s">
-        <v>611</v>
-      </c>
-      <c r="G177">
+      <c r="E177" t="s">
+        <v>611</v>
+      </c>
+      <c r="F177">
         <v>298.08</v>
       </c>
       <c r="I177" t="s">
@@ -6413,10 +6414,10 @@
       <c r="D178" t="s">
         <v>525</v>
       </c>
-      <c r="F178" t="s">
-        <v>611</v>
-      </c>
-      <c r="G178">
+      <c r="E178" t="s">
+        <v>611</v>
+      </c>
+      <c r="F178">
         <v>50.85</v>
       </c>
       <c r="I178" t="s">
@@ -6436,10 +6437,10 @@
       <c r="D179" t="s">
         <v>535</v>
       </c>
-      <c r="F179" t="s">
-        <v>611</v>
-      </c>
-      <c r="G179">
+      <c r="E179" t="s">
+        <v>611</v>
+      </c>
+      <c r="F179">
         <v>7673.9</v>
       </c>
       <c r="I179" t="s">
@@ -6459,10 +6460,10 @@
       <c r="D180" t="s">
         <v>627</v>
       </c>
-      <c r="F180" t="s">
-        <v>611</v>
-      </c>
-      <c r="G180">
+      <c r="E180" t="s">
+        <v>611</v>
+      </c>
+      <c r="F180">
         <v>3467.07</v>
       </c>
       <c r="H180" t="s">
@@ -6485,10 +6486,10 @@
       <c r="D181" t="s">
         <v>627</v>
       </c>
-      <c r="F181" t="s">
-        <v>611</v>
-      </c>
-      <c r="G181">
+      <c r="E181" t="s">
+        <v>611</v>
+      </c>
+      <c r="F181">
         <v>1855.95</v>
       </c>
       <c r="H181" t="s">
@@ -6511,10 +6512,10 @@
       <c r="D182" t="s">
         <v>627</v>
       </c>
-      <c r="F182" t="s">
-        <v>611</v>
-      </c>
-      <c r="G182">
+      <c r="E182" t="s">
+        <v>611</v>
+      </c>
+      <c r="F182">
         <v>732.31</v>
       </c>
       <c r="H182" t="s">
@@ -6537,10 +6538,10 @@
       <c r="D183" t="s">
         <v>627</v>
       </c>
-      <c r="F183" t="s">
-        <v>611</v>
-      </c>
-      <c r="G183">
+      <c r="E183" t="s">
+        <v>611</v>
+      </c>
+      <c r="F183">
         <v>819.19</v>
       </c>
       <c r="H183" t="s">
@@ -6563,10 +6564,10 @@
       <c r="D184" t="s">
         <v>627</v>
       </c>
-      <c r="F184" t="s">
-        <v>611</v>
-      </c>
-      <c r="G184">
+      <c r="E184" t="s">
+        <v>611</v>
+      </c>
+      <c r="F184">
         <v>558.54</v>
       </c>
       <c r="H184" t="s">
@@ -6589,10 +6590,10 @@
       <c r="D185" t="s">
         <v>627</v>
       </c>
-      <c r="F185" t="s">
-        <v>611</v>
-      </c>
-      <c r="G185">
+      <c r="E185" t="s">
+        <v>611</v>
+      </c>
+      <c r="F185">
         <v>1686.44</v>
       </c>
       <c r="H185" t="s">
@@ -6615,10 +6616,10 @@
       <c r="D186" t="s">
         <v>627</v>
       </c>
-      <c r="F186" t="s">
-        <v>611</v>
-      </c>
-      <c r="G186">
+      <c r="E186" t="s">
+        <v>611</v>
+      </c>
+      <c r="F186">
         <v>1166.73</v>
       </c>
       <c r="H186" t="s">
@@ -6641,10 +6642,10 @@
       <c r="D187" t="s">
         <v>627</v>
       </c>
-      <c r="F187" t="s">
-        <v>611</v>
-      </c>
-      <c r="G187">
+      <c r="E187" t="s">
+        <v>611</v>
+      </c>
+      <c r="F187">
         <v>338.99</v>
       </c>
       <c r="H187" t="s">
@@ -6667,10 +6668,10 @@
       <c r="D188" t="s">
         <v>627</v>
       </c>
-      <c r="F188" t="s">
-        <v>611</v>
-      </c>
-      <c r="G188">
+      <c r="E188" t="s">
+        <v>611</v>
+      </c>
+      <c r="F188">
         <v>5076.2700000000004</v>
       </c>
       <c r="H188" t="s">
@@ -6693,10 +6694,10 @@
       <c r="D189" t="s">
         <v>627</v>
       </c>
-      <c r="F189" t="s">
-        <v>611</v>
-      </c>
-      <c r="G189">
+      <c r="E189" t="s">
+        <v>611</v>
+      </c>
+      <c r="F189">
         <v>333.84</v>
       </c>
       <c r="H189" t="s">
@@ -6719,10 +6720,10 @@
       <c r="D190" t="s">
         <v>627</v>
       </c>
-      <c r="F190" t="s">
-        <v>611</v>
-      </c>
-      <c r="G190">
+      <c r="E190" t="s">
+        <v>611</v>
+      </c>
+      <c r="F190">
         <v>508.89</v>
       </c>
       <c r="H190" t="s">
@@ -6745,10 +6746,10 @@
       <c r="D191" t="s">
         <v>627</v>
       </c>
-      <c r="F191" t="s">
-        <v>611</v>
-      </c>
-      <c r="G191">
+      <c r="E191" t="s">
+        <v>611</v>
+      </c>
+      <c r="F191">
         <v>508.89</v>
       </c>
       <c r="H191" t="s">
@@ -6771,10 +6772,10 @@
       <c r="D192" t="s">
         <v>627</v>
       </c>
-      <c r="F192" t="s">
-        <v>611</v>
-      </c>
-      <c r="G192">
+      <c r="E192" t="s">
+        <v>611</v>
+      </c>
+      <c r="F192">
         <v>1557.71</v>
       </c>
       <c r="H192" t="s">
@@ -6797,10 +6798,10 @@
       <c r="D193" t="s">
         <v>627</v>
       </c>
-      <c r="F193" t="s">
-        <v>611</v>
-      </c>
-      <c r="G193">
+      <c r="E193" t="s">
+        <v>611</v>
+      </c>
+      <c r="F193">
         <v>1259.82</v>
       </c>
       <c r="H193" t="s">
@@ -6823,10 +6824,10 @@
       <c r="D194" t="s">
         <v>627</v>
       </c>
-      <c r="F194" t="s">
-        <v>611</v>
-      </c>
-      <c r="G194">
+      <c r="E194" t="s">
+        <v>611</v>
+      </c>
+      <c r="F194">
         <v>5879.65</v>
       </c>
       <c r="H194" t="s">
@@ -6849,10 +6850,10 @@
       <c r="D195" t="s">
         <v>627</v>
       </c>
-      <c r="F195" t="s">
-        <v>611</v>
-      </c>
-      <c r="G195">
+      <c r="E195" t="s">
+        <v>611</v>
+      </c>
+      <c r="F195">
         <v>19370.5</v>
       </c>
       <c r="H195" t="s">
@@ -6875,10 +6876,10 @@
       <c r="D196" t="s">
         <v>538</v>
       </c>
-      <c r="F196" t="s">
-        <v>611</v>
-      </c>
-      <c r="G196">
+      <c r="E196" t="s">
+        <v>611</v>
+      </c>
+      <c r="F196">
         <v>14710.76</v>
       </c>
       <c r="I196" t="s">
@@ -6898,10 +6899,10 @@
       <c r="D197" t="s">
         <v>349</v>
       </c>
-      <c r="F197" t="s">
-        <v>611</v>
-      </c>
-      <c r="G197">
+      <c r="E197" t="s">
+        <v>611</v>
+      </c>
+      <c r="F197">
         <v>18529.43</v>
       </c>
       <c r="H197" t="s">
@@ -6924,10 +6925,10 @@
       <c r="D198" t="s">
         <v>307</v>
       </c>
-      <c r="F198" t="s">
-        <v>611</v>
-      </c>
-      <c r="G198">
+      <c r="E198" t="s">
+        <v>611</v>
+      </c>
+      <c r="F198">
         <v>1382.82</v>
       </c>
       <c r="I198" t="s">
@@ -6947,10 +6948,10 @@
       <c r="D199" t="s">
         <v>307</v>
       </c>
-      <c r="F199" t="s">
-        <v>611</v>
-      </c>
-      <c r="G199">
+      <c r="E199" t="s">
+        <v>611</v>
+      </c>
+      <c r="F199">
         <v>2678.86</v>
       </c>
       <c r="I199" t="s">
@@ -6970,10 +6971,10 @@
       <c r="D200" t="s">
         <v>307</v>
       </c>
-      <c r="F200" t="s">
-        <v>611</v>
-      </c>
-      <c r="G200">
+      <c r="E200" t="s">
+        <v>611</v>
+      </c>
+      <c r="F200">
         <v>1096.8800000000001</v>
       </c>
       <c r="I200" t="s">
@@ -6993,10 +6994,10 @@
       <c r="D201" t="s">
         <v>307</v>
       </c>
-      <c r="F201" t="s">
-        <v>611</v>
-      </c>
-      <c r="G201">
+      <c r="E201" t="s">
+        <v>611</v>
+      </c>
+      <c r="F201">
         <v>1072.43</v>
       </c>
       <c r="I201" t="s">
@@ -7016,10 +7017,10 @@
       <c r="D202" t="s">
         <v>307</v>
       </c>
-      <c r="F202" t="s">
-        <v>611</v>
-      </c>
-      <c r="G202">
+      <c r="E202" t="s">
+        <v>611</v>
+      </c>
+      <c r="F202">
         <v>1319.37</v>
       </c>
       <c r="I202" t="s">
@@ -7039,10 +7040,10 @@
       <c r="D203" t="s">
         <v>307</v>
       </c>
-      <c r="F203" t="s">
-        <v>611</v>
-      </c>
-      <c r="G203">
+      <c r="E203" t="s">
+        <v>611</v>
+      </c>
+      <c r="F203">
         <v>1165.25</v>
       </c>
       <c r="I203" t="s">
@@ -7062,10 +7063,10 @@
       <c r="D204" t="s">
         <v>525</v>
       </c>
-      <c r="F204" t="s">
-        <v>611</v>
-      </c>
-      <c r="G204">
+      <c r="E204" t="s">
+        <v>611</v>
+      </c>
+      <c r="F204">
         <v>5479.19</v>
       </c>
       <c r="I204" t="s">
@@ -7085,10 +7086,10 @@
       <c r="D205" t="s">
         <v>525</v>
       </c>
-      <c r="F205" t="s">
-        <v>611</v>
-      </c>
-      <c r="G205">
+      <c r="E205" t="s">
+        <v>611</v>
+      </c>
+      <c r="F205">
         <v>587.23</v>
       </c>
       <c r="I205" t="s">
@@ -7108,10 +7109,10 @@
       <c r="D206" t="s">
         <v>628</v>
       </c>
-      <c r="F206" t="s">
-        <v>611</v>
-      </c>
-      <c r="G206">
+      <c r="E206" t="s">
+        <v>611</v>
+      </c>
+      <c r="F206">
         <v>1723.34</v>
       </c>
       <c r="H206" t="s">
@@ -7134,10 +7135,10 @@
       <c r="D207" t="s">
         <v>356</v>
       </c>
-      <c r="F207" t="s">
-        <v>611</v>
-      </c>
-      <c r="G207">
+      <c r="E207" t="s">
+        <v>611</v>
+      </c>
+      <c r="F207">
         <v>3113.7</v>
       </c>
       <c r="H207" t="s">
@@ -7160,10 +7161,10 @@
       <c r="D208" t="s">
         <v>628</v>
       </c>
-      <c r="F208" t="s">
-        <v>611</v>
-      </c>
-      <c r="G208">
+      <c r="E208" t="s">
+        <v>611</v>
+      </c>
+      <c r="F208">
         <v>1591.06</v>
       </c>
       <c r="H208" t="s">
@@ -7186,10 +7187,10 @@
       <c r="D209" t="s">
         <v>362</v>
       </c>
-      <c r="F209" t="s">
-        <v>611</v>
-      </c>
-      <c r="G209">
+      <c r="E209" t="s">
+        <v>611</v>
+      </c>
+      <c r="F209">
         <v>294.79000000000002</v>
       </c>
       <c r="H209" t="s">
@@ -7212,10 +7213,10 @@
       <c r="D210" t="s">
         <v>307</v>
       </c>
-      <c r="F210" t="s">
-        <v>611</v>
-      </c>
-      <c r="G210">
+      <c r="E210" t="s">
+        <v>611</v>
+      </c>
+      <c r="F210">
         <v>8977.5</v>
       </c>
       <c r="H210" t="s">
@@ -7238,10 +7239,10 @@
       <c r="D211" t="s">
         <v>307</v>
       </c>
-      <c r="F211" t="s">
-        <v>611</v>
-      </c>
-      <c r="G211">
+      <c r="E211" t="s">
+        <v>611</v>
+      </c>
+      <c r="F211">
         <v>4783.99</v>
       </c>
       <c r="H211" t="s">
@@ -7264,10 +7265,10 @@
       <c r="D212" t="s">
         <v>307</v>
       </c>
-      <c r="F212" t="s">
-        <v>611</v>
-      </c>
-      <c r="G212">
+      <c r="E212" t="s">
+        <v>611</v>
+      </c>
+      <c r="F212">
         <v>7175.99</v>
       </c>
       <c r="H212" t="s">
@@ -7290,10 +7291,10 @@
       <c r="D213" t="s">
         <v>307</v>
       </c>
-      <c r="F213" t="s">
-        <v>611</v>
-      </c>
-      <c r="G213">
+      <c r="E213" t="s">
+        <v>611</v>
+      </c>
+      <c r="F213">
         <v>23919.96</v>
       </c>
       <c r="H213" t="s">
@@ -7316,10 +7317,10 @@
       <c r="D214" t="s">
         <v>307</v>
       </c>
-      <c r="F214" t="s">
-        <v>611</v>
-      </c>
-      <c r="G214">
+      <c r="E214" t="s">
+        <v>611</v>
+      </c>
+      <c r="F214">
         <v>23919.96</v>
       </c>
       <c r="H214" t="s">
@@ -7342,10 +7343,10 @@
       <c r="D215" t="s">
         <v>307</v>
       </c>
-      <c r="F215" t="s">
-        <v>611</v>
-      </c>
-      <c r="G215">
+      <c r="E215" t="s">
+        <v>611</v>
+      </c>
+      <c r="F215">
         <v>5985</v>
       </c>
       <c r="H215" t="s">
@@ -7368,10 +7369,10 @@
       <c r="D216" t="s">
         <v>377</v>
       </c>
-      <c r="F216" t="s">
-        <v>611</v>
-      </c>
-      <c r="G216">
+      <c r="E216" t="s">
+        <v>611</v>
+      </c>
+      <c r="F216">
         <v>780</v>
       </c>
       <c r="H216" t="s">
@@ -7394,10 +7395,10 @@
       <c r="D217" t="s">
         <v>380</v>
       </c>
-      <c r="F217" t="s">
-        <v>611</v>
-      </c>
-      <c r="G217">
+      <c r="E217" t="s">
+        <v>611</v>
+      </c>
+      <c r="F217">
         <v>674</v>
       </c>
       <c r="H217" t="s">
@@ -7420,10 +7421,10 @@
       <c r="D218" t="s">
         <v>362</v>
       </c>
-      <c r="F218" t="s">
-        <v>611</v>
-      </c>
-      <c r="G218">
+      <c r="E218" t="s">
+        <v>611</v>
+      </c>
+      <c r="F218">
         <v>12299.65</v>
       </c>
       <c r="H218" t="s">
@@ -7446,10 +7447,10 @@
       <c r="D219" t="s">
         <v>386</v>
       </c>
-      <c r="F219" t="s">
-        <v>611</v>
-      </c>
-      <c r="G219">
+      <c r="E219" t="s">
+        <v>611</v>
+      </c>
+      <c r="F219">
         <v>10978.2</v>
       </c>
       <c r="H219" t="s">
@@ -7472,10 +7473,10 @@
       <c r="D220" t="s">
         <v>362</v>
       </c>
-      <c r="F220" t="s">
-        <v>611</v>
-      </c>
-      <c r="G220">
+      <c r="E220" t="s">
+        <v>611</v>
+      </c>
+      <c r="F220">
         <v>1880.53</v>
       </c>
       <c r="H220" t="s">
@@ -7498,10 +7499,10 @@
       <c r="D221" t="s">
         <v>386</v>
       </c>
-      <c r="F221" t="s">
-        <v>611</v>
-      </c>
-      <c r="G221">
+      <c r="E221" t="s">
+        <v>611</v>
+      </c>
+      <c r="F221">
         <v>10603.7</v>
       </c>
       <c r="H221" t="s">
@@ -7524,10 +7525,10 @@
       <c r="D222" t="s">
         <v>395</v>
       </c>
-      <c r="F222" t="s">
-        <v>611</v>
-      </c>
-      <c r="G222">
+      <c r="E222" t="s">
+        <v>611</v>
+      </c>
+      <c r="F222">
         <v>3728.82</v>
       </c>
       <c r="H222" t="s">
@@ -7550,10 +7551,10 @@
       <c r="D223" t="s">
         <v>629</v>
       </c>
-      <c r="F223" t="s">
-        <v>611</v>
-      </c>
-      <c r="G223">
+      <c r="E223" t="s">
+        <v>611</v>
+      </c>
+      <c r="F223">
         <v>4167.6499999999996</v>
       </c>
       <c r="H223" t="s">
@@ -7576,10 +7577,10 @@
       <c r="D224" t="s">
         <v>629</v>
       </c>
-      <c r="F224" t="s">
-        <v>611</v>
-      </c>
-      <c r="G224">
+      <c r="E224" t="s">
+        <v>611</v>
+      </c>
+      <c r="F224">
         <v>416.77</v>
       </c>
       <c r="H224" t="s">
@@ -7602,10 +7603,10 @@
       <c r="D225" t="s">
         <v>629</v>
       </c>
-      <c r="F225" t="s">
-        <v>611</v>
-      </c>
-      <c r="G225">
+      <c r="E225" t="s">
+        <v>611</v>
+      </c>
+      <c r="F225">
         <v>10002.36</v>
       </c>
       <c r="H225" t="s">
@@ -7628,10 +7629,10 @@
       <c r="D226" t="s">
         <v>629</v>
       </c>
-      <c r="F226" t="s">
-        <v>611</v>
-      </c>
-      <c r="G226">
+      <c r="E226" t="s">
+        <v>611</v>
+      </c>
+      <c r="F226">
         <v>833.53</v>
       </c>
       <c r="H226" t="s">
@@ -7654,10 +7655,10 @@
       <c r="D227" t="s">
         <v>307</v>
       </c>
-      <c r="F227" t="s">
-        <v>611</v>
-      </c>
-      <c r="G227">
+      <c r="E227" t="s">
+        <v>611</v>
+      </c>
+      <c r="F227">
         <v>4342.5</v>
       </c>
       <c r="H227" t="s">
@@ -7680,10 +7681,10 @@
       <c r="D228" t="s">
         <v>307</v>
       </c>
-      <c r="F228" t="s">
-        <v>611</v>
-      </c>
-      <c r="G228">
+      <c r="E228" t="s">
+        <v>611</v>
+      </c>
+      <c r="F228">
         <v>1042.5</v>
       </c>
       <c r="H228" t="s">
@@ -7706,10 +7707,10 @@
       <c r="D229" t="s">
         <v>307</v>
       </c>
-      <c r="F229" t="s">
-        <v>611</v>
-      </c>
-      <c r="G229">
+      <c r="E229" t="s">
+        <v>611</v>
+      </c>
+      <c r="F229">
         <v>22454.98</v>
       </c>
       <c r="H229" t="s">
@@ -7732,10 +7733,10 @@
       <c r="D230" t="s">
         <v>307</v>
       </c>
-      <c r="F230" t="s">
-        <v>611</v>
-      </c>
-      <c r="G230">
+      <c r="E230" t="s">
+        <v>611</v>
+      </c>
+      <c r="F230">
         <v>3217.6</v>
       </c>
       <c r="H230" t="s">
@@ -7758,10 +7759,10 @@
       <c r="D231" t="s">
         <v>307</v>
       </c>
-      <c r="F231" t="s">
-        <v>611</v>
-      </c>
-      <c r="G231">
+      <c r="E231" t="s">
+        <v>611</v>
+      </c>
+      <c r="F231">
         <v>202.5</v>
       </c>
       <c r="H231" t="s">
@@ -7784,10 +7785,10 @@
       <c r="D232" t="s">
         <v>307</v>
       </c>
-      <c r="F232" t="s">
-        <v>611</v>
-      </c>
-      <c r="G232">
+      <c r="E232" t="s">
+        <v>611</v>
+      </c>
+      <c r="F232">
         <v>8550</v>
       </c>
       <c r="H232" t="s">
@@ -7810,10 +7811,10 @@
       <c r="D233" t="s">
         <v>307</v>
       </c>
-      <c r="F233" t="s">
-        <v>611</v>
-      </c>
-      <c r="G233">
+      <c r="E233" t="s">
+        <v>611</v>
+      </c>
+      <c r="F233">
         <v>19135.97</v>
       </c>
       <c r="H233" t="s">
@@ -7836,10 +7837,10 @@
       <c r="D234" t="s">
         <v>307</v>
       </c>
-      <c r="F234" t="s">
-        <v>611</v>
-      </c>
-      <c r="G234">
+      <c r="E234" t="s">
+        <v>611</v>
+      </c>
+      <c r="F234">
         <v>10110</v>
       </c>
       <c r="H234" t="s">
@@ -7862,10 +7863,10 @@
       <c r="D235" t="s">
         <v>307</v>
       </c>
-      <c r="F235" t="s">
-        <v>611</v>
-      </c>
-      <c r="G235">
+      <c r="E235" t="s">
+        <v>611</v>
+      </c>
+      <c r="F235">
         <v>6742.5</v>
       </c>
       <c r="H235" t="s">
@@ -7888,10 +7889,10 @@
       <c r="D236" t="s">
         <v>307</v>
       </c>
-      <c r="F236" t="s">
-        <v>611</v>
-      </c>
-      <c r="G236">
+      <c r="E236" t="s">
+        <v>611</v>
+      </c>
+      <c r="F236">
         <v>13485</v>
       </c>
       <c r="H236" t="s">
@@ -7914,10 +7915,10 @@
       <c r="D237" t="s">
         <v>307</v>
       </c>
-      <c r="F237" t="s">
-        <v>611</v>
-      </c>
-      <c r="G237">
+      <c r="E237" t="s">
+        <v>611</v>
+      </c>
+      <c r="F237">
         <v>2325</v>
       </c>
       <c r="H237" t="s">
@@ -7940,10 +7941,10 @@
       <c r="D238" t="s">
         <v>307</v>
       </c>
-      <c r="F238" t="s">
-        <v>611</v>
-      </c>
-      <c r="G238">
+      <c r="E238" t="s">
+        <v>611</v>
+      </c>
+      <c r="F238">
         <v>2370.0100000000002</v>
       </c>
       <c r="H238" t="s">
@@ -7966,10 +7967,10 @@
       <c r="D239" t="s">
         <v>307</v>
       </c>
-      <c r="F239" t="s">
-        <v>611</v>
-      </c>
-      <c r="G239">
+      <c r="E239" t="s">
+        <v>611</v>
+      </c>
+      <c r="F239">
         <v>2070</v>
       </c>
       <c r="H239" t="s">
@@ -7992,10 +7993,10 @@
       <c r="D240" t="s">
         <v>630</v>
       </c>
-      <c r="F240" t="s">
-        <v>611</v>
-      </c>
-      <c r="G240">
+      <c r="E240" t="s">
+        <v>611</v>
+      </c>
+      <c r="F240">
         <v>3004811.12</v>
       </c>
       <c r="H240" t="s">
@@ -8018,10 +8019,10 @@
       <c r="D241" t="s">
         <v>630</v>
       </c>
-      <c r="F241" t="s">
-        <v>611</v>
-      </c>
-      <c r="G241">
+      <c r="E241" t="s">
+        <v>611</v>
+      </c>
+      <c r="F241">
         <v>447500.75</v>
       </c>
       <c r="H241" t="s">
@@ -8044,10 +8045,10 @@
       <c r="D242" t="s">
         <v>631</v>
       </c>
-      <c r="F242" t="s">
-        <v>611</v>
-      </c>
-      <c r="G242">
+      <c r="E242" t="s">
+        <v>611</v>
+      </c>
+      <c r="F242">
         <v>2817.42</v>
       </c>
       <c r="I242" t="s">
@@ -8067,10 +8068,10 @@
       <c r="D243" t="s">
         <v>632</v>
       </c>
-      <c r="F243" t="s">
-        <v>611</v>
-      </c>
-      <c r="G243">
+      <c r="E243" t="s">
+        <v>611</v>
+      </c>
+      <c r="F243">
         <v>394.38</v>
       </c>
       <c r="I243" t="s">
@@ -8090,10 +8091,10 @@
       <c r="D244" t="s">
         <v>631</v>
       </c>
-      <c r="F244" t="s">
-        <v>611</v>
-      </c>
-      <c r="G244">
+      <c r="E244" t="s">
+        <v>611</v>
+      </c>
+      <c r="F244">
         <v>526.29</v>
       </c>
       <c r="I244" t="s">
@@ -8113,10 +8114,10 @@
       <c r="D245" t="s">
         <v>631</v>
       </c>
-      <c r="F245" t="s">
-        <v>611</v>
-      </c>
-      <c r="G245">
+      <c r="E245" t="s">
+        <v>611</v>
+      </c>
+      <c r="F245">
         <v>7380.89</v>
       </c>
       <c r="I245" t="s">
@@ -8136,10 +8137,10 @@
       <c r="D246" t="s">
         <v>632</v>
       </c>
-      <c r="F246" t="s">
-        <v>611</v>
-      </c>
-      <c r="G246">
+      <c r="E246" t="s">
+        <v>611</v>
+      </c>
+      <c r="F246">
         <v>64.3</v>
       </c>
       <c r="I246" t="s">
@@ -8159,10 +8160,10 @@
       <c r="D247" t="s">
         <v>631</v>
       </c>
-      <c r="F247" t="s">
-        <v>611</v>
-      </c>
-      <c r="G247">
+      <c r="E247" t="s">
+        <v>611</v>
+      </c>
+      <c r="F247">
         <v>1052.58</v>
       </c>
       <c r="I247" t="s">
@@ -8182,10 +8183,10 @@
       <c r="D248" t="s">
         <v>425</v>
       </c>
-      <c r="F248" t="s">
-        <v>611</v>
-      </c>
-      <c r="G248">
+      <c r="E248" t="s">
+        <v>611</v>
+      </c>
+      <c r="F248">
         <v>4815</v>
       </c>
       <c r="H248" t="s">
@@ -8208,10 +8209,10 @@
       <c r="D249" t="s">
         <v>628</v>
       </c>
-      <c r="F249" t="s">
-        <v>611</v>
-      </c>
-      <c r="G249">
+      <c r="E249" t="s">
+        <v>611</v>
+      </c>
+      <c r="F249">
         <v>2456.5</v>
       </c>
       <c r="H249" t="s">
@@ -8234,10 +8235,10 @@
       <c r="D250" t="s">
         <v>630</v>
       </c>
-      <c r="F250" t="s">
-        <v>611</v>
-      </c>
-      <c r="G250">
+      <c r="E250" t="s">
+        <v>611</v>
+      </c>
+      <c r="F250">
         <v>201650.06</v>
       </c>
       <c r="H250" t="s">
@@ -8260,10 +8261,10 @@
       <c r="D251" t="s">
         <v>633</v>
       </c>
-      <c r="F251" t="s">
-        <v>611</v>
-      </c>
-      <c r="G251">
+      <c r="E251" t="s">
+        <v>611</v>
+      </c>
+      <c r="F251">
         <v>46545</v>
       </c>
       <c r="H251" t="s">
@@ -8286,10 +8287,10 @@
       <c r="D252" t="s">
         <v>307</v>
       </c>
-      <c r="F252" t="s">
-        <v>611</v>
-      </c>
-      <c r="G252">
+      <c r="E252" t="s">
+        <v>611</v>
+      </c>
+      <c r="F252">
         <v>465</v>
       </c>
       <c r="H252" t="s">
@@ -8312,10 +8313,10 @@
       <c r="D253" t="s">
         <v>307</v>
       </c>
-      <c r="F253" t="s">
-        <v>611</v>
-      </c>
-      <c r="G253">
+      <c r="E253" t="s">
+        <v>611</v>
+      </c>
+      <c r="F253">
         <v>6302.3</v>
       </c>
       <c r="H253" t="s">
@@ -8338,10 +8339,10 @@
       <c r="D254" t="s">
         <v>634</v>
       </c>
-      <c r="F254" t="s">
-        <v>611</v>
-      </c>
-      <c r="G254">
+      <c r="E254" t="s">
+        <v>611</v>
+      </c>
+      <c r="F254">
         <v>11730.43</v>
       </c>
       <c r="H254" t="s">
@@ -8364,10 +8365,10 @@
       <c r="D255" t="s">
         <v>634</v>
       </c>
-      <c r="F255" t="s">
-        <v>611</v>
-      </c>
-      <c r="G255">
+      <c r="E255" t="s">
+        <v>611</v>
+      </c>
+      <c r="F255">
         <v>58652.160000000003</v>
       </c>
       <c r="H255" t="s">
@@ -8390,10 +8391,10 @@
       <c r="D256" t="s">
         <v>631</v>
       </c>
-      <c r="F256" t="s">
-        <v>611</v>
-      </c>
-      <c r="G256">
+      <c r="E256" t="s">
+        <v>611</v>
+      </c>
+      <c r="F256">
         <v>7343.64</v>
       </c>
       <c r="I256" t="s">
@@ -8413,10 +8414,10 @@
       <c r="D257" t="s">
         <v>447</v>
       </c>
-      <c r="F257" t="s">
-        <v>611</v>
-      </c>
-      <c r="G257">
+      <c r="E257" t="s">
+        <v>611</v>
+      </c>
+      <c r="F257">
         <v>1412.94</v>
       </c>
       <c r="I257" t="s">
@@ -8436,10 +8437,10 @@
       <c r="D258" t="s">
         <v>635</v>
       </c>
-      <c r="F258" t="s">
-        <v>611</v>
-      </c>
-      <c r="G258">
+      <c r="E258" t="s">
+        <v>611</v>
+      </c>
+      <c r="F258">
         <v>1048.5999999999999</v>
       </c>
       <c r="I258" t="s">
@@ -8459,10 +8460,10 @@
       <c r="D259" t="s">
         <v>630</v>
       </c>
-      <c r="F259" t="s">
-        <v>611</v>
-      </c>
-      <c r="G259">
+      <c r="E259" t="s">
+        <v>611</v>
+      </c>
+      <c r="F259">
         <v>64475.42</v>
       </c>
       <c r="I259" t="s">
@@ -8482,10 +8483,10 @@
       <c r="D260" t="s">
         <v>630</v>
       </c>
-      <c r="F260" t="s">
-        <v>611</v>
-      </c>
-      <c r="G260">
+      <c r="E260" t="s">
+        <v>611</v>
+      </c>
+      <c r="F260">
         <v>43034.76</v>
       </c>
       <c r="I260" t="s">
@@ -8505,10 +8506,10 @@
       <c r="D261" t="s">
         <v>299</v>
       </c>
-      <c r="F261" t="s">
-        <v>611</v>
-      </c>
-      <c r="G261">
+      <c r="E261" t="s">
+        <v>611</v>
+      </c>
+      <c r="F261">
         <v>2631.63</v>
       </c>
       <c r="I261" t="s">
@@ -8528,10 +8529,10 @@
       <c r="D262" t="s">
         <v>299</v>
       </c>
-      <c r="F262" t="s">
-        <v>611</v>
-      </c>
-      <c r="G262">
+      <c r="E262" t="s">
+        <v>611</v>
+      </c>
+      <c r="F262">
         <v>449.81</v>
       </c>
       <c r="I262" t="s">
@@ -8551,10 +8552,10 @@
       <c r="D263" t="s">
         <v>299</v>
       </c>
-      <c r="F263" t="s">
-        <v>611</v>
-      </c>
-      <c r="G263">
+      <c r="E263" t="s">
+        <v>611</v>
+      </c>
+      <c r="F263">
         <v>1525.13</v>
       </c>
       <c r="I263" t="s">
@@ -8574,10 +8575,10 @@
       <c r="D264" t="s">
         <v>561</v>
       </c>
-      <c r="F264" t="s">
-        <v>611</v>
-      </c>
-      <c r="G264">
+      <c r="E264" t="s">
+        <v>611</v>
+      </c>
+      <c r="F264">
         <v>1691.54</v>
       </c>
       <c r="I264" t="s">
@@ -8597,10 +8598,10 @@
       <c r="D265" t="s">
         <v>564</v>
       </c>
-      <c r="F265" t="s">
-        <v>611</v>
-      </c>
-      <c r="G265">
+      <c r="E265" t="s">
+        <v>611</v>
+      </c>
+      <c r="F265">
         <v>659.29</v>
       </c>
       <c r="I265" t="s">
@@ -8620,10 +8621,10 @@
       <c r="D266" t="s">
         <v>564</v>
       </c>
-      <c r="F266" t="s">
-        <v>611</v>
-      </c>
-      <c r="G266">
+      <c r="E266" t="s">
+        <v>611</v>
+      </c>
+      <c r="F266">
         <v>3378.02</v>
       </c>
       <c r="I266" t="s">
@@ -8643,10 +8644,10 @@
       <c r="D267" t="s">
         <v>564</v>
       </c>
-      <c r="F267" t="s">
-        <v>611</v>
-      </c>
-      <c r="G267">
+      <c r="E267" t="s">
+        <v>611</v>
+      </c>
+      <c r="F267">
         <v>2819.3</v>
       </c>
       <c r="I267" t="s">
@@ -8666,10 +8667,10 @@
       <c r="D268" t="s">
         <v>561</v>
       </c>
-      <c r="F268" t="s">
-        <v>611</v>
-      </c>
-      <c r="G268">
+      <c r="E268" t="s">
+        <v>611</v>
+      </c>
+      <c r="F268">
         <v>4226.9399999999996</v>
       </c>
       <c r="I268" t="s">
@@ -8689,10 +8690,10 @@
       <c r="D269" t="s">
         <v>395</v>
       </c>
-      <c r="F269" t="s">
-        <v>611</v>
-      </c>
-      <c r="G269">
+      <c r="E269" t="s">
+        <v>611</v>
+      </c>
+      <c r="F269">
         <v>533.5</v>
       </c>
       <c r="I269" t="s">
@@ -8712,10 +8713,10 @@
       <c r="D270" t="s">
         <v>33</v>
       </c>
-      <c r="F270" t="s">
-        <v>611</v>
-      </c>
-      <c r="G270">
+      <c r="E270" t="s">
+        <v>611</v>
+      </c>
+      <c r="F270">
         <v>190.26</v>
       </c>
       <c r="I270" t="s">
@@ -8735,10 +8736,10 @@
       <c r="D271" t="s">
         <v>630</v>
       </c>
-      <c r="F271" t="s">
-        <v>611</v>
-      </c>
-      <c r="G271">
+      <c r="E271" t="s">
+        <v>611</v>
+      </c>
+      <c r="F271">
         <v>12621.72</v>
       </c>
       <c r="I271" t="s">
@@ -8758,10 +8759,10 @@
       <c r="D272" t="s">
         <v>636</v>
       </c>
-      <c r="F272" t="s">
-        <v>611</v>
-      </c>
-      <c r="G272">
+      <c r="E272" t="s">
+        <v>611</v>
+      </c>
+      <c r="F272">
         <v>865.73</v>
       </c>
       <c r="I272" t="s">
@@ -8781,10 +8782,10 @@
       <c r="D273" t="s">
         <v>636</v>
       </c>
-      <c r="F273" t="s">
-        <v>611</v>
-      </c>
-      <c r="G273">
+      <c r="E273" t="s">
+        <v>611</v>
+      </c>
+      <c r="F273">
         <v>865.73</v>
       </c>
       <c r="I273" t="s">
@@ -8804,10 +8805,10 @@
       <c r="D274" t="s">
         <v>636</v>
       </c>
-      <c r="F274" t="s">
-        <v>611</v>
-      </c>
-      <c r="G274">
+      <c r="E274" t="s">
+        <v>611</v>
+      </c>
+      <c r="F274">
         <v>4786.9399999999996</v>
       </c>
       <c r="I274" t="s">
@@ -8827,10 +8828,10 @@
       <c r="D275" t="s">
         <v>636</v>
       </c>
-      <c r="F275" t="s">
-        <v>611</v>
-      </c>
-      <c r="G275">
+      <c r="E275" t="s">
+        <v>611</v>
+      </c>
+      <c r="F275">
         <v>1396.8</v>
       </c>
       <c r="I275" t="s">
@@ -8850,10 +8851,10 @@
       <c r="D276" t="s">
         <v>636</v>
       </c>
-      <c r="F276" t="s">
-        <v>611</v>
-      </c>
-      <c r="G276">
+      <c r="E276" t="s">
+        <v>611</v>
+      </c>
+      <c r="F276">
         <v>6540.23</v>
       </c>
       <c r="I276" t="s">
@@ -8873,10 +8874,10 @@
       <c r="D277" t="s">
         <v>307</v>
       </c>
-      <c r="F277" t="s">
-        <v>611</v>
-      </c>
-      <c r="G277">
+      <c r="E277" t="s">
+        <v>611</v>
+      </c>
+      <c r="F277">
         <v>2205.0100000000002</v>
       </c>
       <c r="I277" t="s">
@@ -8896,10 +8897,10 @@
       <c r="D278" t="s">
         <v>307</v>
       </c>
-      <c r="F278" t="s">
-        <v>611</v>
-      </c>
-      <c r="G278">
+      <c r="E278" t="s">
+        <v>611</v>
+      </c>
+      <c r="F278">
         <v>1837.51</v>
       </c>
       <c r="I278" t="s">
@@ -8919,10 +8920,10 @@
       <c r="D279" t="s">
         <v>307</v>
       </c>
-      <c r="F279" t="s">
-        <v>611</v>
-      </c>
-      <c r="G279">
+      <c r="E279" t="s">
+        <v>611</v>
+      </c>
+      <c r="F279">
         <v>1470.01</v>
       </c>
       <c r="I279" t="s">
@@ -8942,10 +8943,10 @@
       <c r="D280" t="s">
         <v>307</v>
       </c>
-      <c r="F280" t="s">
-        <v>611</v>
-      </c>
-      <c r="G280">
+      <c r="E280" t="s">
+        <v>611</v>
+      </c>
+      <c r="F280">
         <v>1470.01</v>
       </c>
       <c r="I280" t="s">
@@ -8965,10 +8966,10 @@
       <c r="D281" t="s">
         <v>307</v>
       </c>
-      <c r="F281" t="s">
-        <v>611</v>
-      </c>
-      <c r="G281">
+      <c r="E281" t="s">
+        <v>611</v>
+      </c>
+      <c r="F281">
         <v>4867.4799999999996</v>
       </c>
       <c r="I281" t="s">
@@ -8988,10 +8989,10 @@
       <c r="D282" t="s">
         <v>307</v>
       </c>
-      <c r="F282" t="s">
-        <v>611</v>
-      </c>
-      <c r="G282">
+      <c r="E282" t="s">
+        <v>611</v>
+      </c>
+      <c r="F282">
         <v>442.5</v>
       </c>
       <c r="I282" t="s">
@@ -9011,10 +9012,10 @@
       <c r="D283" t="s">
         <v>466</v>
       </c>
-      <c r="F283" t="s">
-        <v>611</v>
-      </c>
-      <c r="G283">
+      <c r="E283" t="s">
+        <v>611</v>
+      </c>
+      <c r="F283">
         <v>21828</v>
       </c>
       <c r="I283" t="s">
@@ -9034,10 +9035,10 @@
       <c r="D284" t="s">
         <v>629</v>
       </c>
-      <c r="F284" t="s">
-        <v>611</v>
-      </c>
-      <c r="G284">
+      <c r="E284" t="s">
+        <v>611</v>
+      </c>
+      <c r="F284">
         <v>1372.28</v>
       </c>
       <c r="I284" t="s">
@@ -9057,10 +9058,10 @@
       <c r="D285" t="s">
         <v>629</v>
       </c>
-      <c r="F285" t="s">
-        <v>611</v>
-      </c>
-      <c r="G285">
+      <c r="E285" t="s">
+        <v>611</v>
+      </c>
+      <c r="F285">
         <v>1646.73</v>
       </c>
       <c r="I285" t="s">
@@ -9080,10 +9081,10 @@
       <c r="D286" t="s">
         <v>629</v>
       </c>
-      <c r="F286" t="s">
-        <v>611</v>
-      </c>
-      <c r="G286">
+      <c r="E286" t="s">
+        <v>611</v>
+      </c>
+      <c r="F286">
         <v>365.94</v>
       </c>
       <c r="I286" t="s">
@@ -9103,10 +9104,10 @@
       <c r="D287" t="s">
         <v>629</v>
       </c>
-      <c r="F287" t="s">
-        <v>611</v>
-      </c>
-      <c r="G287">
+      <c r="E287" t="s">
+        <v>611</v>
+      </c>
+      <c r="F287">
         <v>914.85</v>
       </c>
       <c r="I287" t="s">
@@ -9126,10 +9127,10 @@
       <c r="D288" t="s">
         <v>629</v>
       </c>
-      <c r="F288" t="s">
-        <v>611</v>
-      </c>
-      <c r="G288">
+      <c r="E288" t="s">
+        <v>611</v>
+      </c>
+      <c r="F288">
         <v>274.45999999999998</v>
       </c>
       <c r="I288" t="s">
@@ -9149,10 +9150,10 @@
       <c r="D289" t="s">
         <v>307</v>
       </c>
-      <c r="F289" t="s">
-        <v>611</v>
-      </c>
-      <c r="G289">
+      <c r="E289" t="s">
+        <v>611</v>
+      </c>
+      <c r="F289">
         <v>23624.99</v>
       </c>
       <c r="I289" t="s">
@@ -9172,10 +9173,10 @@
       <c r="D290" t="s">
         <v>33</v>
       </c>
-      <c r="F290" t="s">
-        <v>611</v>
-      </c>
-      <c r="G290">
+      <c r="E290" t="s">
+        <v>611</v>
+      </c>
+      <c r="F290">
         <v>2364.41</v>
       </c>
       <c r="I290" t="s">
@@ -9195,10 +9196,10 @@
       <c r="D291" t="s">
         <v>476</v>
       </c>
-      <c r="F291" t="s">
-        <v>611</v>
-      </c>
-      <c r="G291">
+      <c r="E291" t="s">
+        <v>611</v>
+      </c>
+      <c r="F291">
         <v>1687.39</v>
       </c>
       <c r="I291" t="s">
@@ -9218,10 +9219,10 @@
       <c r="D292" t="s">
         <v>630</v>
       </c>
-      <c r="F292" t="s">
-        <v>611</v>
-      </c>
-      <c r="G292">
+      <c r="E292" t="s">
+        <v>611</v>
+      </c>
+      <c r="F292">
         <v>106815.53</v>
       </c>
       <c r="I292" t="s">
@@ -9241,10 +9242,10 @@
       <c r="D293" t="s">
         <v>636</v>
       </c>
-      <c r="F293" t="s">
-        <v>611</v>
-      </c>
-      <c r="G293">
+      <c r="E293" t="s">
+        <v>611</v>
+      </c>
+      <c r="F293">
         <v>772.42</v>
       </c>
       <c r="I293" t="s">
@@ -9264,10 +9265,10 @@
       <c r="D294" t="s">
         <v>637</v>
       </c>
-      <c r="F294" t="s">
-        <v>611</v>
-      </c>
-      <c r="G294">
+      <c r="E294" t="s">
+        <v>611</v>
+      </c>
+      <c r="F294">
         <v>714.58</v>
       </c>
       <c r="I294" t="s">
@@ -9287,10 +9288,10 @@
       <c r="D295" t="s">
         <v>638</v>
       </c>
-      <c r="F295" t="s">
-        <v>611</v>
-      </c>
-      <c r="G295">
+      <c r="E295" t="s">
+        <v>611</v>
+      </c>
+      <c r="F295">
         <v>677.52</v>
       </c>
       <c r="I295" t="s">
@@ -9310,10 +9311,10 @@
       <c r="D296" t="s">
         <v>576</v>
       </c>
-      <c r="F296" t="s">
-        <v>611</v>
-      </c>
-      <c r="G296">
+      <c r="E296" t="s">
+        <v>611</v>
+      </c>
+      <c r="F296">
         <v>609.38</v>
       </c>
       <c r="I296" t="s">
@@ -9333,10 +9334,10 @@
       <c r="D297" t="s">
         <v>639</v>
       </c>
-      <c r="F297" t="s">
-        <v>611</v>
-      </c>
-      <c r="G297">
+      <c r="E297" t="s">
+        <v>611</v>
+      </c>
+      <c r="F297">
         <v>85.08</v>
       </c>
       <c r="I297" t="s">
@@ -9356,10 +9357,10 @@
       <c r="D298" t="s">
         <v>640</v>
       </c>
-      <c r="F298" t="s">
-        <v>611</v>
-      </c>
-      <c r="G298">
+      <c r="E298" t="s">
+        <v>611</v>
+      </c>
+      <c r="F298">
         <v>526.16</v>
       </c>
       <c r="I298" t="s">
@@ -9379,10 +9380,10 @@
       <c r="D299" t="s">
         <v>583</v>
       </c>
-      <c r="F299" t="s">
-        <v>611</v>
-      </c>
-      <c r="G299">
+      <c r="E299" t="s">
+        <v>611</v>
+      </c>
+      <c r="F299">
         <v>7494.4</v>
       </c>
       <c r="I299" t="s">
@@ -9402,10 +9403,10 @@
       <c r="D300" t="s">
         <v>641</v>
       </c>
-      <c r="F300" t="s">
-        <v>611</v>
-      </c>
-      <c r="G300">
+      <c r="E300" t="s">
+        <v>611</v>
+      </c>
+      <c r="F300">
         <v>67.27</v>
       </c>
       <c r="I300" t="s">
@@ -9425,10 +9426,10 @@
       <c r="D301" t="s">
         <v>583</v>
       </c>
-      <c r="F301" t="s">
-        <v>611</v>
-      </c>
-      <c r="G301">
+      <c r="E301" t="s">
+        <v>611</v>
+      </c>
+      <c r="F301">
         <v>77625.289999999994</v>
       </c>
       <c r="I301" t="s">
@@ -9448,10 +9449,10 @@
       <c r="D302" t="s">
         <v>637</v>
       </c>
-      <c r="F302" t="s">
-        <v>611</v>
-      </c>
-      <c r="G302">
+      <c r="E302" t="s">
+        <v>611</v>
+      </c>
+      <c r="F302">
         <v>3043.24</v>
       </c>
       <c r="I302" t="s">
@@ -9471,10 +9472,10 @@
       <c r="D303" t="s">
         <v>636</v>
       </c>
-      <c r="F303" t="s">
-        <v>611</v>
-      </c>
-      <c r="G303">
+      <c r="E303" t="s">
+        <v>611</v>
+      </c>
+      <c r="F303">
         <v>6436.81</v>
       </c>
       <c r="I303" t="s">
@@ -9494,10 +9495,10 @@
       <c r="D304" t="s">
         <v>642</v>
       </c>
-      <c r="F304" t="s">
-        <v>611</v>
-      </c>
-      <c r="G304">
+      <c r="E304" t="s">
+        <v>611</v>
+      </c>
+      <c r="F304">
         <v>8222.77</v>
       </c>
       <c r="I304" t="s">
@@ -9517,10 +9518,10 @@
       <c r="D305" t="s">
         <v>638</v>
       </c>
-      <c r="F305" t="s">
-        <v>611</v>
-      </c>
-      <c r="G305">
+      <c r="E305" t="s">
+        <v>611</v>
+      </c>
+      <c r="F305">
         <v>7904.22</v>
       </c>
       <c r="I305" t="s">
@@ -9540,10 +9541,10 @@
       <c r="D306" t="s">
         <v>576</v>
       </c>
-      <c r="F306" t="s">
-        <v>611</v>
-      </c>
-      <c r="G306">
+      <c r="E306" t="s">
+        <v>611</v>
+      </c>
+      <c r="F306">
         <v>518.38</v>
       </c>
       <c r="I306" t="s">
@@ -9563,10 +9564,10 @@
       <c r="D307" t="s">
         <v>640</v>
       </c>
-      <c r="F307" t="s">
-        <v>611</v>
-      </c>
-      <c r="G307">
+      <c r="E307" t="s">
+        <v>611</v>
+      </c>
+      <c r="F307">
         <v>8315.75</v>
       </c>
       <c r="I307" t="s">
@@ -9586,10 +9587,10 @@
       <c r="D308" t="s">
         <v>643</v>
       </c>
-      <c r="F308" t="s">
-        <v>611</v>
-      </c>
-      <c r="G308">
+      <c r="E308" t="s">
+        <v>611</v>
+      </c>
+      <c r="F308">
         <v>50.45</v>
       </c>
       <c r="I308" t="s">
@@ -9609,10 +9610,10 @@
       <c r="D309" t="s">
         <v>644</v>
       </c>
-      <c r="F309" t="s">
-        <v>611</v>
-      </c>
-      <c r="G309">
+      <c r="E309" t="s">
+        <v>611</v>
+      </c>
+      <c r="F309">
         <v>3176.63</v>
       </c>
       <c r="I309" t="s">
@@ -9632,10 +9633,10 @@
       <c r="D310" t="s">
         <v>583</v>
       </c>
-      <c r="F310" t="s">
-        <v>611</v>
-      </c>
-      <c r="G310">
+      <c r="E310" t="s">
+        <v>611</v>
+      </c>
+      <c r="F310">
         <v>208091.11</v>
       </c>
       <c r="I310" t="s">
@@ -9655,10 +9656,10 @@
       <c r="D311" t="s">
         <v>641</v>
       </c>
-      <c r="F311" t="s">
-        <v>611</v>
-      </c>
-      <c r="G311">
+      <c r="E311" t="s">
+        <v>611</v>
+      </c>
+      <c r="F311">
         <v>1714.73</v>
       </c>
       <c r="I311" t="s">
@@ -9678,10 +9679,10 @@
       <c r="D312" t="s">
         <v>583</v>
       </c>
-      <c r="F312" t="s">
-        <v>611</v>
-      </c>
-      <c r="G312">
+      <c r="E312" t="s">
+        <v>611</v>
+      </c>
+      <c r="F312">
         <v>166472.89000000001</v>
       </c>
       <c r="I312" t="s">
@@ -9701,10 +9702,10 @@
       <c r="D313" t="s">
         <v>637</v>
       </c>
-      <c r="F313" t="s">
-        <v>611</v>
-      </c>
-      <c r="G313">
+      <c r="E313" t="s">
+        <v>611</v>
+      </c>
+      <c r="F313">
         <v>5629.57</v>
       </c>
       <c r="I313" t="s">
@@ -9724,10 +9725,10 @@
       <c r="D314" t="s">
         <v>636</v>
       </c>
-      <c r="F314" t="s">
-        <v>611</v>
-      </c>
-      <c r="G314">
+      <c r="E314" t="s">
+        <v>611</v>
+      </c>
+      <c r="F314">
         <v>858.55</v>
       </c>
       <c r="I314" t="s">
@@ -9747,10 +9748,10 @@
       <c r="D315" t="s">
         <v>637</v>
       </c>
-      <c r="F315" t="s">
-        <v>611</v>
-      </c>
-      <c r="G315">
+      <c r="E315" t="s">
+        <v>611</v>
+      </c>
+      <c r="F315">
         <v>592.37</v>
       </c>
       <c r="I315" t="s">
@@ -9770,10 +9771,10 @@
       <c r="D316" t="s">
         <v>638</v>
       </c>
-      <c r="F316" t="s">
-        <v>611</v>
-      </c>
-      <c r="G316">
+      <c r="E316" t="s">
+        <v>611</v>
+      </c>
+      <c r="F316">
         <v>1811.8</v>
       </c>
       <c r="I316" t="s">
@@ -9793,10 +9794,10 @@
       <c r="D317" t="s">
         <v>640</v>
       </c>
-      <c r="F317" t="s">
-        <v>611</v>
-      </c>
-      <c r="G317">
+      <c r="E317" t="s">
+        <v>611</v>
+      </c>
+      <c r="F317">
         <v>1259.1400000000001</v>
       </c>
       <c r="I317" t="s">
@@ -9816,10 +9817,10 @@
       <c r="D318" t="s">
         <v>644</v>
       </c>
-      <c r="F318" t="s">
-        <v>611</v>
-      </c>
-      <c r="G318">
+      <c r="E318" t="s">
+        <v>611</v>
+      </c>
+      <c r="F318">
         <v>1270.6500000000001</v>
       </c>
       <c r="I318" t="s">
@@ -9839,10 +9840,10 @@
       <c r="D319" t="s">
         <v>583</v>
       </c>
-      <c r="F319" t="s">
-        <v>611</v>
-      </c>
-      <c r="G319">
+      <c r="E319" t="s">
+        <v>611</v>
+      </c>
+      <c r="F319">
         <v>25048.51</v>
       </c>
       <c r="I319" t="s">
@@ -9862,10 +9863,10 @@
       <c r="D320" t="s">
         <v>641</v>
       </c>
-      <c r="F320" t="s">
-        <v>611</v>
-      </c>
-      <c r="G320">
+      <c r="E320" t="s">
+        <v>611</v>
+      </c>
+      <c r="F320">
         <v>685.89</v>
       </c>
       <c r="I320" t="s">
@@ -9882,10 +9883,10 @@
       <c r="D321" t="s">
         <v>479</v>
       </c>
-      <c r="F321" t="s">
-        <v>611</v>
-      </c>
-      <c r="G321">
+      <c r="E321" t="s">
+        <v>611</v>
+      </c>
+      <c r="F321">
         <v>1494.59</v>
       </c>
       <c r="I321" t="s">
